--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CF4D73-B77D-FE4D-8496-22FA3259A946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F9CEAD-07AE-0A4F-8519-16044A5971E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3640" yWindow="-21140" windowWidth="32600" windowHeight="19840" activeTab="7" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
@@ -538,6 +538,72 @@
         </r>
       </text>
     </comment>
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{4017936A-E474-E04E-9540-8EB32AFFAC80}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 to 5.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{413744F3-6297-E943-A4BE-D7F553E06A1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 to 10 contacts.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E25" authorId="0" shapeId="0" xr:uid="{B0161C06-EDCD-8A4B-A141-5140C990201D}">
       <text>
         <r>
@@ -1636,9 +1702,6 @@
     <t>Screening/Overdispersion:</t>
   </si>
   <si>
-    <t>Screening/Contacts:</t>
-  </si>
-  <si>
     <t>contacts</t>
   </si>
   <si>
@@ -1673,6 +1736,9 @@
   </si>
   <si>
     <t>Note that new parameters in v12 compared to v11 are hightlighted.</t>
+  </si>
+  <si>
+    <t>Number of contacts screened per index case:</t>
   </si>
 </sst>
 </file>
@@ -2288,7 +2354,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4311,7 +4377,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4527,7 +4593,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -4544,7 +4610,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -4561,7 +4627,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -4578,7 +4644,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -4595,7 +4661,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -4612,7 +4678,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -4646,8 +4712,8 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5061,13 +5127,13 @@
         <v>49</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="33" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5075,13 +5141,13 @@
         <v>4</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -5759,7 +5825,7 @@
     <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -5773,7 +5839,7 @@
         <v>49</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F9CEAD-07AE-0A4F-8519-16044A5971E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11535B4-210B-0340-B5EB-2AEABB5F0AE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3640" yWindow="-21140" windowWidth="32600" windowHeight="19840" activeTab="7" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="-3640" yWindow="-21140" windowWidth="32600" windowHeight="19840" activeTab="2" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1684,12 +1684,6 @@
     <t>Deaths per person per day</t>
   </si>
   <si>
-    <t>Infection fatality rate in well resourced scenario (%)</t>
-  </si>
-  <si>
-    <t>Severity (proportion of all infections severe enough to require hospitalisation) (%)</t>
-  </si>
-  <si>
     <t>Template v12</t>
   </si>
   <si>
@@ -1739,6 +1733,12 @@
   </si>
   <si>
     <t>Number of contacts screened per index case:</t>
+  </si>
+  <si>
+    <t>Age-stratum-specific hospitalization (proportion of all (asymptomatic + symptomatic) infections that lead to hospitalisation) (%)</t>
+  </si>
+  <si>
+    <t>Age-based relative fatality rate in well-resourced scenario (%)</t>
   </si>
 </sst>
 </file>
@@ -2329,7 +2329,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3499,24 +3499,26 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4476,7 +4478,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B6" s="28">
         <v>1</v>
@@ -4486,7 +4488,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4593,7 +4595,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -4610,7 +4612,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -4627,7 +4629,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -4644,7 +4646,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -4661,7 +4663,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -4678,7 +4680,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -4712,7 +4714,7 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -5115,7 +5117,7 @@
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -5127,13 +5129,13 @@
         <v>49</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5141,13 +5143,13 @@
         <v>4</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -5825,7 +5827,7 @@
     <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -5839,7 +5841,7 @@
         <v>49</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Nexus365\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11535B4-210B-0340-B5EB-2AEABB5F0AE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E28085-8A8E-4721-84EA-DE0D09CDD031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3640" yWindow="-21140" windowWidth="32600" windowHeight="19840" activeTab="2" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Interventions!$A$1:$H$65</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -38,10 +46,35 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Author</author>
     <author>Olivier Celhay</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{75449A71-E16D-874C-A4E3-E802E681943C}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{2EE5D9F9-70D2-4739-AFAE-0614035B39C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{75449A71-E16D-874C-A4E3-E802E681943C}">
       <text>
         <r>
           <rPr>
@@ -74,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{000E9CFB-1FDB-EE47-B9BF-8F8DB282F20A}">
+    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{000E9CFB-1FDB-EE47-B9BF-8F8DB282F20A}">
       <text>
         <r>
           <rPr>
@@ -107,7 +140,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{2040E543-4D10-1848-9CA9-2D20FF237DBA}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{B9D281D5-26D2-4EA9-8894-5FF5A286FE33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1 - 12 (Jan - Dec)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{F5DB51BD-EBA9-4F27-8D31-176034A1BBB8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{2040E543-4D10-1848-9CA9-2D20FF237DBA}">
       <text>
         <r>
           <rPr>
@@ -147,10 +228,59 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Author</author>
     <author>Olivier Celhay</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{3FD13DF3-4955-2247-AAA2-68EC3599CA31}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{19EEFD16-A4C8-43F7-B777-1E668FAB69A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{24739DE5-5B28-428F-A3AB-933649284A03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1 - 4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{3FD13DF3-4955-2247-AAA2-68EC3599CA31}">
       <text>
         <r>
           <rPr>
@@ -183,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{96AD9494-0E73-EB4D-B4E7-5944E1089063}">
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{96AD9494-0E73-EB4D-B4E7-5944E1089063}">
       <text>
         <r>
           <rPr>
@@ -216,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{6AF90CD2-69CC-AA4B-A769-14DADD96C490}">
+    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{6AF90CD2-69CC-AA4B-A769-14DADD96C490}">
       <text>
         <r>
           <rPr>
@@ -249,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{15100A51-88F1-2D4A-BE13-B9EA8C6490CE}">
+    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{15100A51-88F1-2D4A-BE13-B9EA8C6490CE}">
       <text>
         <r>
           <rPr>
@@ -282,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{5813D783-EA21-DD45-B6C5-56D42BCEDA80}">
+    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{5813D783-EA21-DD45-B6C5-56D42BCEDA80}">
       <text>
         <r>
           <rPr>
@@ -315,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{0F7FC5C6-6ECF-DF4D-84D6-9F029454BE66}">
+    <comment ref="B18" authorId="1" shapeId="0" xr:uid="{0F7FC5C6-6ECF-DF4D-84D6-9F029454BE66}">
       <text>
         <r>
           <rPr>
@@ -356,6 +486,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Olivier Celhay</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="E5" authorId="0" shapeId="0" xr:uid="{77684B37-CDB3-E74E-8C26-8F263827E834}">
@@ -504,6 +635,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="E15" authorId="1" shapeId="0" xr:uid="{5DB26A1F-EBBF-4F50-AE3A-4A0EC6729FEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{12B29199-C105-4946-88E3-48F95AE7F550}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="1" shapeId="0" xr:uid="{9BE903E3-626C-4E60-8DA2-1F5489316925}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E20" authorId="0" shapeId="0" xr:uid="{A1399BE4-40CE-BA47-B4B3-1E418F0FDB05}">
       <text>
         <r>
@@ -538,69 +741,51 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{4017936A-E474-E04E-9540-8EB32AFFAC80}">
+    <comment ref="E21" authorId="1" shapeId="0" xr:uid="{218D6E6A-9184-47B3-AFCD-A4600686EA47}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 5.</t>
+1 - 5</t>
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{413744F3-6297-E943-A4BE-D7F553E06A1E}">
+    <comment ref="E22" authorId="1" shapeId="0" xr:uid="{2A3F5E2F-D961-4C00-8CF7-801F8593082C}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 10 contacts.</t>
+1 - 10</t>
         </r>
       </text>
     </comment>
@@ -649,6 +834,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="E26" authorId="1" shapeId="0" xr:uid="{699AC31A-F73B-4C3D-BE5A-4C1A4A669A27}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="1" shapeId="0" xr:uid="{101A2008-1A46-4B30-80E2-64212F268431}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E30" authorId="0" shapeId="0" xr:uid="{4F99D661-CE57-7D44-93F1-092047492F8D}">
       <text>
         <r>
@@ -691,6 +924,30 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E31" authorId="1" shapeId="0" xr:uid="{01C8FCAD-8CB2-4947-BEE0-7BB37A0EA03A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
         </r>
       </text>
     </comment>
@@ -739,6 +996,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="E35" authorId="1" shapeId="0" xr:uid="{73777B26-FBFF-4FBB-B544-74CC83FF909E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E36" authorId="1" shapeId="0" xr:uid="{33ECC315-8C1C-412A-93E2-AC949FE3FD96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E37" authorId="1" shapeId="0" xr:uid="{C52EBBE4-D1FF-4590-95C6-438370A19E03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E40" authorId="0" shapeId="0" xr:uid="{8E8EDCD3-4BAB-6849-9085-856D26230094}">
       <text>
         <r>
@@ -781,6 +1110,54 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="1" shapeId="0" xr:uid="{59D86E4D-23E3-4A93-9A15-CFE70D521E51}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="1" shapeId="0" xr:uid="{05F414A2-8255-46E3-9C62-928679F11C53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
         </r>
       </text>
     </comment>
@@ -818,6 +1195,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="E46" authorId="1" shapeId="0" xr:uid="{BE3F2FEC-713F-45BA-9C4D-01CC36B9D173}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="1" shapeId="0" xr:uid="{728217A9-5FAF-4A64-8758-A31064D2AA76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E48" authorId="0" shapeId="0" xr:uid="{46D2EC60-D9BF-5B4B-8A58-5ABB2239D72B}">
       <text>
         <r>
@@ -885,6 +1310,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E52" authorId="1" shapeId="0" xr:uid="{BCC3B568-B0F7-4053-884F-6FAF392D69F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E55" authorId="0" shapeId="0" xr:uid="{7FE001FC-8872-4A45-957E-CD028723DE5A}">
       <text>
         <r>
@@ -963,6 +1412,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E57" authorId="1" shapeId="0" xr:uid="{20803B72-5D80-4E14-93DD-C3193CE98FF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E58" authorId="0" shapeId="0" xr:uid="{B4AB7C2D-B141-D140-A03F-72A8E66AFC89}">
       <text>
         <r>
@@ -993,6 +1466,54 @@
             <family val="2"/>
           </rPr>
           <t>1 to 5 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E59" authorId="1" shapeId="0" xr:uid="{DC6047C5-CC94-4D39-B8F5-D8E1BC59DC13}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E60" authorId="1" shapeId="0" xr:uid="{DA868374-A6F9-41A4-8E01-641686A7BCD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
         </r>
       </text>
     </comment>
@@ -1038,6 +1559,54 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E64" authorId="1" shapeId="0" xr:uid="{40620AD8-6A40-4988-8657-81051F589FB7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E65" authorId="1" shapeId="0" xr:uid="{936A1F9D-AF0C-4AEA-9081-4A1A7E608056}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
         </r>
       </text>
     </comment>
@@ -1684,6 +2253,12 @@
     <t>Deaths per person per day</t>
   </si>
   <si>
+    <t>Infection fatality rate in well resourced scenario (%)</t>
+  </si>
+  <si>
+    <t>Severity (proportion of all infections severe enough to require hospitalisation) (%)</t>
+  </si>
+  <si>
     <t>Template v12</t>
   </si>
   <si>
@@ -1696,6 +2271,9 @@
     <t>Screening/Overdispersion:</t>
   </si>
   <si>
+    <t>Screening/Contacts:</t>
+  </si>
+  <si>
     <t>contacts</t>
   </si>
   <si>
@@ -1730,15 +2308,6 @@
   </si>
   <si>
     <t>Note that new parameters in v12 compared to v11 are hightlighted.</t>
-  </si>
-  <si>
-    <t>Number of contacts screened per index case:</t>
-  </si>
-  <si>
-    <t>Age-stratum-specific hospitalization (proportion of all (asymptomatic + symptomatic) infections that lead to hospitalisation) (%)</t>
-  </si>
-  <si>
-    <t>Age-based relative fatality rate in well-resourced scenario (%)</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +2318,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1817,6 +2386,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2318,43 +2900,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2369,11 +2951,13 @@
   </sheetPr>
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2384,7 +2968,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43830</v>
       </c>
@@ -2395,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43831</v>
       </c>
@@ -2406,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43832</v>
       </c>
@@ -2417,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43833</v>
       </c>
@@ -2428,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43834</v>
       </c>
@@ -2439,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43835</v>
       </c>
@@ -2450,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43836</v>
       </c>
@@ -2461,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43837</v>
       </c>
@@ -2472,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43838</v>
       </c>
@@ -2483,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43839</v>
       </c>
@@ -2494,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43840</v>
       </c>
@@ -2505,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43841</v>
       </c>
@@ -2516,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43842</v>
       </c>
@@ -2527,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>43843</v>
       </c>
@@ -2538,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43844</v>
       </c>
@@ -2549,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>43845</v>
       </c>
@@ -2560,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>43846</v>
       </c>
@@ -2571,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>43847</v>
       </c>
@@ -2582,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>43848</v>
       </c>
@@ -2593,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>43849</v>
       </c>
@@ -2604,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>43850</v>
       </c>
@@ -2615,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>43851</v>
       </c>
@@ -2626,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>43852</v>
       </c>
@@ -2637,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>43853</v>
       </c>
@@ -2648,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>43854</v>
       </c>
@@ -2659,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>43855</v>
       </c>
@@ -2670,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>43856</v>
       </c>
@@ -2681,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>43857</v>
       </c>
@@ -2692,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>43858</v>
       </c>
@@ -2703,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>43859</v>
       </c>
@@ -2714,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>43860</v>
       </c>
@@ -2725,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>43861</v>
       </c>
@@ -2736,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>43862</v>
       </c>
@@ -2747,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>43863</v>
       </c>
@@ -2758,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>43864</v>
       </c>
@@ -2769,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>43865</v>
       </c>
@@ -2780,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>43866</v>
       </c>
@@ -2791,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>43867</v>
       </c>
@@ -2802,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>43868</v>
       </c>
@@ -2813,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>43869</v>
       </c>
@@ -2824,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>43870</v>
       </c>
@@ -2835,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43871</v>
       </c>
@@ -2846,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43872</v>
       </c>
@@ -2857,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43873</v>
       </c>
@@ -2868,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>43874</v>
       </c>
@@ -2879,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>43875</v>
       </c>
@@ -2890,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>43876</v>
       </c>
@@ -2901,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43877</v>
       </c>
@@ -2912,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>43878</v>
       </c>
@@ -2923,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>43879</v>
       </c>
@@ -2934,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>43880</v>
       </c>
@@ -2945,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>43881</v>
       </c>
@@ -2956,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>43882</v>
       </c>
@@ -2967,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>43883</v>
       </c>
@@ -2978,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>43884</v>
       </c>
@@ -2989,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>43885</v>
       </c>
@@ -3000,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>43886</v>
       </c>
@@ -3011,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>43887</v>
       </c>
@@ -3022,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>43888</v>
       </c>
@@ -3033,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>43889</v>
       </c>
@@ -3044,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>43890</v>
       </c>
@@ -3055,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>43891</v>
       </c>
@@ -3066,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>43892</v>
       </c>
@@ -3077,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>43893</v>
       </c>
@@ -3088,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>43894</v>
       </c>
@@ -3099,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>43895</v>
       </c>
@@ -3110,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>43896</v>
       </c>
@@ -3121,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>43897</v>
       </c>
@@ -3132,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>43898</v>
       </c>
@@ -3143,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>43899</v>
       </c>
@@ -3154,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>43900</v>
       </c>
@@ -3165,7 +3749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>43901</v>
       </c>
@@ -3176,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>43902</v>
       </c>
@@ -3187,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>43903</v>
       </c>
@@ -3198,7 +3782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>43904</v>
       </c>
@@ -3209,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>43905</v>
       </c>
@@ -3220,7 +3804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>43906</v>
       </c>
@@ -3231,7 +3815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>43907</v>
       </c>
@@ -3242,7 +3826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>43908</v>
       </c>
@@ -3253,7 +3837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>43909</v>
       </c>
@@ -3264,7 +3848,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>43910</v>
       </c>
@@ -3275,7 +3859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>43911</v>
       </c>
@@ -3286,7 +3870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>43912</v>
       </c>
@@ -3297,7 +3881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>43913</v>
       </c>
@@ -3308,7 +3892,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>43914</v>
       </c>
@@ -3319,7 +3903,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>43915</v>
       </c>
@@ -3330,7 +3914,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>43916</v>
       </c>
@@ -3341,7 +3925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>43917</v>
       </c>
@@ -3352,7 +3936,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>43918</v>
       </c>
@@ -3363,7 +3947,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>43919</v>
       </c>
@@ -3374,7 +3958,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>43920</v>
       </c>
@@ -3385,7 +3969,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>43921</v>
       </c>
@@ -3396,7 +3980,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>43922</v>
       </c>
@@ -3407,7 +3991,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>43923</v>
       </c>
@@ -3418,7 +4002,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>43924</v>
       </c>
@@ -3429,7 +4013,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>43925</v>
       </c>
@@ -3440,7 +4024,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>43926</v>
       </c>
@@ -3451,43 +4035,48 @@
         <v>708</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>43927</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>43928</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>43929</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>43930</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>43931</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>43932</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>43933</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{CA2F4C38-1945-4E46-88C8-A10E089E0E1E}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3499,29 +4088,29 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3532,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3543,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3554,7 +4143,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3565,7 +4154,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3576,7 +4165,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -3587,7 +4176,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -3598,7 +4187,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -3609,7 +4198,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -3620,7 +4209,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -3631,7 +4220,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -3642,7 +4231,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -3653,7 +4242,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -3664,7 +4253,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -3675,7 +4264,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -3686,7 +4275,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -3697,7 +4286,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -3708,7 +4297,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -3719,7 +4308,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -3730,7 +4319,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -3741,7 +4330,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -3753,6 +4342,12 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B2:B22 C2:C22" xr:uid="{6F77CD72-3BB7-4451-8487-AA34D9320359}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3765,16 +4360,18 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3788,7 +4385,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -3802,7 +4399,7 @@
         <v>2.3722458400227202E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -3816,7 +4413,7 @@
         <v>1.32905378016121E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3830,7 +4427,7 @@
         <v>2.7683021103459102E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -3844,7 +4441,7 @@
         <v>5.9421612308889897E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -3858,7 +4455,7 @@
         <v>9.4061131337053795E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -3872,7 +4469,7 @@
         <v>1.22116449024625E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -3886,7 +4483,7 @@
         <v>1.74496544750293E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -3900,7 +4497,7 @@
         <v>2.3869666845092401E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -3914,7 +4511,7 @@
         <v>3.9402680780452703E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3928,7 +4525,7 @@
         <v>5.9906418526633501E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
@@ -3942,7 +4539,7 @@
         <v>8.5059441930317695E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -3956,7 +4553,7 @@
         <v>1.26668575743058E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3970,7 +4567,7 @@
         <v>2.0472533414662599E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -3984,7 +4581,7 @@
         <v>3.4000512436294603E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -3998,7 +4595,7 @@
         <v>4.9617484749088298E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -4012,7 +4609,7 @@
         <v>8.7449779441565906E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -4026,7 +4623,7 @@
         <v>1.6171761126065301E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -4040,7 +4637,7 @@
         <v>2.9461103089733202E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
@@ -4054,7 +4651,7 @@
         <v>4.9738551978041395E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
@@ -4068,7 +4665,7 @@
         <v>8.9717264255251901E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -4083,6 +4680,14 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C2:D22" xr:uid="{929625A2-06FA-4903-A71F-22589C31D241}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B2:B22" xr:uid="{02619829-1321-4250-94A3-2C5454D7533B}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4098,16 +4703,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -4124,7 +4729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
@@ -4141,7 +4746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
@@ -4159,6 +4764,15 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{A2B6A4A1-21F7-44BD-A536-4E6AFE445B59}">
+      <formula1>1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{931327C6-46CF-4FD3-BA8F-07E73A7543F5}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4171,19 +4785,19 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -4200,7 +4814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
@@ -4217,7 +4831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>58</v>
       </c>
@@ -4234,7 +4848,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
@@ -4251,7 +4865,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>65</v>
       </c>
@@ -4266,7 +4880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>68</v>
       </c>
@@ -4283,7 +4897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -4300,7 +4914,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>73</v>
       </c>
@@ -4317,7 +4931,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>75</v>
       </c>
@@ -4334,7 +4948,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>77</v>
       </c>
@@ -4352,18 +4966,30 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{655A6F57-9369-8648-9632-8EF8EA8EE8F3}">
+  <dataValidations count="6">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{655A6F57-9369-8648-9632-8EF8EA8EE8F3}">
       <formula1>1</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{4CB4E6D8-3096-E34F-B13F-2C8FD631502A}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{4CB4E6D8-3096-E34F-B13F-2C8FD631502A}">
       <formula1>0.5</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{984BCE92-AAE1-0F43-A1B5-01F3543C31B6}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{984BCE92-AAE1-0F43-A1B5-01F3543C31B6}">
       <formula1>1</formula1>
       <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{0E06CA38-619F-4BA0-8821-079A8BC06C88}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B6 B9:B10" xr:uid="{2A8D3FDB-25E9-4D83-8EB8-DB3DA49C3FD5}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{8F3E5C67-D800-4809-ADCB-28B1A2CF8532}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4379,19 +5005,19 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -4408,7 +5034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
@@ -4425,7 +5051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>96</v>
       </c>
@@ -4442,7 +5068,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>97</v>
       </c>
@@ -4459,7 +5085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>98</v>
       </c>
@@ -4476,9 +5102,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B6" s="28">
         <v>1</v>
@@ -4488,10 +5114,10 @@
         <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>99</v>
       </c>
@@ -4508,7 +5134,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>100</v>
       </c>
@@ -4525,7 +5151,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>101</v>
       </c>
@@ -4542,7 +5168,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>102</v>
       </c>
@@ -4559,7 +5185,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>103</v>
       </c>
@@ -4576,7 +5202,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>104</v>
       </c>
@@ -4593,9 +5219,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -4610,9 +5236,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -4627,9 +5253,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -4644,9 +5270,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -4661,9 +5287,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -4678,9 +5304,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -4696,10 +5322,24 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B18" xr:uid="{6C0631D2-5E94-0E44-AEDA-62F22487E25D}">
+  <dataValidations count="5">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B13:B18" xr:uid="{6C0631D2-5E94-0E44-AEDA-62F22487E25D}">
       <formula1>1</formula1>
       <formula2>30</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{1D15A7CB-72A1-4F2B-8C53-02E77DE5D83B}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{B281495F-DB35-47BB-9D76-CFF630A4B4E7}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B5 B7 B8:B12" xr:uid="{5D60B908-FEDB-4FEF-A945-3CA55E06C223}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{F0144E0F-4F43-4FA9-AFD5-45BD3B303306}">
+      <formula1>1</formula1>
+      <formula2>4</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4714,22 +5354,22 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>109</v>
       </c>
@@ -4755,7 +5395,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>206</v>
       </c>
@@ -4774,7 +5414,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>202</v>
       </c>
@@ -4792,7 +5432,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="19" t="s">
         <v>121</v>
@@ -4810,7 +5450,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="19" t="s">
         <v>142</v>
@@ -4830,7 +5470,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>203</v>
       </c>
@@ -4848,7 +5488,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="19" t="s">
         <v>121</v>
@@ -4866,7 +5506,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="19" t="s">
         <v>142</v>
@@ -4886,7 +5526,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>204</v>
       </c>
@@ -4904,7 +5544,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="19" t="s">
         <v>121</v>
@@ -4922,7 +5562,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="22" t="s">
         <v>142</v>
@@ -4942,7 +5582,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>111</v>
       </c>
@@ -4960,7 +5600,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="19" t="s">
         <v>121</v>
@@ -4978,7 +5618,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="19" t="s">
         <v>142</v>
@@ -4998,7 +5638,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="19" t="s">
         <v>157</v>
@@ -5018,7 +5658,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="19" t="s">
         <v>158</v>
@@ -5038,7 +5678,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="19" t="s">
         <v>162</v>
@@ -5056,7 +5696,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="26" t="s">
         <v>159</v>
@@ -5074,7 +5714,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="26" t="s">
         <v>160</v>
@@ -5094,7 +5734,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="26" t="s">
         <v>161</v>
@@ -5114,10 +5754,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -5129,13 +5769,13 @@
         <v>49</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
       <c r="B22" s="33" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5143,16 +5783,16 @@
         <v>4</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>112</v>
       </c>
@@ -5170,7 +5810,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="19" t="s">
         <v>121</v>
@@ -5188,7 +5828,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="19" t="s">
         <v>142</v>
@@ -5208,7 +5848,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="19" t="s">
         <v>157</v>
@@ -5228,7 +5868,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="22" t="s">
         <v>158</v>
@@ -5248,7 +5888,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>113</v>
       </c>
@@ -5266,7 +5906,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
         <v>121</v>
@@ -5284,7 +5924,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="19" t="s">
         <v>142</v>
@@ -5304,7 +5944,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="22" t="s">
         <v>163</v>
@@ -5324,7 +5964,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>114</v>
       </c>
@@ -5342,7 +5982,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="19" t="s">
         <v>121</v>
@@ -5360,7 +6000,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="19" t="s">
         <v>142</v>
@@ -5380,7 +6020,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="19" t="s">
         <v>157</v>
@@ -5400,7 +6040,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="19" t="s">
         <v>163</v>
@@ -5420,7 +6060,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="22" t="s">
         <v>164</v>
@@ -5440,7 +6080,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>115</v>
       </c>
@@ -5458,7 +6098,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="19" t="s">
         <v>121</v>
@@ -5476,7 +6116,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="19" t="s">
         <v>142</v>
@@ -5496,7 +6136,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="19" t="s">
         <v>163</v>
@@ -5516,7 +6156,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="22" t="s">
         <v>166</v>
@@ -5536,7 +6176,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>116</v>
       </c>
@@ -5554,7 +6194,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="19" t="s">
         <v>121</v>
@@ -5572,7 +6212,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="19" t="s">
         <v>142</v>
@@ -5592,7 +6232,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="19" t="s">
         <v>157</v>
@@ -5612,7 +6252,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="19" t="s">
         <v>163</v>
@@ -5632,7 +6272,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="22" t="s">
         <v>178</v>
@@ -5652,7 +6292,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>117</v>
       </c>
@@ -5670,7 +6310,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="19" t="s">
         <v>121</v>
@@ -5688,7 +6328,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="19" t="s">
         <v>142</v>
@@ -5708,7 +6348,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="22" t="s">
         <v>163</v>
@@ -5728,7 +6368,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>118</v>
       </c>
@@ -5746,7 +6386,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="19" t="s">
         <v>121</v>
@@ -5764,7 +6404,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="19" t="s">
         <v>142</v>
@@ -5784,7 +6424,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="19" t="s">
         <v>191</v>
@@ -5804,7 +6444,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="19" t="s">
         <v>157</v>
@@ -5824,10 +6464,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="35" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -5841,10 +6481,10 @@
         <v>49</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="19" t="s">
         <v>192</v>
@@ -5864,7 +6504,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="22" t="s">
         <v>193</v>
@@ -5884,7 +6524,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>195</v>
       </c>
@@ -5902,7 +6542,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="19" t="s">
         <v>121</v>
@@ -5920,7 +6560,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="19" t="s">
         <v>196</v>
@@ -5940,7 +6580,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="19" t="s">
         <v>157</v>
@@ -5960,7 +6600,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="B65" s="22" t="s">
         <v>163</v>
@@ -5982,8 +6622,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H65" xr:uid="{E454A1AF-76A4-7D40-98C2-916796BE8673}"/>
-  <dataValidations count="3">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D18 D10 D4 D7 D54 D24 D29 D33 D39 D44 D50 D62" xr:uid="{DA1B892E-0330-764C-8C13-4DB948EE95A7}">
+  <dataValidations count="7">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D13 D7 D54 D4 D50 D24 D18 D29 D33 D39 D44 D62" xr:uid="{DA1B892E-0330-764C-8C13-4DB948EE95A7}">
       <formula1>43466</formula1>
       <formula2>47119</formula2>
     </dataValidation>
@@ -5991,7 +6631,23 @@
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21 E58" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E58" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
+      <formula1>1</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E8 E11 E14 E20 E25 E30 E34 E40 E45 E51 E55 E63" xr:uid="{79437B14-BBCB-41C8-B199-9D1512AD30EC}">
+      <formula1>1</formula1>
+      <formula2>52</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 E16 E19 E26 E27 E31 E35 E36:E37 E41 E42 E46:E47 E48 E52 E57 E59 E60 E64:E65" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E56" xr:uid="{F1FF1A14-FBFD-4ABB-A983-0610B931ADEC}">
+      <formula1>1</formula1>
+      <formula2>21</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21" xr:uid="{B6D144CD-4330-4834-8E17-FC96B6EF40AB}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
@@ -6009,22 +6665,22 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="b">
         <v>1</v>
       </c>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11535B4-210B-0340-B5EB-2AEABB5F0AE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8A3A64-DF29-3043-9347-8C6F0558EC0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3640" yWindow="-21140" windowWidth="32600" windowHeight="19840" activeTab="2" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="23740" windowHeight="15780" tabRatio="648" activeTab="7" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,35 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Author</author>
     <author>Olivier Celhay</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{75449A71-E16D-874C-A4E3-E802E681943C}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{2EE5D9F9-70D2-4739-AFAE-0614035B39C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{75449A71-E16D-874C-A4E3-E802E681943C}">
       <text>
         <r>
           <rPr>
@@ -74,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{000E9CFB-1FDB-EE47-B9BF-8F8DB282F20A}">
+    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{000E9CFB-1FDB-EE47-B9BF-8F8DB282F20A}">
       <text>
         <r>
           <rPr>
@@ -107,7 +132,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{2040E543-4D10-1848-9CA9-2D20FF237DBA}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{B9D281D5-26D2-4EA9-8894-5FF5A286FE33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1 - 12 (Jan - Dec)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{F5DB51BD-EBA9-4F27-8D31-176034A1BBB8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{2040E543-4D10-1848-9CA9-2D20FF237DBA}">
       <text>
         <r>
           <rPr>
@@ -147,10 +220,59 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Author</author>
     <author>Olivier Celhay</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{3FD13DF3-4955-2247-AAA2-68EC3599CA31}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{19EEFD16-A4C8-43F7-B777-1E668FAB69A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{24739DE5-5B28-428F-A3AB-933649284A03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1 - 4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{3FD13DF3-4955-2247-AAA2-68EC3599CA31}">
       <text>
         <r>
           <rPr>
@@ -183,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{96AD9494-0E73-EB4D-B4E7-5944E1089063}">
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{96AD9494-0E73-EB4D-B4E7-5944E1089063}">
       <text>
         <r>
           <rPr>
@@ -216,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{6AF90CD2-69CC-AA4B-A769-14DADD96C490}">
+    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{6AF90CD2-69CC-AA4B-A769-14DADD96C490}">
       <text>
         <r>
           <rPr>
@@ -249,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{15100A51-88F1-2D4A-BE13-B9EA8C6490CE}">
+    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{15100A51-88F1-2D4A-BE13-B9EA8C6490CE}">
       <text>
         <r>
           <rPr>
@@ -282,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{5813D783-EA21-DD45-B6C5-56D42BCEDA80}">
+    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{5813D783-EA21-DD45-B6C5-56D42BCEDA80}">
       <text>
         <r>
           <rPr>
@@ -315,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{0F7FC5C6-6ECF-DF4D-84D6-9F029454BE66}">
+    <comment ref="B18" authorId="1" shapeId="0" xr:uid="{0F7FC5C6-6ECF-DF4D-84D6-9F029454BE66}">
       <text>
         <r>
           <rPr>
@@ -356,6 +478,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Olivier Celhay</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="E5" authorId="0" shapeId="0" xr:uid="{77684B37-CDB3-E74E-8C26-8F263827E834}">
@@ -504,6 +627,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="E15" authorId="1" shapeId="0" xr:uid="{5DB26A1F-EBBF-4F50-AE3A-4A0EC6729FEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{12B29199-C105-4946-88E3-48F95AE7F550}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="1" shapeId="0" xr:uid="{9BE903E3-626C-4E60-8DA2-1F5489316925}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E20" authorId="0" shapeId="0" xr:uid="{A1399BE4-40CE-BA47-B4B3-1E418F0FDB05}">
       <text>
         <r>
@@ -538,69 +733,51 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{4017936A-E474-E04E-9540-8EB32AFFAC80}">
+    <comment ref="E21" authorId="1" shapeId="0" xr:uid="{218D6E6A-9184-47B3-AFCD-A4600686EA47}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 5.</t>
+1 - 5</t>
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{413744F3-6297-E943-A4BE-D7F553E06A1E}">
+    <comment ref="E22" authorId="1" shapeId="0" xr:uid="{2A3F5E2F-D961-4C00-8CF7-801F8593082C}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 10 contacts.</t>
+1 - 10</t>
         </r>
       </text>
     </comment>
@@ -649,6 +826,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="E26" authorId="1" shapeId="0" xr:uid="{699AC31A-F73B-4C3D-BE5A-4C1A4A669A27}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="1" shapeId="0" xr:uid="{101A2008-1A46-4B30-80E2-64212F268431}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E30" authorId="0" shapeId="0" xr:uid="{4F99D661-CE57-7D44-93F1-092047492F8D}">
       <text>
         <r>
@@ -691,6 +916,30 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E31" authorId="1" shapeId="0" xr:uid="{01C8FCAD-8CB2-4947-BEE0-7BB37A0EA03A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
         </r>
       </text>
     </comment>
@@ -739,6 +988,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="E35" authorId="1" shapeId="0" xr:uid="{73777B26-FBFF-4FBB-B544-74CC83FF909E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E36" authorId="1" shapeId="0" xr:uid="{33ECC315-8C1C-412A-93E2-AC949FE3FD96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E37" authorId="1" shapeId="0" xr:uid="{C52EBBE4-D1FF-4590-95C6-438370A19E03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E40" authorId="0" shapeId="0" xr:uid="{8E8EDCD3-4BAB-6849-9085-856D26230094}">
       <text>
         <r>
@@ -781,6 +1102,54 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="1" shapeId="0" xr:uid="{59D86E4D-23E3-4A93-9A15-CFE70D521E51}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="1" shapeId="0" xr:uid="{05F414A2-8255-46E3-9C62-928679F11C53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
         </r>
       </text>
     </comment>
@@ -818,6 +1187,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="E46" authorId="1" shapeId="0" xr:uid="{BE3F2FEC-713F-45BA-9C4D-01CC36B9D173}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="1" shapeId="0" xr:uid="{728217A9-5FAF-4A64-8758-A31064D2AA76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E48" authorId="0" shapeId="0" xr:uid="{46D2EC60-D9BF-5B4B-8A58-5ABB2239D72B}">
       <text>
         <r>
@@ -885,6 +1302,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E52" authorId="1" shapeId="0" xr:uid="{BCC3B568-B0F7-4053-884F-6FAF392D69F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E55" authorId="0" shapeId="0" xr:uid="{7FE001FC-8872-4A45-957E-CD028723DE5A}">
       <text>
         <r>
@@ -963,6 +1404,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E57" authorId="1" shapeId="0" xr:uid="{20803B72-5D80-4E14-93DD-C3193CE98FF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E58" authorId="0" shapeId="0" xr:uid="{B4AB7C2D-B141-D140-A03F-72A8E66AFC89}">
       <text>
         <r>
@@ -993,6 +1458,54 @@
             <family val="2"/>
           </rPr>
           <t>1 to 5 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E59" authorId="1" shapeId="0" xr:uid="{DC6047C5-CC94-4D39-B8F5-D8E1BC59DC13}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E60" authorId="1" shapeId="0" xr:uid="{DA868374-A6F9-41A4-8E01-641686A7BCD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
         </r>
       </text>
     </comment>
@@ -1038,6 +1551,54 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E64" authorId="1" shapeId="0" xr:uid="{40620AD8-6A40-4988-8657-81051F589FB7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E65" authorId="1" shapeId="0" xr:uid="{936A1F9D-AF0C-4AEA-9081-4A1A7E608056}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
         </r>
       </text>
     </comment>
@@ -1342,9 +1903,6 @@
     <t>Maximum number of ventilators</t>
   </si>
   <si>
-    <t>Relative level of contacts from severely ill patients:</t>
-  </si>
-  <si>
     <t>Probability of dying when hospitalised:</t>
   </si>
   <si>
@@ -1381,9 +1939,6 @@
     <t>Label_2</t>
   </si>
   <si>
-    <t>Self Isolation if Symptomatic</t>
-  </si>
-  <si>
     <t>Social Distancing</t>
   </si>
   <si>
@@ -1696,6 +2251,9 @@
     <t>Screening/Overdispersion:</t>
   </si>
   <si>
+    <t>Screening/Contacts:</t>
+  </si>
+  <si>
     <t>contacts</t>
   </si>
   <si>
@@ -1732,13 +2290,16 @@
     <t>Note that new parameters in v12 compared to v11 are hightlighted.</t>
   </si>
   <si>
-    <t>Number of contacts screened per index case:</t>
+    <t>Age-based relative fatality rate in well-resourced scenario (%)</t>
   </si>
   <si>
     <t>Age-stratum-specific hospitalization (proportion of all (asymptomatic + symptomatic) infections that lead to hospitalisation) (%)</t>
   </si>
   <si>
-    <t>Age-based relative fatality rate in well-resourced scenario (%)</t>
+    <t>Relative percentage of regular daily contacts when hospitalised:</t>
+  </si>
+  <si>
+    <t>Self-isolation if Symptomatic</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +2310,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1817,6 +2378,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2322,39 +2896,39 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="62.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2369,19 +2943,21 @@
   </sheetPr>
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3488,6 +4064,11 @@
     </row>
   </sheetData>
   <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{CA2F4C38-1945-4E46-88C8-A10E089E0E1E}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3499,26 +4080,26 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3753,6 +4334,12 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B2:B22 C2:C22" xr:uid="{6F77CD72-3BB7-4451-8487-AA34D9320359}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3765,27 +4352,29 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4083,6 +4672,14 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C2:D22" xr:uid="{929625A2-06FA-4903-A71F-22589C31D241}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B2:B22" xr:uid="{02619829-1321-4250-94A3-2C5454D7533B}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4098,7 +4695,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
@@ -4159,6 +4756,15 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{A2B6A4A1-21F7-44BD-A536-4E6AFE445B59}">
+      <formula1>1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{931327C6-46CF-4FD3-BA8F-07E73A7543F5}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4171,10 +4777,10 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -4352,18 +4958,30 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{655A6F57-9369-8648-9632-8EF8EA8EE8F3}">
+  <dataValidations count="6">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{655A6F57-9369-8648-9632-8EF8EA8EE8F3}">
       <formula1>1</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{4CB4E6D8-3096-E34F-B13F-2C8FD631502A}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{4CB4E6D8-3096-E34F-B13F-2C8FD631502A}">
       <formula1>0.5</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{984BCE92-AAE1-0F43-A1B5-01F3543C31B6}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{984BCE92-AAE1-0F43-A1B5-01F3543C31B6}">
       <formula1>1</formula1>
       <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{0E06CA38-619F-4BA0-8821-079A8BC06C88}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B6 B9:B10" xr:uid="{2A8D3FDB-25E9-4D83-8EB8-DB3DA49C3FD5}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{8F3E5C67-D800-4809-ADCB-28B1A2CF8532}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4382,9 +5000,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -4461,7 +5079,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -4478,7 +5096,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B6" s="28">
         <v>1</v>
@@ -4488,12 +5106,12 @@
         <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -4510,7 +5128,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>45</v>
@@ -4527,7 +5145,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>55</v>
@@ -4544,7 +5162,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -4561,7 +5179,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>80</v>
@@ -4578,7 +5196,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12">
         <v>95</v>
@@ -4595,7 +5213,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -4612,7 +5230,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -4629,7 +5247,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -4646,7 +5264,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -4663,7 +5281,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -4680,7 +5298,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -4696,10 +5314,24 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B18" xr:uid="{6C0631D2-5E94-0E44-AEDA-62F22487E25D}">
+  <dataValidations count="5">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B13:B18" xr:uid="{6C0631D2-5E94-0E44-AEDA-62F22487E25D}">
       <formula1>1</formula1>
       <formula2>30</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{1D15A7CB-72A1-4F2B-8C53-02E77DE5D83B}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{B281495F-DB35-47BB-9D76-CFF630A4B4E7}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B5 B7 B8:B12" xr:uid="{5D60B908-FEDB-4FEF-A945-3CA55E06C223}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{F0144E0F-4F43-4FA9-AFD5-45BD3B303306}">
+      <formula1>1</formula1>
+      <formula2>4</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4714,11 +5346,11 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -4731,16 +5363,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>47</v>
@@ -4757,7 +5389,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="b">
@@ -4768,15 +5400,15 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="36" t="b">
@@ -4786,16 +5418,16 @@
       <c r="E3" s="3"/>
       <c r="F3" s="12"/>
       <c r="G3" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="37">
@@ -4807,13 +5439,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4821,18 +5453,18 @@
         <v>3</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="36" t="b">
@@ -4842,16 +5474,16 @@
       <c r="E6" s="3"/>
       <c r="F6" s="12"/>
       <c r="G6" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="37">
@@ -4863,13 +5495,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4877,18 +5509,18 @@
         <v>3</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="36" t="b">
@@ -4898,16 +5530,16 @@
       <c r="E9" s="3"/>
       <c r="F9" s="12"/>
       <c r="G9" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="37">
@@ -4919,13 +5551,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -4933,18 +5565,18 @@
         <v>3</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>111</v>
+        <v>230</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="27" t="b">
@@ -4954,16 +5586,16 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="37">
@@ -4975,13 +5607,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4989,19 +5621,19 @@
         <v>32</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5015,13 +5647,13 @@
         <v>49</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5035,13 +5667,13 @@
         <v>49</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -5050,16 +5682,16 @@
       <c r="E17" s="3"/>
       <c r="F17" s="12"/>
       <c r="G17" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="37">
@@ -5071,13 +5703,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -5091,13 +5723,13 @@
         <v>49</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -5105,19 +5737,19 @@
         <v>32</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -5129,13 +5761,13 @@
         <v>49</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="33" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5143,18 +5775,18 @@
         <v>4</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="27" t="b">
@@ -5164,16 +5796,16 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="37">
@@ -5185,13 +5817,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5199,19 +5831,19 @@
         <v>26</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5225,13 +5857,13 @@
         <v>49</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -5245,12 +5877,12 @@
         <v>49</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="27" t="b">
@@ -5260,16 +5892,16 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="37">
@@ -5281,13 +5913,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5295,19 +5927,19 @@
         <v>30</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -5321,12 +5953,12 @@
         <v>49</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="27" t="b">
@@ -5336,16 +5968,16 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="37">
@@ -5357,13 +5989,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5371,19 +6003,19 @@
         <v>12</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5397,13 +6029,13 @@
         <v>49</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5417,13 +6049,13 @@
         <v>49</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -5437,12 +6069,12 @@
         <v>49</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="27" t="b">
@@ -5452,16 +6084,16 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="37">
@@ -5473,13 +6105,13 @@
         <v>0</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5487,19 +6119,19 @@
         <v>16</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5513,13 +6145,13 @@
         <v>49</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -5533,12 +6165,12 @@
         <v>49</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="27" t="b">
@@ -5548,16 +6180,16 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="37">
@@ -5569,13 +6201,13 @@
         <v>0</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5583,19 +6215,19 @@
         <v>16</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5609,13 +6241,13 @@
         <v>49</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5629,13 +6261,13 @@
         <v>49</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -5643,18 +6275,18 @@
         <v>70</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="27" t="b">
@@ -5664,16 +6296,16 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="37">
@@ -5685,13 +6317,13 @@
         <v>0</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="B51" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5699,19 +6331,19 @@
         <v>16</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G51" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -5725,12 +6357,12 @@
         <v>49</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="27" t="b">
@@ -5740,16 +6372,16 @@
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
       <c r="B54" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="37">
@@ -5761,13 +6393,13 @@
         <v>0</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
       <c r="B55" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5775,19 +6407,19 @@
         <v>24</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
       <c r="B56" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5801,13 +6433,13 @@
         <v>49</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="B57" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5821,13 +6453,13 @@
         <v>49</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -5841,13 +6473,13 @@
         <v>49</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5861,13 +6493,13 @@
         <v>49</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -5881,12 +6513,12 @@
         <v>49</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="27" t="b">
@@ -5896,16 +6528,16 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="B62" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="37">
@@ -5917,13 +6549,13 @@
         <v>0</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
       <c r="B63" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5931,19 +6563,19 @@
         <v>4</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
       <c r="B64" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5957,13 +6589,13 @@
         <v>49</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -5977,13 +6609,13 @@
         <v>49</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H65" xr:uid="{E454A1AF-76A4-7D40-98C2-916796BE8673}"/>
-  <dataValidations count="3">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D18 D10 D4 D7 D54 D24 D29 D33 D39 D44 D50 D62" xr:uid="{DA1B892E-0330-764C-8C13-4DB948EE95A7}">
+  <dataValidations count="7">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D13 D7 D54 D4 D50 D24 D18 D29 D33 D39 D44 D62" xr:uid="{DA1B892E-0330-764C-8C13-4DB948EE95A7}">
       <formula1>43466</formula1>
       <formula2>47119</formula2>
     </dataValidation>
@@ -5991,7 +6623,23 @@
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21 E58" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E58" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
+      <formula1>1</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E8 E11 E14 E20 E25 E30 E34 E40 E45 E51 E55 E63" xr:uid="{79437B14-BBCB-41C8-B199-9D1512AD30EC}">
+      <formula1>1</formula1>
+      <formula2>52</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 E16 E19 E26 E27 E31 E35 E36:E37 E41 E42 E46:E47 E48 E52 E57 E59 E60 E64:E65" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E56" xr:uid="{F1FF1A14-FBFD-4ABB-A983-0610B931ADEC}">
+      <formula1>1</formula1>
+      <formula2>21</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21" xr:uid="{B6D144CD-4330-4834-8E17-FC96B6EF40AB}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
@@ -6009,14 +6657,14 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8A3A64-DF29-3043-9347-8C6F0558EC0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6E9271-46FE-0B40-BCAA-49E86F518634}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="23740" windowHeight="15780" tabRatio="648" activeTab="7" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="7280" yWindow="460" windowWidth="20700" windowHeight="17540" tabRatio="648" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Cases" sheetId="2" r:id="rId2"/>
     <sheet name="Severity-Mortality" sheetId="4" r:id="rId3"/>
     <sheet name="Population" sheetId="3" r:id="rId4"/>
-    <sheet name="Country Area Parameters" sheetId="7" r:id="rId5"/>
-    <sheet name="Virus Parameters" sheetId="8" r:id="rId6"/>
-    <sheet name="Hospitalisation Parameters" sheetId="9" r:id="rId7"/>
-    <sheet name="Interventions" sheetId="11" r:id="rId8"/>
-    <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId9"/>
+    <sheet name="Parameters" sheetId="13" r:id="rId5"/>
+    <sheet name="Country Area Parameters" sheetId="7" r:id="rId6"/>
+    <sheet name="Virus Parameters" sheetId="8" r:id="rId7"/>
+    <sheet name="Hospitalisation Parameters" sheetId="9" r:id="rId8"/>
+    <sheet name="Interventions" sheetId="11" r:id="rId9"/>
+    <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Interventions!$A$1:$H$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Interventions!$A$1:$H$65</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,35 +39,43 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
     <author>Olivier Celhay</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{2EE5D9F9-70D2-4739-AFAE-0614035B39C6}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{0CC5576C-A1A7-7841-B0C3-592EE60CFC15}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-0 - 100%</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 to 0.2</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{75449A71-E16D-874C-A4E3-E802E681943C}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{2764A438-DFDE-924B-A542-066F81FC1E24}">
       <text>
         <r>
           <rPr>
@@ -95,11 +104,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1 to 7 days</t>
+          <t>0 to 100</t>
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{000E9CFB-1FDB-EE47-B9BF-8F8DB282F20A}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{8AD2806A-0360-764B-88F6-A679E1DACDA3}">
       <text>
         <r>
           <rPr>
@@ -128,59 +137,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1 to 7 days</t>
+          <t>0 to 100</t>
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{B9D281D5-26D2-4EA9-8894-5FF5A286FE33}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-1 - 12 (Jan - Dec)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{F5DB51BD-EBA9-4F27-8D31-176034A1BBB8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{2040E543-4D10-1848-9CA9-2D20FF237DBA}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{E23ECAEF-C282-A74D-A2C9-55CAD5E28C7F}">
       <text>
         <r>
           <rPr>
@@ -209,7 +170,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0.5 to 150 years</t>
+          <t>0 to 100</t>
         </r>
       </text>
     </comment>
@@ -224,7 +185,7 @@
     <author>Olivier Celhay</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{19EEFD16-A4C8-43F7-B777-1E668FAB69A6}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{2EE5D9F9-70D2-4739-AFAE-0614035B39C6}">
       <text>
         <r>
           <rPr>
@@ -232,7 +193,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -241,14 +202,80 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{24739DE5-5B28-428F-A3AB-933649284A03}">
+    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{75449A71-E16D-874C-A4E3-E802E681943C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 to 7 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{000E9CFB-1FDB-EE47-B9BF-8F8DB282F20A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 to 7 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{B9D281D5-26D2-4EA9-8894-5FF5A286FE33}">
       <text>
         <r>
           <rPr>
@@ -256,7 +283,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -265,14 +292,38 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1 - 4</t>
+1 - 12 (Jan - Dec)</t>
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{3FD13DF3-4955-2247-AAA2-68EC3599CA31}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{F5DB51BD-EBA9-4F27-8D31-176034A1BBB8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{2040E543-4D10-1848-9CA9-2D20FF237DBA}">
       <text>
         <r>
           <rPr>
@@ -301,172 +352,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1 to 30 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{96AD9494-0E73-EB4D-B4E7-5944E1089063}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 30 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{6AF90CD2-69CC-AA4B-A769-14DADD96C490}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 30 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{15100A51-88F1-2D4A-BE13-B9EA8C6490CE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 30 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{5813D783-EA21-DD45-B6C5-56D42BCEDA80}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 30 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="1" shapeId="0" xr:uid="{0F7FC5C6-6ECF-DF4D-84D6-9F029454BE66}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 30 days</t>
+          <t>0.5 to 150 years</t>
         </r>
       </text>
     </comment>
@@ -477,6 +363,239 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Author</author>
+    <author>Olivier Celhay</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{19EEFD16-A4C8-43F7-B777-1E668FAB69A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{3FD13DF3-4955-2247-AAA2-68EC3599CA31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 to 30 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{96AD9494-0E73-EB4D-B4E7-5944E1089063}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 to 30 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{6AF90CD2-69CC-AA4B-A769-14DADD96C490}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 to 30 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{15100A51-88F1-2D4A-BE13-B9EA8C6490CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 to 30 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{5813D783-EA21-DD45-B6C5-56D42BCEDA80}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 to 30 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="1" shapeId="0" xr:uid="{0F7FC5C6-6ECF-DF4D-84D6-9F029454BE66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 to 30 days</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>Olivier Celhay</author>
     <author>Author</author>
   </authors>
@@ -635,7 +754,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -644,7 +763,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -659,7 +778,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -668,7 +787,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -683,7 +802,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -692,7 +811,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -741,7 +860,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -750,7 +869,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1 - 5</t>
@@ -765,7 +884,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -774,7 +893,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1 - 10</t>
@@ -834,7 +953,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -843,7 +962,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -858,7 +977,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -867,7 +986,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -927,7 +1046,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -936,7 +1055,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -996,7 +1115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -1005,7 +1124,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -1020,7 +1139,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -1029,7 +1148,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -1044,7 +1163,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -1053,7 +1172,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -1113,7 +1232,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -1122,7 +1241,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -1137,7 +1256,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -1146,7 +1265,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -1195,7 +1314,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -1204,7 +1323,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -1219,7 +1338,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -1228,7 +1347,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -1310,7 +1429,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -1319,7 +1438,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -1412,7 +1531,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -1421,7 +1540,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -1469,7 +1588,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -1478,7 +1597,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -1493,7 +1612,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -1502,7 +1621,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -1562,7 +1681,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -1571,7 +1690,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -1586,7 +1705,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -1595,7 +1714,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - 100%</t>
@@ -1607,7 +1726,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="247">
   <si>
     <t>date</t>
   </si>
@@ -2239,67 +2358,115 @@
     <t>Deaths per person per day</t>
   </si>
   <si>
-    <t>Template v12</t>
-  </si>
-  <si>
-    <t>Scaling factor for infection hospitalisation rate:</t>
+    <t>Screening/Overdispersion:</t>
+  </si>
+  <si>
+    <t>Screening/Contacts:</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>screen_overdispersion</t>
+  </si>
+  <si>
+    <t>screen_contacts</t>
+  </si>
+  <si>
+    <t>Days to implement maximum quarantine coverage:</t>
+  </si>
+  <si>
+    <t>quarantine_effort</t>
+  </si>
+  <si>
+    <t>Duration of hospitalised infection:</t>
+  </si>
+  <si>
+    <t>Duration of denied hospitalisation infection:</t>
+  </si>
+  <si>
+    <t>Duration of ICU infection:</t>
+  </si>
+  <si>
+    <t>Duration of denied ICU infection:</t>
+  </si>
+  <si>
+    <t>Duration of ventilated infection:</t>
+  </si>
+  <si>
+    <t>Duration of denied ventilation infection:</t>
+  </si>
+  <si>
+    <t>Age-based relative fatality rate in well-resourced scenario (%)</t>
+  </si>
+  <si>
+    <t>Age-stratum-specific hospitalization (proportion of all (asymptomatic + symptomatic) infections that lead to hospitalisation) (%)</t>
+  </si>
+  <si>
+    <t>Relative percentage of regular daily contacts when hospitalised:</t>
+  </si>
+  <si>
+    <t>Self-isolation if Symptomatic</t>
+  </si>
+  <si>
+    <t>Template v12B</t>
+  </si>
+  <si>
+    <t>v12B changes:</t>
+  </si>
+  <si>
+    <t>Date range of simulation / Start:</t>
+  </si>
+  <si>
+    <t>Date range of simulation / End:</t>
+  </si>
+  <si>
+    <t>Probability of infection given contact:</t>
+  </si>
+  <si>
+    <t>Percentage of all asymptomatic infections that are reported:</t>
+  </si>
+  <si>
+    <t>Percentage of all symptomatic infections that are reported:</t>
+  </si>
+  <si>
+    <t>Percentage of all infections requiring hospitalisation that are actually admitted to hospital:</t>
+  </si>
+  <si>
+    <t>Added sheet "Parameters".</t>
+  </si>
+  <si>
+    <t>New parameters in v12 compared to v11 are hightlighted.</t>
+  </si>
+  <si>
+    <t>date_range_simul</t>
+  </si>
+  <si>
+    <t>date_range_simul_start</t>
+  </si>
+  <si>
+    <t>date_range_simul_end</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>reportc</t>
+  </si>
+  <si>
+    <t>reporth</t>
   </si>
   <si>
     <t>ihr_scaling</t>
   </si>
   <si>
-    <t>Screening/Overdispersion:</t>
-  </si>
-  <si>
-    <t>Screening/Contacts:</t>
-  </si>
-  <si>
-    <t>contacts</t>
-  </si>
-  <si>
-    <t>screen_overdispersion</t>
-  </si>
-  <si>
-    <t>screen_contacts</t>
-  </si>
-  <si>
-    <t>Days to implement maximum quarantine coverage:</t>
-  </si>
-  <si>
-    <t>quarantine_effort</t>
-  </si>
-  <si>
-    <t>Duration of hospitalised infection:</t>
-  </si>
-  <si>
-    <t>Duration of denied hospitalisation infection:</t>
-  </si>
-  <si>
-    <t>Duration of ICU infection:</t>
-  </si>
-  <si>
-    <t>Duration of denied ICU infection:</t>
-  </si>
-  <si>
-    <t>Duration of ventilated infection:</t>
-  </si>
-  <si>
-    <t>Duration of denied ventilation infection:</t>
-  </si>
-  <si>
-    <t>Note that new parameters in v12 compared to v11 are hightlighted.</t>
-  </si>
-  <si>
-    <t>Age-based relative fatality rate in well-resourced scenario (%)</t>
-  </si>
-  <si>
-    <t>Age-stratum-specific hospitalization (proportion of all (asymptomatic + symptomatic) infections that lead to hospitalisation) (%)</t>
-  </si>
-  <si>
-    <t>Relative percentage of regular daily contacts when hospitalised:</t>
-  </si>
-  <si>
-    <t>Self-isolation if Symptomatic</t>
+    <t>Scaling factor for infection hospitalisation rate: (NOT USED IN CURRENT VERSION)</t>
+  </si>
+  <si>
+    <t>Added mention (NOT USED IN CURRENT VERSION) to "Scaling factor for infection hospitalisation rate:" in Hospitalisation Parameters.</t>
   </si>
 </sst>
 </file>
@@ -2383,14 +2550,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2518,7 +2685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2575,6 +2742,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2890,20 +3063,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>210</v>
+      <c r="A1" s="28" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2926,9 +3099,57 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>226</v>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57CEFC6-D2C7-B343-A51D-3BA4E81D468A}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2944,7 +3165,7 @@
   <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4096,10 +4317,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4685,6 +4906,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEBEAC8-C0D6-3149-B965-10185C366694}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="37">
+        <v>43862</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="37">
+        <v>44075</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="5">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{B93D921B-ACCD-B540-B62C-AE19092FA296}">
+      <formula1>0</formula1>
+      <formula2>0.2</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C7" xr:uid="{25C6410D-5F17-2B45-9B47-570BD4117291}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{2B543E6D-BE7D-744F-84D2-DB111310B6BA}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{57FC95D5-98D8-714B-ACBA-F89D3090C305}">
+      <formula1>1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{439241F6-0612-BB4B-B5E3-5B6C55F0B4B9}">
+      <formula1>1</formula1>
+      <formula2>73051</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF179CC-EA38-1749-8906-36FC7049943A}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -4692,7 +5083,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4769,7 +5160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C67C35-2310-B341-9292-D007A3DFBE5D}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -4777,7 +5168,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4989,7 +5380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A51F038-D814-D045-99D6-939E07D55DA9}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -4997,7 +5388,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5079,7 +5470,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -5094,9 +5485,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>211</v>
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>245</v>
       </c>
       <c r="B6" s="28">
         <v>1</v>
@@ -5106,7 +5497,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5213,7 +5604,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -5230,7 +5621,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -5247,7 +5638,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -5264,7 +5655,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -5281,7 +5672,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -5298,7 +5689,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -5314,7 +5705,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B13:B18" xr:uid="{6C0631D2-5E94-0E44-AEDA-62F22487E25D}">
       <formula1>1</formula1>
       <formula2>30</formula2>
@@ -5325,13 +5716,9 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{B281495F-DB35-47BB-9D76-CFF630A4B4E7}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B5 B7 B8:B12" xr:uid="{5D60B908-FEDB-4FEF-A945-3CA55E06C223}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B7:B12 B5" xr:uid="{5D60B908-FEDB-4FEF-A945-3CA55E06C223}">
       <formula1>0</formula1>
       <formula2>100</formula2>
-    </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{F0144E0F-4F43-4FA9-AFD5-45BD3B303306}">
-      <formula1>1</formula1>
-      <formula2>4</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5339,15 +5726,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173C6647-D12A-2647-B02F-0C6C0D519608}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5576,7 +5963,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="27" t="b">
@@ -5749,7 +6136,7 @@
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -5761,13 +6148,13 @@
         <v>49</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="33" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5775,13 +6162,13 @@
         <v>4</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -6459,7 +6846,7 @@
     <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -6473,7 +6860,7 @@
         <v>49</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6647,37 +7034,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57CEFC6-D2C7-B343-A51D-3BA4E81D468A}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6E9271-46FE-0B40-BCAA-49E86F518634}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76890B40-42FE-7E40-BFB6-88D9A64986B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="460" windowWidth="20700" windowHeight="17540" tabRatio="648" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -382,12 +382,54 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-0 - 100%</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{CAFDEB5A-367C-214E-9860-6419D337CBE9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1, 2, 3 or 4.</t>
         </r>
       </text>
     </comment>
@@ -1726,7 +1768,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="404">
   <si>
     <t>date</t>
   </si>
@@ -2409,12 +2451,6 @@
     <t>Self-isolation if Symptomatic</t>
   </si>
   <si>
-    <t>Template v12B</t>
-  </si>
-  <si>
-    <t>v12B changes:</t>
-  </si>
-  <si>
     <t>Date range of simulation / Start:</t>
   </si>
   <si>
@@ -2436,9 +2472,6 @@
     <t>Added sheet "Parameters".</t>
   </si>
   <si>
-    <t>New parameters in v12 compared to v11 are hightlighted.</t>
-  </si>
-  <si>
     <t>date_range_simul</t>
   </si>
   <si>
@@ -2467,6 +2500,486 @@
   </si>
   <si>
     <t>Added mention (NOT USED IN CURRENT VERSION) to "Scaling factor for infection hospitalisation rate:" in Hospitalisation Parameters.</t>
+  </si>
+  <si>
+    <t>Social Contacts</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia (Plurinational State of</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR, China</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republi</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome and Principe </t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TFYR of Macedonia</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela (Bolivarian Republic </t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Social Contacts Data:</t>
+  </si>
+  <si>
+    <t>Value_Country</t>
+  </si>
+  <si>
+    <t>picker</t>
+  </si>
+  <si>
+    <t>country_contact</t>
+  </si>
+  <si>
+    <t>Added Social Contacts Data parameter in sheet "Country Area Parameters".</t>
+  </si>
+  <si>
+    <t>Template v12-B</t>
+  </si>
+  <si>
+    <t>v12-B changes:</t>
   </si>
 </sst>
 </file>
@@ -2477,7 +2990,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2556,6 +3069,19 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -2685,7 +3211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2742,11 +3268,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3063,10 +3590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3076,7 +3603,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3101,22 +3628,22 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>228</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3126,10 +3653,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57CEFC6-D2C7-B343-A51D-3BA4E81D468A}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3137,19 +3664,778 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C143" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C151" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C152" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C153" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -4302,7 +5588,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4912,8 +6198,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4948,7 +6234,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2" s="37">
         <v>43862</v>
@@ -4956,15 +6242,15 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B3" s="37">
         <v>44075</v>
@@ -4972,15 +6258,15 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4">
@@ -4991,12 +6277,12 @@
         <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5">
@@ -5009,12 +6295,12 @@
         <v>49</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6">
@@ -5027,12 +6313,12 @@
         <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7">
@@ -5045,7 +6331,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5080,83 +6366,117 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="3"/>
+      <c r="C3">
         <v>2.8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{A2B6A4A1-21F7-44BD-A536-4E6AFE445B59}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{A2B6A4A1-21F7-44BD-A536-4E6AFE445B59}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{931327C6-46CF-4FD3-BA8F-07E73A7543F5}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{931327C6-46CF-4FD3-BA8F-07E73A7543F5}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7715037C-2AB5-744F-90C5-E7A36E8197AB}">
+          <x14:formula1>
+            <xm:f>HIDDEN!$C$2:$C$153</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5388,7 +6708,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5486,10 +6806,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" s="28">
+      <c r="A6" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -5497,7 +6817,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5705,7 +7025,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B13:B18" xr:uid="{6C0631D2-5E94-0E44-AEDA-62F22487E25D}">
       <formula1>1</formula1>
       <formula2>30</formula2>
@@ -5719,6 +7039,10 @@
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B7:B12 B5" xr:uid="{5D60B908-FEDB-4FEF-A945-3CA55E06C223}">
       <formula1>0</formula1>
       <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{B4ABC229-799B-514E-B7F5-8FD96E5E9CBE}">
+      <formula1>1</formula1>
+      <formula2>4</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76890B40-42FE-7E40-BFB6-88D9A64986B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614404C0-F04E-E64A-84D5-B560865FCF1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -2979,7 +2979,7 @@
     <t>Template v12-B</t>
   </si>
   <si>
-    <t>v12-B changes:</t>
+    <t>Changes in v12-B:</t>
   </si>
 </sst>
 </file>
@@ -3593,7 +3593,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6708,7 +6708,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614404C0-F04E-E64A-84D5-B560865FCF1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0F1C3F-A275-DA4F-A874-54EA28152C96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="648" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -900,7 +900,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -909,12 +909,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1 - 5</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 - 5</t>
         </r>
       </text>
     </comment>
@@ -924,7 +933,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -933,12 +942,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1 - 10</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 - 10</t>
         </r>
       </text>
     </comment>
@@ -3211,7 +3229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3251,19 +3269,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -3274,6 +3279,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3592,8 +3612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3642,7 +3662,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="33" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3655,7 +3675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57CEFC6-D2C7-B343-A51D-3BA4E81D468A}">
   <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
@@ -6198,7 +6218,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -6236,7 +6256,7 @@
       <c r="A2" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="30">
         <v>43862</v>
       </c>
       <c r="C2" s="3"/>
@@ -6252,7 +6272,7 @@
       <c r="A3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="30">
         <v>44075</v>
       </c>
       <c r="C3" s="3"/>
@@ -6406,7 +6426,7 @@
       <c r="A2" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="34" t="s">
         <v>386</v>
       </c>
       <c r="C2" s="6"/>
@@ -6806,7 +6826,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="35" t="s">
         <v>242</v>
       </c>
       <c r="B6">
@@ -7058,7 +7078,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7122,7 +7142,7 @@
         <v>200</v>
       </c>
       <c r="B3" s="19"/>
-      <c r="C3" s="36" t="b">
+      <c r="C3" s="29" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="3"/>
@@ -7141,7 +7161,7 @@
         <v>119</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="37">
+      <c r="D4" s="30">
         <v>43913</v>
       </c>
       <c r="E4" s="3"/>
@@ -7178,7 +7198,7 @@
         <v>201</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="36" t="b">
+      <c r="C6" s="29" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="3"/>
@@ -7197,7 +7217,7 @@
         <v>119</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="37">
+      <c r="D7" s="30">
         <v>43913</v>
       </c>
       <c r="E7" s="3"/>
@@ -7234,7 +7254,7 @@
         <v>202</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="36" t="b">
+      <c r="C9" s="29" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="3"/>
@@ -7253,7 +7273,7 @@
         <v>119</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="37">
+      <c r="D10" s="30">
         <v>43913</v>
       </c>
       <c r="E10" s="3"/>
@@ -7272,7 +7292,7 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="38">
+      <c r="E11" s="31">
         <v>3</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -7309,7 +7329,7 @@
         <v>119</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="37">
+      <c r="D13" s="30">
         <v>43902</v>
       </c>
       <c r="E13" s="3"/>
@@ -7405,7 +7425,7 @@
         <v>157</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="37">
+      <c r="D18" s="30">
         <v>44196</v>
       </c>
       <c r="E18" s="3"/>
@@ -7444,7 +7464,7 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="39">
+      <c r="E20" s="32">
         <v>32</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -7458,13 +7478,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="42">
         <v>4</v>
       </c>
       <c r="F21" s="12"/>
@@ -7476,13 +7496,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34">
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="43">
         <v>4</v>
       </c>
       <c r="F22" s="14" t="s">
@@ -7519,7 +7539,7 @@
         <v>119</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="37">
+      <c r="D24" s="30">
         <v>43906</v>
       </c>
       <c r="E24" s="3"/>
@@ -7578,7 +7598,7 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="38">
+      <c r="E27" s="31">
         <v>100</v>
       </c>
       <c r="F27" s="14" t="s">
@@ -7615,7 +7635,7 @@
         <v>119</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="37">
+      <c r="D29" s="30">
         <v>43894</v>
       </c>
       <c r="E29" s="3"/>
@@ -7654,7 +7674,7 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="38">
+      <c r="E31" s="31">
         <v>5</v>
       </c>
       <c r="F31" s="14" t="s">
@@ -7691,7 +7711,7 @@
         <v>119</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="37">
+      <c r="D33" s="30">
         <v>43909</v>
       </c>
       <c r="E33" s="3"/>
@@ -7770,7 +7790,7 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="38">
+      <c r="E37" s="31">
         <v>10</v>
       </c>
       <c r="F37" s="14" t="s">
@@ -7807,7 +7827,7 @@
         <v>119</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="37">
+      <c r="D39" s="30">
         <v>43910</v>
       </c>
       <c r="E39" s="3"/>
@@ -7866,7 +7886,7 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="38">
+      <c r="E42" s="31">
         <v>20</v>
       </c>
       <c r="F42" s="14" t="s">
@@ -7903,7 +7923,7 @@
         <v>119</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="37">
+      <c r="D44" s="30">
         <v>43911</v>
       </c>
       <c r="E44" s="3"/>
@@ -7982,7 +8002,7 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="38">
+      <c r="E48" s="31">
         <v>70</v>
       </c>
       <c r="F48" s="14" t="s">
@@ -8019,7 +8039,7 @@
         <v>119</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="37">
+      <c r="D50" s="30">
         <v>44196</v>
       </c>
       <c r="E50" s="3"/>
@@ -8058,7 +8078,7 @@
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="38">
+      <c r="E52" s="31">
         <v>50</v>
       </c>
       <c r="F52" s="14" t="s">
@@ -8095,7 +8115,7 @@
         <v>119</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="37">
+      <c r="D54" s="30">
         <v>43908</v>
       </c>
       <c r="E54" s="3"/>
@@ -8169,12 +8189,12 @@
     </row>
     <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29">
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="42">
         <v>2</v>
       </c>
       <c r="F58" s="12" t="s">
@@ -8214,7 +8234,7 @@
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
-      <c r="E60" s="38">
+      <c r="E60" s="31">
         <v>100</v>
       </c>
       <c r="F60" s="14" t="s">
@@ -8251,7 +8271,7 @@
         <v>119</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="37">
+      <c r="D62" s="30">
         <v>44348</v>
       </c>
       <c r="E62" s="3"/>
@@ -8310,7 +8330,7 @@
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
-      <c r="E65" s="38">
+      <c r="E65" s="31">
         <v>0</v>
       </c>
       <c r="F65" s="14" t="s">
@@ -8357,5 +8377,17 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D9C273A-8170-CB49-8167-9B2AD22225CB}">
+          <x14:formula1>
+            <xm:f>HIDDEN!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3 C6 C9 C12 C17 C23 C28 C32 C38 C43 C49 C53 C61</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0F1C3F-A275-DA4F-A874-54EA28152C96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D20FFC-FD1F-9E4F-A05F-B0D4534BF210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="648" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="648" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -2130,9 +2130,6 @@
     <t>School Closures</t>
   </si>
   <si>
-    <t>Cocooning the Elderly</t>
-  </si>
-  <si>
     <t>Travel Ban</t>
   </si>
   <si>
@@ -2316,9 +2313,6 @@
     <t>y.o.</t>
   </si>
   <si>
-    <t>Minimum age for elderly cocoon:</t>
-  </si>
-  <si>
     <t>age_cocoon</t>
   </si>
   <si>
@@ -2478,15 +2472,6 @@
     <t>Probability of infection given contact:</t>
   </si>
   <si>
-    <t>Percentage of all asymptomatic infections that are reported:</t>
-  </si>
-  <si>
-    <t>Percentage of all symptomatic infections that are reported:</t>
-  </si>
-  <si>
-    <t>Percentage of all infections requiring hospitalisation that are actually admitted to hospital:</t>
-  </si>
-  <si>
     <t>Added sheet "Parameters".</t>
   </si>
   <si>
@@ -2998,6 +2983,67 @@
   </si>
   <si>
     <t>Changes in v12-B:</t>
+  </si>
+  <si>
+    <t>Percentage of all hospitalisations that are reported:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Percentage of all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asymptomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections that are reported:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Percentage of all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>symptomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections that are reported:</t>
+    </r>
+  </si>
+  <si>
+    <t>Shielding the Elderly</t>
+  </si>
+  <si>
+    <t>Minimum age for elderly shielding:</t>
   </si>
 </sst>
 </file>
@@ -3008,7 +3054,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3102,6 +3148,14 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3623,7 +3677,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3648,22 +3702,22 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3686,10 +3740,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3697,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3705,757 +3759,757 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C121" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C122" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C123" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C124" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C125" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C126" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C127" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C128" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C147" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C149" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4481,10 +4535,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5623,10 +5677,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5895,13 +5949,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6218,8 +6272,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6237,7 +6291,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>47</v>
@@ -6254,7 +6308,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B2" s="30">
         <v>43862</v>
@@ -6262,15 +6316,15 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="30">
         <v>44075</v>
@@ -6278,15 +6332,15 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4">
@@ -6297,12 +6351,12 @@
         <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5">
@@ -6315,12 +6369,12 @@
         <v>49</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>231</v>
+        <v>401</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6">
@@ -6333,12 +6387,12 @@
         <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>232</v>
+        <v>399</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7">
@@ -6351,7 +6405,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -6407,7 +6461,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>47</v>
@@ -6424,18 +6478,18 @@
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6810,7 +6864,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -6827,7 +6881,7 @@
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6837,7 +6891,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6944,7 +6998,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -6961,7 +7015,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -6978,7 +7032,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -6995,7 +7049,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -7012,7 +7066,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -7029,7 +7083,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -7077,8 +7131,8 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7100,10 +7154,10 @@
         <v>109</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>47</v>
@@ -7120,7 +7174,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="b">
@@ -7131,15 +7185,15 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="29" t="b">
@@ -7149,16 +7203,16 @@
       <c r="E3" s="3"/>
       <c r="F3" s="12"/>
       <c r="G3" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="30">
@@ -7170,13 +7224,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -7184,18 +7238,18 @@
         <v>3</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="29" t="b">
@@ -7205,16 +7259,16 @@
       <c r="E6" s="3"/>
       <c r="F6" s="12"/>
       <c r="G6" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="30">
@@ -7226,13 +7280,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7240,18 +7294,18 @@
         <v>3</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="29" t="b">
@@ -7261,16 +7315,16 @@
       <c r="E9" s="3"/>
       <c r="F9" s="12"/>
       <c r="G9" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="30">
@@ -7282,13 +7336,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -7296,18 +7350,18 @@
         <v>3</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="27" t="b">
@@ -7317,16 +7371,16 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="30">
@@ -7338,13 +7392,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7352,19 +7406,19 @@
         <v>32</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -7378,13 +7432,13 @@
         <v>49</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -7398,13 +7452,13 @@
         <v>49</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -7413,16 +7467,16 @@
       <c r="E17" s="3"/>
       <c r="F17" s="12"/>
       <c r="G17" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="30">
@@ -7434,13 +7488,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -7454,13 +7508,13 @@
         <v>49</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -7468,19 +7522,19 @@
         <v>32</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -7492,13 +7546,13 @@
         <v>49</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
@@ -7506,13 +7560,13 @@
         <v>4</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -7527,16 +7581,16 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="30">
@@ -7548,13 +7602,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -7562,19 +7616,19 @@
         <v>26</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -7588,13 +7642,13 @@
         <v>49</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -7608,7 +7662,7 @@
         <v>49</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -7623,16 +7677,16 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="30">
@@ -7644,13 +7698,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -7658,19 +7712,19 @@
         <v>30</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -7684,7 +7738,7 @@
         <v>49</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -7699,16 +7753,16 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="30">
@@ -7720,13 +7774,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -7734,19 +7788,19 @@
         <v>12</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -7760,13 +7814,13 @@
         <v>49</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -7780,13 +7834,13 @@
         <v>49</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -7800,7 +7854,7 @@
         <v>49</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -7815,16 +7869,16 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="30">
@@ -7836,13 +7890,13 @@
         <v>0</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -7850,19 +7904,19 @@
         <v>16</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -7876,13 +7930,13 @@
         <v>49</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -7896,12 +7950,12 @@
         <v>49</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>114</v>
+        <v>402</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="27" t="b">
@@ -7911,16 +7965,16 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="30">
@@ -7932,13 +7986,13 @@
         <v>0</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -7946,19 +8000,19 @@
         <v>16</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -7972,13 +8026,13 @@
         <v>49</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -7992,13 +8046,13 @@
         <v>49</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="22" t="s">
-        <v>176</v>
+        <v>403</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -8006,18 +8060,18 @@
         <v>70</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="27" t="b">
@@ -8027,16 +8081,16 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="30">
@@ -8048,13 +8102,13 @@
         <v>0</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="B51" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8062,19 +8116,19 @@
         <v>16</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G51" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -8088,12 +8142,12 @@
         <v>49</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="27" t="b">
@@ -8103,16 +8157,16 @@
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
       <c r="B54" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="30">
@@ -8124,13 +8178,13 @@
         <v>0</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
       <c r="B55" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -8138,19 +8192,19 @@
         <v>24</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
       <c r="B56" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -8164,13 +8218,13 @@
         <v>49</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="B57" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -8184,13 +8238,13 @@
         <v>49</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
@@ -8204,13 +8258,13 @@
         <v>49</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -8224,13 +8278,13 @@
         <v>49</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -8244,12 +8298,12 @@
         <v>49</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="27" t="b">
@@ -8259,16 +8313,16 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="B62" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="30">
@@ -8280,13 +8334,13 @@
         <v>0</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
       <c r="B63" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -8294,19 +8348,19 @@
         <v>4</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
       <c r="B64" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -8320,13 +8374,13 @@
         <v>49</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -8340,7 +8394,7 @@
         <v>49</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D20FFC-FD1F-9E4F-A05F-B0D4534BF210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FBE169-5172-F848-8276-861B6F919ACC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="648" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -3666,7 +3666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -4524,7 +4524,7 @@
   </sheetPr>
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A68" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -7131,7 +7131,7 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0F1C3F-A275-DA4F-A874-54EA28152C96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FBE169-5172-F848-8276-861B6F919ACC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="648" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -2130,9 +2130,6 @@
     <t>School Closures</t>
   </si>
   <si>
-    <t>Cocooning the Elderly</t>
-  </si>
-  <si>
     <t>Travel Ban</t>
   </si>
   <si>
@@ -2316,9 +2313,6 @@
     <t>y.o.</t>
   </si>
   <si>
-    <t>Minimum age for elderly cocoon:</t>
-  </si>
-  <si>
     <t>age_cocoon</t>
   </si>
   <si>
@@ -2478,15 +2472,6 @@
     <t>Probability of infection given contact:</t>
   </si>
   <si>
-    <t>Percentage of all asymptomatic infections that are reported:</t>
-  </si>
-  <si>
-    <t>Percentage of all symptomatic infections that are reported:</t>
-  </si>
-  <si>
-    <t>Percentage of all infections requiring hospitalisation that are actually admitted to hospital:</t>
-  </si>
-  <si>
     <t>Added sheet "Parameters".</t>
   </si>
   <si>
@@ -2998,6 +2983,67 @@
   </si>
   <si>
     <t>Changes in v12-B:</t>
+  </si>
+  <si>
+    <t>Percentage of all hospitalisations that are reported:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Percentage of all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asymptomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections that are reported:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Percentage of all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>symptomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections that are reported:</t>
+    </r>
+  </si>
+  <si>
+    <t>Shielding the Elderly</t>
+  </si>
+  <si>
+    <t>Minimum age for elderly shielding:</t>
   </si>
 </sst>
 </file>
@@ -3008,7 +3054,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3102,6 +3148,14 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3612,7 +3666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -3623,7 +3677,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3648,22 +3702,22 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3686,10 +3740,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3697,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3705,757 +3759,757 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C121" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C122" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C123" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C124" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C125" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C126" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C127" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C128" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C147" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C149" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4470,7 +4524,7 @@
   </sheetPr>
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A68" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -4481,10 +4535,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5623,10 +5677,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5895,13 +5949,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6218,8 +6272,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6237,7 +6291,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>47</v>
@@ -6254,7 +6308,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B2" s="30">
         <v>43862</v>
@@ -6262,15 +6316,15 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="30">
         <v>44075</v>
@@ -6278,15 +6332,15 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4">
@@ -6297,12 +6351,12 @@
         <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5">
@@ -6315,12 +6369,12 @@
         <v>49</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>231</v>
+        <v>401</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6">
@@ -6333,12 +6387,12 @@
         <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>232</v>
+        <v>399</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7">
@@ -6351,7 +6405,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -6407,7 +6461,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>47</v>
@@ -6424,18 +6478,18 @@
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6810,7 +6864,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -6827,7 +6881,7 @@
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6837,7 +6891,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6944,7 +6998,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -6961,7 +7015,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -6978,7 +7032,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -6995,7 +7049,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -7012,7 +7066,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -7029,7 +7083,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -7077,8 +7131,8 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7100,10 +7154,10 @@
         <v>109</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>47</v>
@@ -7120,7 +7174,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="b">
@@ -7131,15 +7185,15 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="29" t="b">
@@ -7149,16 +7203,16 @@
       <c r="E3" s="3"/>
       <c r="F3" s="12"/>
       <c r="G3" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="30">
@@ -7170,13 +7224,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -7184,18 +7238,18 @@
         <v>3</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="29" t="b">
@@ -7205,16 +7259,16 @@
       <c r="E6" s="3"/>
       <c r="F6" s="12"/>
       <c r="G6" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="30">
@@ -7226,13 +7280,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7240,18 +7294,18 @@
         <v>3</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="29" t="b">
@@ -7261,16 +7315,16 @@
       <c r="E9" s="3"/>
       <c r="F9" s="12"/>
       <c r="G9" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="30">
@@ -7282,13 +7336,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -7296,18 +7350,18 @@
         <v>3</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="27" t="b">
@@ -7317,16 +7371,16 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="30">
@@ -7338,13 +7392,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7352,19 +7406,19 @@
         <v>32</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -7378,13 +7432,13 @@
         <v>49</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -7398,13 +7452,13 @@
         <v>49</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -7413,16 +7467,16 @@
       <c r="E17" s="3"/>
       <c r="F17" s="12"/>
       <c r="G17" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="30">
@@ -7434,13 +7488,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -7454,13 +7508,13 @@
         <v>49</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -7468,19 +7522,19 @@
         <v>32</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -7492,13 +7546,13 @@
         <v>49</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
@@ -7506,13 +7560,13 @@
         <v>4</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -7527,16 +7581,16 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="30">
@@ -7548,13 +7602,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -7562,19 +7616,19 @@
         <v>26</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -7588,13 +7642,13 @@
         <v>49</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -7608,7 +7662,7 @@
         <v>49</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -7623,16 +7677,16 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="30">
@@ -7644,13 +7698,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -7658,19 +7712,19 @@
         <v>30</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -7684,7 +7738,7 @@
         <v>49</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -7699,16 +7753,16 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="30">
@@ -7720,13 +7774,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -7734,19 +7788,19 @@
         <v>12</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -7760,13 +7814,13 @@
         <v>49</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -7780,13 +7834,13 @@
         <v>49</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -7800,7 +7854,7 @@
         <v>49</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -7815,16 +7869,16 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="30">
@@ -7836,13 +7890,13 @@
         <v>0</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -7850,19 +7904,19 @@
         <v>16</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -7876,13 +7930,13 @@
         <v>49</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -7896,12 +7950,12 @@
         <v>49</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>114</v>
+        <v>402</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="27" t="b">
@@ -7911,16 +7965,16 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="30">
@@ -7932,13 +7986,13 @@
         <v>0</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -7946,19 +8000,19 @@
         <v>16</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -7972,13 +8026,13 @@
         <v>49</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -7992,13 +8046,13 @@
         <v>49</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="22" t="s">
-        <v>176</v>
+        <v>403</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -8006,18 +8060,18 @@
         <v>70</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="27" t="b">
@@ -8027,16 +8081,16 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="30">
@@ -8048,13 +8102,13 @@
         <v>0</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="B51" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8062,19 +8116,19 @@
         <v>16</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G51" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -8088,12 +8142,12 @@
         <v>49</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="27" t="b">
@@ -8103,16 +8157,16 @@
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
       <c r="B54" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="30">
@@ -8124,13 +8178,13 @@
         <v>0</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
       <c r="B55" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -8138,19 +8192,19 @@
         <v>24</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
       <c r="B56" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -8164,13 +8218,13 @@
         <v>49</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="B57" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -8184,13 +8238,13 @@
         <v>49</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
@@ -8204,13 +8258,13 @@
         <v>49</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -8224,13 +8278,13 @@
         <v>49</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -8244,12 +8298,12 @@
         <v>49</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="27" t="b">
@@ -8259,16 +8313,16 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="B62" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="30">
@@ -8280,13 +8334,13 @@
         <v>0</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
       <c r="B63" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -8294,19 +8348,19 @@
         <v>4</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
       <c r="B64" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -8320,13 +8374,13 @@
         <v>49</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -8340,7 +8394,7 @@
         <v>49</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FBE169-5172-F848-8276-861B6F919ACC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3049F1BC-BE35-AF44-BDBF-804687064AC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="648" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -3666,7 +3666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -6272,8 +6272,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>55</v>
@@ -6409,7 +6409,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{B93D921B-ACCD-B540-B62C-AE19092FA296}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3049F1BC-BE35-AF44-BDBF-804687064AC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27787D2D-CBDC-5E49-9559-08062512871F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="648" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="648" firstSheet="1" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,12 @@
     <sheet name="Country Area Parameters" sheetId="7" r:id="rId6"/>
     <sheet name="Virus Parameters" sheetId="8" r:id="rId7"/>
     <sheet name="Hospitalisation Parameters" sheetId="9" r:id="rId8"/>
-    <sheet name="Interventions" sheetId="11" r:id="rId9"/>
-    <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId10"/>
+    <sheet name="Interventions Parameters" sheetId="11" r:id="rId9"/>
+    <sheet name="Interventions" sheetId="14" r:id="rId10"/>
+    <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Interventions!$A$1:$H$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Parameters'!$A$1:$H$27</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -191,7 +192,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -200,12 +201,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-0 - 100%</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
         </r>
       </text>
     </comment>
@@ -638,25 +648,25 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Author</author>
     <author>Olivier Celhay</author>
-    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{77684B37-CDB3-E74E-8C26-8F263827E834}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{12B29199-C105-4946-88E3-48F95AE7F550}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -666,30 +676,30 @@
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 52 weeks</t>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{4D2891EF-9EB3-9548-A6CC-D5190533C69B}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{218D6E6A-9184-47B3-AFCD-A4600686EA47}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -699,31 +709,30 @@
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 to 52 weeks
-</t>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 - 5</t>
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{84ED9321-A6C8-F345-93CC-34F1C8AD4B24}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{2A3F5E2F-D961-4C00-8CF7-801F8593082C}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -733,62 +742,16 @@
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>1 to 52 weeks</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 - 10</t>
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{7679CD5B-DBED-A140-AE81-820C73A6E82D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 to 52 weeks
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="1" shapeId="0" xr:uid="{5DB26A1F-EBBF-4F50-AE3A-4A0EC6729FEB}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{101A2008-1A46-4B30-80E2-64212F268431}">
       <text>
         <r>
           <rPr>
@@ -812,7 +775,73 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{12B29199-C105-4946-88E3-48F95AE7F550}">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{33ECC315-8C1C-412A-93E2-AC949FE3FD96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{C52EBBE4-D1FF-4590-95C6-438370A19E03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{59D86E4D-23E3-4A93-9A15-CFE70D521E51}">
       <text>
         <r>
           <rPr>
@@ -836,13 +865,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="1" shapeId="0" xr:uid="{9BE903E3-626C-4E60-8DA2-1F5489316925}">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{05F414A2-8255-46E3-9C62-928679F11C53}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -851,16 +880,58 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-0 - 100%</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{A1399BE4-40CE-BA47-B4B3-1E418F0FDB05}">
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{728217A9-5FAF-4A64-8758-A31064D2AA76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{46D2EC60-D9BF-5B4B-8A58-5ABB2239D72B}">
       <text>
         <r>
           <rPr>
@@ -886,6 +957,204 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 to 100 y.o.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{BCC3B568-B0F7-4053-884F-6FAF392D69F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="1" shapeId="0" xr:uid="{C536A31F-C87A-AF40-A51D-AC6F1020D4D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 to 21 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="1" shapeId="0" xr:uid="{B4AB7C2D-B141-D140-A03F-72A8E66AFC89}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 to 5 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{DC6047C5-CC94-4D39-B8F5-D8E1BC59DC13}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{DA868374-A6F9-41A4-8E01-641686A7BCD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="1" shapeId="0" xr:uid="{7ABCA5E8-93BC-7C4B-A47B-29E3D179384F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -894,7 +1163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="1" shapeId="0" xr:uid="{218D6E6A-9184-47B3-AFCD-A4600686EA47}">
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{936A1F9D-AF0C-4AEA-9081-4A1A7E608056}">
       <text>
         <r>
           <rPr>
@@ -923,861 +1192,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1 - 5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E22" authorId="1" shapeId="0" xr:uid="{2A3F5E2F-D961-4C00-8CF7-801F8593082C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 - 10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{B0161C06-EDCD-8A4B-A141-5140C990201D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>1 to 52 weeks</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E26" authorId="1" shapeId="0" xr:uid="{699AC31A-F73B-4C3D-BE5A-4C1A4A669A27}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="1" shapeId="0" xr:uid="{101A2008-1A46-4B30-80E2-64212F268431}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{4F99D661-CE57-7D44-93F1-092047492F8D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>1 to 52 weeks</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E31" authorId="1" shapeId="0" xr:uid="{01C8FCAD-8CB2-4947-BEE0-7BB37A0EA03A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{598E8E90-2133-C247-88D5-88DB594FE574}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>1 to 52 weeks</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E35" authorId="1" shapeId="0" xr:uid="{73777B26-FBFF-4FBB-B544-74CC83FF909E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E36" authorId="1" shapeId="0" xr:uid="{33ECC315-8C1C-412A-93E2-AC949FE3FD96}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E37" authorId="1" shapeId="0" xr:uid="{C52EBBE4-D1FF-4590-95C6-438370A19E03}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{8E8EDCD3-4BAB-6849-9085-856D26230094}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>1 to 52 weeks</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E41" authorId="1" shapeId="0" xr:uid="{59D86E4D-23E3-4A93-9A15-CFE70D521E51}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E42" authorId="1" shapeId="0" xr:uid="{05F414A2-8255-46E3-9C62-928679F11C53}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{314F8712-B694-E54E-B5DE-687A0281E663}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 to 52 weeks
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E46" authorId="1" shapeId="0" xr:uid="{BE3F2FEC-713F-45BA-9C4D-01CC36B9D173}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E47" authorId="1" shapeId="0" xr:uid="{728217A9-5FAF-4A64-8758-A31064D2AA76}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{46D2EC60-D9BF-5B4B-8A58-5ABB2239D72B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 to 100 y.o.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E51" authorId="0" shapeId="0" xr:uid="{FB781DD6-6AA7-BB4D-828B-470019AFD41C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 to 52 weeks
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E52" authorId="1" shapeId="0" xr:uid="{BCC3B568-B0F7-4053-884F-6FAF392D69F9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E55" authorId="0" shapeId="0" xr:uid="{7FE001FC-8872-4A45-957E-CD028723DE5A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>1 to 52 weeks</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{C536A31F-C87A-AF40-A51D-AC6F1020D4D2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 21 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E57" authorId="1" shapeId="0" xr:uid="{20803B72-5D80-4E14-93DD-C3193CE98FF3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E58" authorId="0" shapeId="0" xr:uid="{B4AB7C2D-B141-D140-A03F-72A8E66AFC89}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 5 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E59" authorId="1" shapeId="0" xr:uid="{DC6047C5-CC94-4D39-B8F5-D8E1BC59DC13}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E60" authorId="1" shapeId="0" xr:uid="{DA868374-A6F9-41A4-8E01-641686A7BCD8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E63" authorId="0" shapeId="0" xr:uid="{7ABCA5E8-93BC-7C4B-A47B-29E3D179384F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>1 to 52 weeks</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E64" authorId="1" shapeId="0" xr:uid="{40620AD8-6A40-4988-8657-81051F589FB7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E65" authorId="1" shapeId="0" xr:uid="{936A1F9D-AF0C-4AEA-9081-4A1A7E608056}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - 100%</t>
+          <t>0 - 100%</t>
         </r>
       </text>
     </comment>
@@ -1786,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="354">
   <si>
     <t>date</t>
   </si>
@@ -2142,132 +1557,24 @@
     <t>Value_Date</t>
   </si>
   <si>
-    <t>Start Date:</t>
-  </si>
-  <si>
     <t>weeks</t>
   </si>
   <si>
     <t>switch</t>
   </si>
   <si>
-    <t>date_lockdown_low_on</t>
-  </si>
-  <si>
-    <t>lockdown_low_switch</t>
-  </si>
-  <si>
-    <t>lockdown_low_dur</t>
-  </si>
-  <si>
-    <t>lockdown_mid_switch</t>
-  </si>
-  <si>
-    <t>date_lockdown_mid_on</t>
-  </si>
-  <si>
-    <t>lockdown_mid_dur</t>
-  </si>
-  <si>
-    <t>lockdown_high_switch</t>
-  </si>
-  <si>
-    <t>date_lockdown_high_on</t>
-  </si>
-  <si>
-    <t>lockdown_high_dur</t>
-  </si>
-  <si>
-    <t>selfis_switch</t>
-  </si>
-  <si>
-    <t>date_selfis_on</t>
-  </si>
-  <si>
-    <t>selfis_dur</t>
-  </si>
-  <si>
     <t>selfis_eff</t>
   </si>
   <si>
-    <t>screen_switch</t>
-  </si>
-  <si>
-    <t>date_screen_on</t>
-  </si>
-  <si>
-    <t>screen_dur</t>
-  </si>
-  <si>
-    <t>screen_cov</t>
-  </si>
-  <si>
-    <t>selfis_cov</t>
-  </si>
-  <si>
-    <t>Duration:</t>
-  </si>
-  <si>
-    <t>dist_switch</t>
-  </si>
-  <si>
-    <t>date_dist_on</t>
-  </si>
-  <si>
-    <t>dist_dur</t>
-  </si>
-  <si>
-    <t>dist_cov</t>
-  </si>
-  <si>
     <t>dist_eff</t>
   </si>
   <si>
-    <t>date_hand_on</t>
-  </si>
-  <si>
-    <t>hand_dur</t>
-  </si>
-  <si>
-    <t>hand_eff</t>
-  </si>
-  <si>
-    <t>hand_switch</t>
-  </si>
-  <si>
-    <t>work_switch</t>
-  </si>
-  <si>
-    <t>date_work_on</t>
-  </si>
-  <si>
-    <t>work_dur</t>
-  </si>
-  <si>
-    <t>work_cov</t>
-  </si>
-  <si>
     <t>work_eff</t>
   </si>
   <si>
-    <t>Coverage:</t>
-  </si>
-  <si>
     <t>Adherence:</t>
   </si>
   <si>
-    <t>Screening / Start Date:</t>
-  </si>
-  <si>
-    <t>Screening / Coverage:</t>
-  </si>
-  <si>
-    <t>Screening / Duration:</t>
-  </si>
-  <si>
-    <t>Screening:</t>
-  </si>
-  <si>
     <t>Efficacy:</t>
   </si>
   <si>
@@ -2280,33 +1587,12 @@
     <t>Home contacts inflation due to school closure:</t>
   </si>
   <si>
-    <t>date_school_on</t>
-  </si>
-  <si>
-    <t>school_dur</t>
-  </si>
-  <si>
     <t>school_eff</t>
   </si>
   <si>
     <t>s2h</t>
   </si>
   <si>
-    <t>school_switch</t>
-  </si>
-  <si>
-    <t>cocoon_switch</t>
-  </si>
-  <si>
-    <t>date_cocoon_on</t>
-  </si>
-  <si>
-    <t>cocoon_dur</t>
-  </si>
-  <si>
-    <t>cocoon_cov</t>
-  </si>
-  <si>
     <t>cocoon_eff</t>
   </si>
   <si>
@@ -2316,33 +1602,12 @@
     <t>age_cocoon</t>
   </si>
   <si>
-    <t>travelban_switch</t>
-  </si>
-  <si>
-    <t>date_travelban_on</t>
-  </si>
-  <si>
-    <t>travelban_dur</t>
-  </si>
-  <si>
     <t>travelban_eff</t>
   </si>
   <si>
-    <t>quarantine_switch</t>
-  </si>
-  <si>
-    <t>date_quarantine_on</t>
-  </si>
-  <si>
-    <t>quarantine_dur</t>
-  </si>
-  <si>
     <t>quarantine_days</t>
   </si>
   <si>
-    <t>quarantine_cov</t>
-  </si>
-  <si>
     <t>quarantine_eff_other</t>
   </si>
   <si>
@@ -2358,9 +1623,6 @@
     <t>Increase in the number of contacts at home when quarantined:</t>
   </si>
   <si>
-    <t>vaccination_switch</t>
-  </si>
-  <si>
     <t>Vaccination</t>
   </si>
   <si>
@@ -2370,12 +1632,6 @@
     <t>vac_campaign</t>
   </si>
   <si>
-    <t>date_vaccine_on</t>
-  </si>
-  <si>
-    <t>vaccine_cov</t>
-  </si>
-  <si>
     <t>vaccine_eff</t>
   </si>
   <si>
@@ -2391,12 +1647,6 @@
     <t>Lockdown, High</t>
   </si>
   <si>
-    <t>lockdown_switch</t>
-  </si>
-  <si>
-    <t>Lockdown (SELECT MAXIMUM ONE LOCKDOWN TRUE)</t>
-  </si>
-  <si>
     <t>Number of deaths per day</t>
   </si>
   <si>
@@ -2412,12 +1662,6 @@
     <t>Deaths per person per day</t>
   </si>
   <si>
-    <t>Screening/Overdispersion:</t>
-  </si>
-  <si>
-    <t>Screening/Contacts:</t>
-  </si>
-  <si>
     <t>contacts</t>
   </si>
   <si>
@@ -2472,9 +1716,6 @@
     <t>Probability of infection given contact:</t>
   </si>
   <si>
-    <t>Added sheet "Parameters".</t>
-  </si>
-  <si>
     <t>date_range_simul</t>
   </si>
   <si>
@@ -2502,9 +1743,6 @@
     <t>Scaling factor for infection hospitalisation rate: (NOT USED IN CURRENT VERSION)</t>
   </si>
   <si>
-    <t>Added mention (NOT USED IN CURRENT VERSION) to "Scaling factor for infection hospitalisation rate:" in Hospitalisation Parameters.</t>
-  </si>
-  <si>
     <t>Social Contacts</t>
   </si>
   <si>
@@ -2974,15 +2212,6 @@
   </si>
   <si>
     <t>country_contact</t>
-  </si>
-  <si>
-    <t>Added Social Contacts Data parameter in sheet "Country Area Parameters".</t>
-  </si>
-  <si>
-    <t>Template v12-B</t>
-  </si>
-  <si>
-    <t>Changes in v12-B:</t>
   </si>
   <si>
     <t>Percentage of all hospitalisations that are reported:</t>
@@ -3045,6 +2274,42 @@
   <si>
     <t>Minimum age for elderly shielding:</t>
   </si>
+  <si>
+    <t>Interventions</t>
+  </si>
+  <si>
+    <t>Intervention</t>
+  </si>
+  <si>
+    <t>Apply to</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date End</t>
+  </si>
+  <si>
+    <t>Baseline + Future Scenario</t>
+  </si>
+  <si>
+    <t>Template v13</t>
+  </si>
+  <si>
+    <t>Coverage (%)</t>
+  </si>
+  <si>
+    <t>Screening (when Self-isolation)</t>
+  </si>
+  <si>
+    <t>Overdispersion:</t>
+  </si>
+  <si>
+    <t>Contacts:</t>
+  </si>
 </sst>
 </file>
 
@@ -3054,7 +2319,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3104,19 +2369,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -3157,6 +2409,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3167,25 +2425,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3283,72 +2541,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3664,10 +2927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3676,12 +2939,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>397</v>
+      <c r="A1" s="5" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3691,33 +2954,13 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3726,790 +2969,1326 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF3269-EADF-2244-AA79-650982CA3F37}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="9">
+        <v>43466</v>
+      </c>
+      <c r="C2" s="9">
+        <v>43525</v>
+      </c>
+      <c r="D2" s="1">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43526</v>
+      </c>
+      <c r="C3" s="9">
+        <v>43831</v>
+      </c>
+      <c r="D3" s="1">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44013</v>
+      </c>
+      <c r="C4" s="9">
+        <v>44044</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="9">
+        <v>43556</v>
+      </c>
+      <c r="C5" s="9">
+        <v>43586</v>
+      </c>
+      <c r="D5" s="1">
+        <v>90</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="9">
+        <v>43466</v>
+      </c>
+      <c r="C6" s="9">
+        <v>43525</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="9">
+        <v>43101</v>
+      </c>
+      <c r="C7" s="9">
+        <v>43622</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="9">
+        <v>43511</v>
+      </c>
+      <c r="C8" s="9">
+        <v>43586</v>
+      </c>
+      <c r="D8" s="1">
+        <v>90</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="9">
+        <v>43587</v>
+      </c>
+      <c r="C9" s="9">
+        <v>43617</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D49" xr:uid="{D6E5BF00-5D2D-744A-810E-E4B5BEB9445C}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{440D4135-AD3D-9D45-A472-9BA444A2B9DA}">
+          <x14:formula1>
+            <xm:f>HIDDEN!$G$2:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E49</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47936E1B-CEB7-1140-B286-248EE55FD596}">
+          <x14:formula1>
+            <xm:f>HIDDEN!$E$2:$E$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A49</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57CEFC6-D2C7-B343-A51D-3BA4E81D468A}">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1" t="s">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1" t="s">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1" t="s">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1" t="s">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1" t="s">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1" t="s">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1" t="s">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1" t="s">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1" t="s">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1" t="s">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1" t="s">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1" t="s">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1" t="s">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1" t="s">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1" t="s">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1" t="s">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1" t="s">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1" t="s">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1" t="s">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1" t="s">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1" t="s">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1" t="s">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1" t="s">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1" t="s">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1" t="s">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1" t="s">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1" t="s">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1" t="s">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1" t="s">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1" t="s">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1" t="s">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1" t="s">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1" t="s">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1" t="s">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1" t="s">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1" t="s">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1" t="s">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1" t="s">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1" t="s">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1" t="s">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1" t="s">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1" t="s">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C143" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1" t="s">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1" t="s">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1" t="s">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1" t="s">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1" t="s">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1" t="s">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1" t="s">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1" t="s">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C151" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1" t="s">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C152" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1" t="s">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C153" s="2" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C103" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C104" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C105" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C106" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C107" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C108" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C109" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C110" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C111" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C112" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C113" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C114" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C115" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C116" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C117" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C118" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C119" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C120" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C121" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C122" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C123" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C124" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C125" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C126" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C127" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C128" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C129" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C130" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C131" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C132" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C133" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C134" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C135" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C136" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C137" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C138" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C139" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C140" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C141" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C142" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C143" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C144" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C145" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C146" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C147" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C148" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C149" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C150" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C151" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C152" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C153" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4524,1122 +4303,1126 @@
   </sheetPr>
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="11" style="1"/>
+    <col min="4" max="16384" width="11" style="10"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>203</v>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="9">
         <v>43830</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>43831</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>43832</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>43833</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>43834</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>43835</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="9">
         <v>43836</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="9">
         <v>43837</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="9">
         <v>43838</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="9">
         <v>43839</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="9">
         <v>43840</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="9">
         <v>43841</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="9">
         <v>43842</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="9">
         <v>43843</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="9">
         <v>43844</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="9">
         <v>43845</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="9">
         <v>43846</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="9">
         <v>43847</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="9">
         <v>43848</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="9">
         <v>43849</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="9">
         <v>43850</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="9">
         <v>43851</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="9">
         <v>43852</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="9">
         <v>43853</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="9">
         <v>43854</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="9">
         <v>43855</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="9">
         <v>43856</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="9">
         <v>43857</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="9">
         <v>43858</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="9">
         <v>43859</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="9">
         <v>43860</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="9">
         <v>43861</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>2</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="9">
         <v>43862</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="9">
         <v>43863</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="9">
         <v>43864</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="9">
         <v>43865</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="9">
         <v>43866</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="9">
         <v>43867</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="9">
         <v>43868</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>1</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="9">
         <v>43869</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="9">
         <v>43870</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>1</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="9">
         <v>43871</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="9">
         <v>43872</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>4</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="9">
         <v>43873</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="9">
         <v>43874</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>1</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="9">
         <v>43875</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="9">
         <v>43876</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="9">
         <v>43877</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="9">
         <v>43878</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="9">
         <v>43879</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="9">
         <v>43880</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="9">
         <v>43881</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="9">
         <v>43882</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="9">
         <v>43883</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="9">
         <v>43884</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="9">
         <v>43885</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>4</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="9">
         <v>43886</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="9">
         <v>43887</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="9">
         <v>43888</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="9">
         <v>43889</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>3</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="9">
         <v>43890</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>2</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="9">
         <v>43891</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>5</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="9">
         <v>43892</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>13</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="9">
         <v>43893</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>4</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="9">
         <v>43894</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>11</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+      <c r="A67" s="9">
         <v>43895</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>34</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="A68" s="9">
         <v>43896</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>30</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="9">
         <v>43897</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>48</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="9">
         <v>43898</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>43</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="9">
         <v>43899</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>67</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="9">
         <v>43900</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>48</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="9">
         <v>43901</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>52</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="A74" s="9">
         <v>43902</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>83</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="A75" s="9">
         <v>43903</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>134</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="A76" s="9">
         <v>43904</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>117</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="A77" s="9">
         <v>43905</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>433</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="A78" s="9">
         <v>43906</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>251</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+      <c r="A79" s="9">
         <v>43907</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>152</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+      <c r="A80" s="9">
         <v>43908</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>407</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+      <c r="A81" s="9">
         <v>43909</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>680</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+      <c r="A82" s="9">
         <v>43910</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>647</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+      <c r="A83" s="9">
         <v>43911</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>706</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="9">
         <v>43912</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>1035</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+      <c r="A85" s="9">
         <v>43913</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>665</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+      <c r="A86" s="9">
         <v>43914</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>967</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+      <c r="A87" s="9">
         <v>43915</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>1427</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+      <c r="A88" s="9">
         <v>43916</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>1452</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+      <c r="A89" s="9">
         <v>43917</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>2129</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+      <c r="A90" s="9">
         <v>43918</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>2885</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+      <c r="A91" s="9">
         <v>43919</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>2546</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="A92" s="9">
         <v>43920</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>2433</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="A93" s="9">
         <v>43921</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>2619</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="A94" s="9">
         <v>43922</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>3009</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>381</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+      <c r="A95" s="9">
         <v>43923</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>4324</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>743</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+      <c r="A96" s="9">
         <v>43924</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>4244</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>389</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+      <c r="A97" s="9">
         <v>43925</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>4450</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>684</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+      <c r="A98" s="9">
         <v>43926</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>3735</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>708</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+      <c r="A99" s="9">
         <v>43927</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
+      <c r="A100" s="9">
         <v>43928</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
+      <c r="A101" s="9">
         <v>43929</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="5">
+      <c r="A102" s="9">
         <v>43930</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="5">
+      <c r="A103" s="9">
         <v>43931</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="5">
+      <c r="A104" s="9">
         <v>43932</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
+      <c r="A105" s="9">
         <v>43933</v>
       </c>
     </row>
@@ -5662,255 +5445,256 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>222</v>
+      <c r="B1" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.26</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.26</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.48</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.48</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.6</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>0.6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1.9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>11.8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1.9</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>11.8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>4.3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>4.3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>7.8</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>7.8</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>7.8</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>7.8</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>7.8</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -5933,322 +5717,324 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="12" customWidth="1"/>
+    <col min="4" max="5" width="11" style="12"/>
+    <col min="6" max="6" width="11.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>207</v>
+      <c r="B1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="15">
         <v>3924000</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
         <v>2.3722458400227202E-6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="15">
         <v>4120000</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
         <v>1.32905378016121E-7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="15">
         <v>3956000</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
         <v>2.7683021103459102E-7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="15">
         <v>3686000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="14">
         <v>1.82721457849836E-5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="14">
         <v>5.9421612308889897E-7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="15">
         <v>4075000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="14">
         <v>7.3367682442901998E-5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="14">
         <v>9.4061131337053795E-7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="15">
         <v>4484000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="14">
         <v>1.2968766886415199E-4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="14">
         <v>1.22116449024625E-6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="15">
         <v>4707000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="14">
         <v>1.4518112523224401E-4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="14">
         <v>1.74496544750293E-6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="15">
         <v>4588000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="14">
         <v>8.5692103973881797E-5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="14">
         <v>2.3869666845092401E-6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="15">
         <v>4308000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="14">
         <v>1.9320024124609101E-5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="14">
         <v>3.9402680780452703E-6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="15">
         <v>4296000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="14">
         <v>1.2746046495028399E-6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="14">
         <v>5.9906418526633501E-6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="15">
         <v>4635000</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
         <v>8.5059441930317695E-6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="15">
         <v>4539000</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
         <v>1.26668575743058E-5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="15">
         <v>3905000</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
         <v>2.0472533414662599E-5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="15">
         <v>3382000</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
         <v>3.4000512436294603E-5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="15">
         <v>3388000</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
         <v>4.9617484749088298E-5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="15">
         <v>2442000</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
         <v>8.7449779441565906E-5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="15">
         <v>1737000</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
         <v>1.6171761126065301E-4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="15">
         <v>1078000</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
         <v>2.9461103089733202E-4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="15">
         <v>491000</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
         <v>4.9738551978041395E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="15">
         <v>130000</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
         <v>8.9717264255251901E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="15">
         <v>16000</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
         <v>7.2895277207392197E-3</v>
       </c>
     </row>
@@ -6272,140 +6058,132 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="30">
+      <c r="A2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="9">
         <v>43862</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>230</v>
+      <c r="E2" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="30">
+      <c r="A3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="9">
         <v>44075</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>231</v>
+      <c r="E3" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4">
+      <c r="A4" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5">
+      <c r="F4" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="1">
         <v>2.5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6">
+      <c r="F5" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="F6" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>235</v>
+      <c r="F7" s="16" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6443,93 +6221,92 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>395</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2.8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="16" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{A2B6A4A1-21F7-44BD-A536-4E6AFE445B59}">
       <formula1>1</formula1>
       <formula2>10</formula2>
@@ -6541,7 +6318,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7715037C-2AB5-744F-90C5-E7A36E8197AB}">
           <x14:formula1>
             <xm:f>HIDDEN!$C$2:$C$153</xm:f>
@@ -6559,186 +6336,188 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="53.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" style="10"/>
+    <col min="6" max="6" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="10"/>
+    <col min="8" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>3.5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4.5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>150</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>55</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>50</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>75</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6782,319 +6561,319 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>160000</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>8000</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>8000</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="1">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>236</v>
+      <c r="E6" s="16" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>45</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>55</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>80</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>80</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>95</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="1">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7129,1302 +6908,529 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="10"/>
+    <col min="8" max="8" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="b">
-        <f>OR(C3, C6, C9)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17" t="s">
+      <c r="A2" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="8">
+        <v>4</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="43">
+        <v>100</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="E10" s="1">
+        <v>85</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="19" t="s">
+    <row r="11" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="43">
+        <v>10</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="E13" s="1">
+        <v>85</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="43">
+        <v>20</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="E16" s="1">
+        <v>95</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="43">
+        <v>70</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="43">
+        <v>50</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="42"/>
+    </row>
+    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="E21" s="1">
+        <v>14</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="E23" s="1">
+        <v>20</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="43">
+        <v>100</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="30">
-        <v>43913</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="20" t="s">
+      <c r="G26" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="21" t="s">
+      <c r="H26" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="30">
-        <v>43913</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="20" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="43">
+        <v>0</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="30">
-        <v>43913</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="31">
-        <v>3</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="30">
-        <v>43902</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14">
-        <v>32</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15">
-        <v>50</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="30">
-        <v>44196</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19">
-        <v>90</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="32">
-        <v>32</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="42">
-        <v>4</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="43">
-        <v>4</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="30">
-        <v>43906</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25">
-        <v>26</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26">
-        <v>50</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="21" t="s">
+      <c r="H27" s="34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="31">
-        <v>100</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="30">
-        <v>43894</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30">
-        <v>30</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="31">
-        <v>5</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="30">
-        <v>43909</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34">
-        <v>12</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35">
-        <v>50</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36">
-        <v>85</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="31">
-        <v>10</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="30">
-        <v>43910</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40">
-        <v>16</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41">
-        <v>85</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="31">
-        <v>20</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="30">
-        <v>43911</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45">
-        <v>16</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46">
-        <v>90</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47">
-        <v>95</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="31">
-        <v>70</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="30">
-        <v>44196</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51">
-        <v>16</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="31">
-        <v>50</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="30">
-        <v>43908</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
-      <c r="B55" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55">
-        <v>24</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
-      <c r="B56" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56">
-        <v>14</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57">
-        <v>70</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="42">
-        <v>2</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59">
-        <v>20</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="31">
-        <v>100</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="30">
-        <v>44348</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63">
-        <v>4</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64">
-        <v>90</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="31">
-        <v>0</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G65" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H65" s="24" t="s">
-        <v>196</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H65" xr:uid="{E454A1AF-76A4-7D40-98C2-916796BE8673}"/>
-  <dataValidations count="7">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D13 D7 D54 D4 D50 D24 D18 D29 D33 D39 D44 D62" xr:uid="{DA1B892E-0330-764C-8C13-4DB948EE95A7}">
-      <formula1>43466</formula1>
-      <formula2>47119</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22" xr:uid="{E2FA9153-BF97-F44D-8444-660C47A52190}">
+  <autoFilter ref="A1:H27" xr:uid="{E454A1AF-76A4-7D40-98C2-916796BE8673}"/>
+  <dataValidations count="6">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{E2FA9153-BF97-F44D-8444-660C47A52190}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E58" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E8 E11 E14 E20 E25 E30 E34 E40 E45 E51 E55 E63" xr:uid="{79437B14-BBCB-41C8-B199-9D1512AD30EC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26" xr:uid="{79437B14-BBCB-41C8-B199-9D1512AD30EC}">
       <formula1>1</formula1>
       <formula2>52</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 E16 E19 E26 E27 E31 E35 E36:E37 E41 E42 E46:E47 E48 E52 E57 E59 E60 E64:E65" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E13:E14 E19 E23:E24 E27 E16:E17 E10:E11 E8" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E56" xr:uid="{F1FF1A14-FBFD-4ABB-A983-0610B931ADEC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21" xr:uid="{F1FF1A14-FBFD-4ABB-A983-0610B931ADEC}">
       <formula1>1</formula1>
       <formula2>21</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21" xr:uid="{B6D144CD-4330-4834-8E17-FC96B6EF40AB}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{B6D144CD-4330-4834-8E17-FC96B6EF40AB}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
@@ -8438,7 +7444,7 @@
           <x14:formula1>
             <xm:f>HIDDEN!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C3 C6 C9 C12 C17 C23 C28 C32 C38 C43 C49 C53 C61</xm:sqref>
+          <xm:sqref>C2 C7 C9 C12 C15 C18 C20 C25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27787D2D-CBDC-5E49-9559-08062512871F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77859F27-2AED-5742-847F-6EFF450017BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="648" firstSheet="1" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="14920" yWindow="-21140" windowWidth="17640" windowHeight="21140" tabRatio="648" firstSheet="6" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -2975,8 +2975,8 @@
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6910,8 +6910,8 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7409,7 +7409,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H27" xr:uid="{E454A1AF-76A4-7D40-98C2-916796BE8673}"/>
-  <dataValidations count="6">
+  <dataValidations disablePrompts="1" count="6">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{E2FA9153-BF97-F44D-8444-660C47A52190}">
       <formula1>1</formula1>
       <formula2>10</formula2>
@@ -7439,7 +7439,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D9C273A-8170-CB49-8167-9B2AD22225CB}">
           <x14:formula1>
             <xm:f>HIDDEN!$A$2:$A$3</xm:f>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77859F27-2AED-5742-847F-6EFF450017BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C255638-2623-054E-B490-C1B36426F81E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14920" yWindow="-21140" windowWidth="17640" windowHeight="21140" tabRatio="648" firstSheet="6" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="940" yWindow="-21140" windowWidth="31620" windowHeight="21140" tabRatio="648" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="Severity-Mortality" sheetId="4" r:id="rId3"/>
     <sheet name="Population" sheetId="3" r:id="rId4"/>
     <sheet name="Parameters" sheetId="13" r:id="rId5"/>
-    <sheet name="Country Area Parameters" sheetId="7" r:id="rId6"/>
-    <sheet name="Virus Parameters" sheetId="8" r:id="rId7"/>
-    <sheet name="Hospitalisation Parameters" sheetId="9" r:id="rId8"/>
-    <sheet name="Interventions Parameters" sheetId="11" r:id="rId9"/>
+    <sheet name="Country Area Param" sheetId="7" r:id="rId6"/>
+    <sheet name="Virus Param" sheetId="8" r:id="rId7"/>
+    <sheet name="Hospitalisation Param" sheetId="9" r:id="rId8"/>
+    <sheet name="Interventions Param" sheetId="11" r:id="rId9"/>
     <sheet name="Interventions" sheetId="14" r:id="rId10"/>
     <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Parameters'!$A$1:$H$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$27</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -652,7 +652,7 @@
     <author>Olivier Celhay</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{12B29199-C105-4946-88E3-48F95AE7F550}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{12B29199-C105-4946-88E3-48F95AE7F550}">
       <text>
         <r>
           <rPr>
@@ -685,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{218D6E6A-9184-47B3-AFCD-A4600686EA47}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{218D6E6A-9184-47B3-AFCD-A4600686EA47}">
       <text>
         <r>
           <rPr>
@@ -718,7 +718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{2A3F5E2F-D961-4C00-8CF7-801F8593082C}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{2A3F5E2F-D961-4C00-8CF7-801F8593082C}">
       <text>
         <r>
           <rPr>
@@ -751,7 +751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{101A2008-1A46-4B30-80E2-64212F268431}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{101A2008-1A46-4B30-80E2-64212F268431}">
       <text>
         <r>
           <rPr>
@@ -775,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{33ECC315-8C1C-412A-93E2-AC949FE3FD96}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{33ECC315-8C1C-412A-93E2-AC949FE3FD96}">
       <text>
         <r>
           <rPr>
@@ -808,7 +808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{C52EBBE4-D1FF-4590-95C6-438370A19E03}">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{C52EBBE4-D1FF-4590-95C6-438370A19E03}">
       <text>
         <r>
           <rPr>
@@ -841,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{59D86E4D-23E3-4A93-9A15-CFE70D521E51}">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{59D86E4D-23E3-4A93-9A15-CFE70D521E51}">
       <text>
         <r>
           <rPr>
@@ -865,7 +865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{05F414A2-8255-46E3-9C62-928679F11C53}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{05F414A2-8255-46E3-9C62-928679F11C53}">
       <text>
         <r>
           <rPr>
@@ -898,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{728217A9-5FAF-4A64-8758-A31064D2AA76}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{728217A9-5FAF-4A64-8758-A31064D2AA76}">
       <text>
         <r>
           <rPr>
@@ -931,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{46D2EC60-D9BF-5B4B-8A58-5ABB2239D72B}">
+    <comment ref="C17" authorId="1" shapeId="0" xr:uid="{46D2EC60-D9BF-5B4B-8A58-5ABB2239D72B}">
       <text>
         <r>
           <rPr>
@@ -964,7 +964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{BCC3B568-B0F7-4053-884F-6FAF392D69F9}">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{BCC3B568-B0F7-4053-884F-6FAF392D69F9}">
       <text>
         <r>
           <rPr>
@@ -997,7 +997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="1" shapeId="0" xr:uid="{C536A31F-C87A-AF40-A51D-AC6F1020D4D2}">
+    <comment ref="C21" authorId="1" shapeId="0" xr:uid="{C536A31F-C87A-AF40-A51D-AC6F1020D4D2}">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="1" shapeId="0" xr:uid="{B4AB7C2D-B141-D140-A03F-72A8E66AFC89}">
+    <comment ref="C22" authorId="1" shapeId="0" xr:uid="{B4AB7C2D-B141-D140-A03F-72A8E66AFC89}">
       <text>
         <r>
           <rPr>
@@ -1063,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{DC6047C5-CC94-4D39-B8F5-D8E1BC59DC13}">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{DC6047C5-CC94-4D39-B8F5-D8E1BC59DC13}">
       <text>
         <r>
           <rPr>
@@ -1096,7 +1096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{DA868374-A6F9-41A4-8E01-641686A7BCD8}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{DA868374-A6F9-41A4-8E01-641686A7BCD8}">
       <text>
         <r>
           <rPr>
@@ -1129,7 +1129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="1" shapeId="0" xr:uid="{7ABCA5E8-93BC-7C4B-A47B-29E3D179384F}">
+    <comment ref="C26" authorId="1" shapeId="0" xr:uid="{7ABCA5E8-93BC-7C4B-A47B-29E3D179384F}">
       <text>
         <r>
           <rPr>
@@ -1163,7 +1163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{936A1F9D-AF0C-4AEA-9081-4A1A7E608056}">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{936A1F9D-AF0C-4AEA-9081-4A1A7E608056}">
       <text>
         <r>
           <rPr>
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="352">
   <si>
     <t>date</t>
   </si>
@@ -1551,16 +1551,10 @@
     <t>Voluntary home quarantine</t>
   </si>
   <si>
-    <t>Value_Logical</t>
-  </si>
-  <si>
     <t>Value_Date</t>
   </si>
   <si>
     <t>weeks</t>
-  </si>
-  <si>
-    <t>switch</t>
   </si>
   <si>
     <t>selfis_eff</t>
@@ -2284,9 +2278,6 @@
     <t>Apply to</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
     <t>Date Start</t>
   </si>
   <si>
@@ -2309,6 +2300,9 @@
   </si>
   <si>
     <t>Contacts:</t>
+  </si>
+  <si>
+    <t>Future Scenario</t>
   </si>
 </sst>
 </file>
@@ -2541,7 +2535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2551,8 +2545,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2578,32 +2570,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2611,7 +2584,45 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2940,7 +2951,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2975,8 +2986,8 @@
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2991,29 +3002,29 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>43466</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>43525</v>
       </c>
       <c r="D2" s="1">
@@ -3025,12 +3036,12 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="9">
+        <v>143</v>
+      </c>
+      <c r="B3" s="7">
         <v>43526</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>43831</v>
       </c>
       <c r="D3" s="1">
@@ -3042,12 +3053,12 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="9">
+        <v>143</v>
+      </c>
+      <c r="B4" s="7">
         <v>44013</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>44044</v>
       </c>
       <c r="D4" s="1">
@@ -3059,366 +3070,366 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="9">
+        <v>165</v>
+      </c>
+      <c r="B5" s="7">
         <v>43556</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>43586</v>
       </c>
       <c r="D5" s="1">
         <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>43466</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>43525</v>
       </c>
       <c r="D6" s="1">
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="9">
+        <v>143</v>
+      </c>
+      <c r="B7" s="7">
         <v>43101</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>43622</v>
       </c>
       <c r="D7" s="1">
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>43511</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>43586</v>
       </c>
       <c r="D8" s="1">
         <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>43587</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>43617</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
@@ -3456,7 +3467,7 @@
   <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3468,16 +3479,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3485,13 +3496,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3499,42 +3510,42 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>110</v>
@@ -3542,7 +3553,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>111</v>
@@ -3550,7 +3561,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>112</v>
@@ -3558,7 +3569,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>113</v>
@@ -3566,15 +3577,15 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>114</v>
@@ -3582,7 +3593,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>115</v>
@@ -3590,705 +3601,705 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C121" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C122" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C123" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C124" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C125" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C126" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C127" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C128" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C147" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C149" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4310,22 +4321,22 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="11" style="1"/>
-    <col min="4" max="16384" width="11" style="10"/>
+    <col min="4" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>148</v>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>43830</v>
       </c>
       <c r="B2" s="1">
@@ -4336,7 +4347,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>43831</v>
       </c>
       <c r="B3" s="1">
@@ -4347,7 +4358,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>43832</v>
       </c>
       <c r="B4" s="1">
@@ -4358,7 +4369,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>43833</v>
       </c>
       <c r="B5" s="1">
@@ -4369,7 +4380,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>43834</v>
       </c>
       <c r="B6" s="1">
@@ -4380,7 +4391,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>43835</v>
       </c>
       <c r="B7" s="1">
@@ -4391,7 +4402,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>43836</v>
       </c>
       <c r="B8" s="1">
@@ -4402,7 +4413,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>43837</v>
       </c>
       <c r="B9" s="1">
@@ -4413,7 +4424,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>43838</v>
       </c>
       <c r="B10" s="1">
@@ -4424,7 +4435,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>43839</v>
       </c>
       <c r="B11" s="1">
@@ -4435,7 +4446,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>43840</v>
       </c>
       <c r="B12" s="1">
@@ -4446,7 +4457,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>43841</v>
       </c>
       <c r="B13" s="1">
@@ -4457,7 +4468,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>43842</v>
       </c>
       <c r="B14" s="1">
@@ -4468,7 +4479,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>43843</v>
       </c>
       <c r="B15" s="1">
@@ -4479,7 +4490,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>43844</v>
       </c>
       <c r="B16" s="1">
@@ -4490,7 +4501,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>43845</v>
       </c>
       <c r="B17" s="1">
@@ -4501,7 +4512,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>43846</v>
       </c>
       <c r="B18" s="1">
@@ -4512,7 +4523,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>43847</v>
       </c>
       <c r="B19" s="1">
@@ -4523,7 +4534,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>43848</v>
       </c>
       <c r="B20" s="1">
@@ -4534,7 +4545,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>43849</v>
       </c>
       <c r="B21" s="1">
@@ -4545,7 +4556,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <v>43850</v>
       </c>
       <c r="B22" s="1">
@@ -4556,7 +4567,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>43851</v>
       </c>
       <c r="B23" s="1">
@@ -4567,7 +4578,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
+      <c r="A24" s="7">
         <v>43852</v>
       </c>
       <c r="B24" s="1">
@@ -4578,7 +4589,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>43853</v>
       </c>
       <c r="B25" s="1">
@@ -4589,7 +4600,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
+      <c r="A26" s="7">
         <v>43854</v>
       </c>
       <c r="B26" s="1">
@@ -4600,7 +4611,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>43855</v>
       </c>
       <c r="B27" s="1">
@@ -4611,7 +4622,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+      <c r="A28" s="7">
         <v>43856</v>
       </c>
       <c r="B28" s="1">
@@ -4622,7 +4633,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
+      <c r="A29" s="7">
         <v>43857</v>
       </c>
       <c r="B29" s="1">
@@ -4633,7 +4644,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>43858</v>
       </c>
       <c r="B30" s="1">
@@ -4644,7 +4655,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>43859</v>
       </c>
       <c r="B31" s="1">
@@ -4655,7 +4666,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
+      <c r="A32" s="7">
         <v>43860</v>
       </c>
       <c r="B32" s="1">
@@ -4666,7 +4677,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
+      <c r="A33" s="7">
         <v>43861</v>
       </c>
       <c r="B33" s="1">
@@ -4677,7 +4688,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
+      <c r="A34" s="7">
         <v>43862</v>
       </c>
       <c r="B34" s="1">
@@ -4688,7 +4699,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
+      <c r="A35" s="7">
         <v>43863</v>
       </c>
       <c r="B35" s="1">
@@ -4699,7 +4710,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
+      <c r="A36" s="7">
         <v>43864</v>
       </c>
       <c r="B36" s="1">
@@ -4710,7 +4721,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
+      <c r="A37" s="7">
         <v>43865</v>
       </c>
       <c r="B37" s="1">
@@ -4721,7 +4732,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
+      <c r="A38" s="7">
         <v>43866</v>
       </c>
       <c r="B38" s="1">
@@ -4732,7 +4743,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
+      <c r="A39" s="7">
         <v>43867</v>
       </c>
       <c r="B39" s="1">
@@ -4743,7 +4754,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
+      <c r="A40" s="7">
         <v>43868</v>
       </c>
       <c r="B40" s="1">
@@ -4754,7 +4765,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
+      <c r="A41" s="7">
         <v>43869</v>
       </c>
       <c r="B41" s="1">
@@ -4765,7 +4776,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
+      <c r="A42" s="7">
         <v>43870</v>
       </c>
       <c r="B42" s="1">
@@ -4776,7 +4787,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
+      <c r="A43" s="7">
         <v>43871</v>
       </c>
       <c r="B43" s="1">
@@ -4787,7 +4798,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
+      <c r="A44" s="7">
         <v>43872</v>
       </c>
       <c r="B44" s="1">
@@ -4798,7 +4809,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
+      <c r="A45" s="7">
         <v>43873</v>
       </c>
       <c r="B45" s="1">
@@ -4809,7 +4820,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
+      <c r="A46" s="7">
         <v>43874</v>
       </c>
       <c r="B46" s="1">
@@ -4820,7 +4831,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
+      <c r="A47" s="7">
         <v>43875</v>
       </c>
       <c r="B47" s="1">
@@ -4831,7 +4842,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="9">
+      <c r="A48" s="7">
         <v>43876</v>
       </c>
       <c r="B48" s="1">
@@ -4842,7 +4853,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="9">
+      <c r="A49" s="7">
         <v>43877</v>
       </c>
       <c r="B49" s="1">
@@ -4853,7 +4864,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="9">
+      <c r="A50" s="7">
         <v>43878</v>
       </c>
       <c r="B50" s="1">
@@ -4864,7 +4875,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="9">
+      <c r="A51" s="7">
         <v>43879</v>
       </c>
       <c r="B51" s="1">
@@ -4875,7 +4886,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="9">
+      <c r="A52" s="7">
         <v>43880</v>
       </c>
       <c r="B52" s="1">
@@ -4886,7 +4897,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="9">
+      <c r="A53" s="7">
         <v>43881</v>
       </c>
       <c r="B53" s="1">
@@ -4897,7 +4908,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="9">
+      <c r="A54" s="7">
         <v>43882</v>
       </c>
       <c r="B54" s="1">
@@ -4908,7 +4919,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="9">
+      <c r="A55" s="7">
         <v>43883</v>
       </c>
       <c r="B55" s="1">
@@ -4919,7 +4930,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="9">
+      <c r="A56" s="7">
         <v>43884</v>
       </c>
       <c r="B56" s="1">
@@ -4930,7 +4941,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="9">
+      <c r="A57" s="7">
         <v>43885</v>
       </c>
       <c r="B57" s="1">
@@ -4941,7 +4952,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="9">
+      <c r="A58" s="7">
         <v>43886</v>
       </c>
       <c r="B58" s="1">
@@ -4952,7 +4963,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="9">
+      <c r="A59" s="7">
         <v>43887</v>
       </c>
       <c r="B59" s="1">
@@ -4963,7 +4974,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="9">
+      <c r="A60" s="7">
         <v>43888</v>
       </c>
       <c r="B60" s="1">
@@ -4974,7 +4985,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="9">
+      <c r="A61" s="7">
         <v>43889</v>
       </c>
       <c r="B61" s="1">
@@ -4985,7 +4996,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="9">
+      <c r="A62" s="7">
         <v>43890</v>
       </c>
       <c r="B62" s="1">
@@ -4996,7 +5007,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="9">
+      <c r="A63" s="7">
         <v>43891</v>
       </c>
       <c r="B63" s="1">
@@ -5007,7 +5018,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="9">
+      <c r="A64" s="7">
         <v>43892</v>
       </c>
       <c r="B64" s="1">
@@ -5018,7 +5029,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="9">
+      <c r="A65" s="7">
         <v>43893</v>
       </c>
       <c r="B65" s="1">
@@ -5029,7 +5040,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="9">
+      <c r="A66" s="7">
         <v>43894</v>
       </c>
       <c r="B66" s="1">
@@ -5040,7 +5051,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="9">
+      <c r="A67" s="7">
         <v>43895</v>
       </c>
       <c r="B67" s="1">
@@ -5051,7 +5062,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="9">
+      <c r="A68" s="7">
         <v>43896</v>
       </c>
       <c r="B68" s="1">
@@ -5062,7 +5073,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="9">
+      <c r="A69" s="7">
         <v>43897</v>
       </c>
       <c r="B69" s="1">
@@ -5073,7 +5084,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="9">
+      <c r="A70" s="7">
         <v>43898</v>
       </c>
       <c r="B70" s="1">
@@ -5084,7 +5095,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="9">
+      <c r="A71" s="7">
         <v>43899</v>
       </c>
       <c r="B71" s="1">
@@ -5095,7 +5106,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="9">
+      <c r="A72" s="7">
         <v>43900</v>
       </c>
       <c r="B72" s="1">
@@ -5106,7 +5117,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="9">
+      <c r="A73" s="7">
         <v>43901</v>
       </c>
       <c r="B73" s="1">
@@ -5117,7 +5128,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="9">
+      <c r="A74" s="7">
         <v>43902</v>
       </c>
       <c r="B74" s="1">
@@ -5128,7 +5139,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="9">
+      <c r="A75" s="7">
         <v>43903</v>
       </c>
       <c r="B75" s="1">
@@ -5139,7 +5150,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="9">
+      <c r="A76" s="7">
         <v>43904</v>
       </c>
       <c r="B76" s="1">
@@ -5150,7 +5161,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="9">
+      <c r="A77" s="7">
         <v>43905</v>
       </c>
       <c r="B77" s="1">
@@ -5161,7 +5172,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="9">
+      <c r="A78" s="7">
         <v>43906</v>
       </c>
       <c r="B78" s="1">
@@ -5172,7 +5183,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="9">
+      <c r="A79" s="7">
         <v>43907</v>
       </c>
       <c r="B79" s="1">
@@ -5183,7 +5194,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="9">
+      <c r="A80" s="7">
         <v>43908</v>
       </c>
       <c r="B80" s="1">
@@ -5194,7 +5205,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="9">
+      <c r="A81" s="7">
         <v>43909</v>
       </c>
       <c r="B81" s="1">
@@ -5205,7 +5216,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="9">
+      <c r="A82" s="7">
         <v>43910</v>
       </c>
       <c r="B82" s="1">
@@ -5216,7 +5227,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="9">
+      <c r="A83" s="7">
         <v>43911</v>
       </c>
       <c r="B83" s="1">
@@ -5227,7 +5238,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="9">
+      <c r="A84" s="7">
         <v>43912</v>
       </c>
       <c r="B84" s="1">
@@ -5238,7 +5249,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="9">
+      <c r="A85" s="7">
         <v>43913</v>
       </c>
       <c r="B85" s="1">
@@ -5249,7 +5260,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="9">
+      <c r="A86" s="7">
         <v>43914</v>
       </c>
       <c r="B86" s="1">
@@ -5260,7 +5271,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="9">
+      <c r="A87" s="7">
         <v>43915</v>
       </c>
       <c r="B87" s="1">
@@ -5271,7 +5282,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="9">
+      <c r="A88" s="7">
         <v>43916</v>
       </c>
       <c r="B88" s="1">
@@ -5282,7 +5293,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="9">
+      <c r="A89" s="7">
         <v>43917</v>
       </c>
       <c r="B89" s="1">
@@ -5293,7 +5304,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="9">
+      <c r="A90" s="7">
         <v>43918</v>
       </c>
       <c r="B90" s="1">
@@ -5304,7 +5315,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="9">
+      <c r="A91" s="7">
         <v>43919</v>
       </c>
       <c r="B91" s="1">
@@ -5315,7 +5326,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="9">
+      <c r="A92" s="7">
         <v>43920</v>
       </c>
       <c r="B92" s="1">
@@ -5326,7 +5337,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="9">
+      <c r="A93" s="7">
         <v>43921</v>
       </c>
       <c r="B93" s="1">
@@ -5337,7 +5348,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="9">
+      <c r="A94" s="7">
         <v>43922</v>
       </c>
       <c r="B94" s="1">
@@ -5348,7 +5359,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="9">
+      <c r="A95" s="7">
         <v>43923</v>
       </c>
       <c r="B95" s="1">
@@ -5359,7 +5370,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="9">
+      <c r="A96" s="7">
         <v>43924</v>
       </c>
       <c r="B96" s="1">
@@ -5370,7 +5381,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="9">
+      <c r="A97" s="7">
         <v>43925</v>
       </c>
       <c r="B97" s="1">
@@ -5381,7 +5392,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="9">
+      <c r="A98" s="7">
         <v>43926</v>
       </c>
       <c r="B98" s="1">
@@ -5392,37 +5403,37 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="9">
+      <c r="A99" s="7">
         <v>43927</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="9">
+      <c r="A100" s="7">
         <v>43928</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="9">
+      <c r="A101" s="7">
         <v>43929</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="9">
+      <c r="A102" s="7">
         <v>43930</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="9">
+      <c r="A103" s="7">
         <v>43931</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="9">
+      <c r="A104" s="7">
         <v>43932</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="9">
+      <c r="A105" s="7">
         <v>43933</v>
       </c>
     </row>
@@ -5450,25 +5461,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="10"/>
+    <col min="1" max="1" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>165</v>
+      <c r="B1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
@@ -5479,7 +5490,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -5490,7 +5501,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
@@ -5501,7 +5512,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
@@ -5512,7 +5523,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
@@ -5523,7 +5534,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
@@ -5534,7 +5545,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
@@ -5545,7 +5556,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
@@ -5556,7 +5567,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
@@ -5567,7 +5578,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
@@ -5578,7 +5589,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
@@ -5589,7 +5600,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
@@ -5600,7 +5611,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
@@ -5611,7 +5622,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
@@ -5622,7 +5633,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
@@ -5633,7 +5644,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1">
@@ -5644,7 +5655,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
@@ -5655,7 +5666,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1">
@@ -5666,7 +5677,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1">
@@ -5677,7 +5688,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1">
@@ -5688,7 +5699,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1">
@@ -5722,319 +5733,319 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="12" customWidth="1"/>
-    <col min="4" max="5" width="11" style="12"/>
-    <col min="6" max="6" width="11.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="12"/>
+    <col min="1" max="1" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
+    <col min="4" max="5" width="11" style="10"/>
+    <col min="6" max="6" width="11.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="13">
         <v>3924000</v>
       </c>
-      <c r="C2" s="14">
-        <v>0</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
         <v>2.3722458400227202E-6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>4120000</v>
       </c>
-      <c r="C3" s="14">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
         <v>1.32905378016121E-7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>3956000</v>
       </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
         <v>2.7683021103459102E-7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>3686000</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>1.82721457849836E-5</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>5.9421612308889897E-7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>4075000</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>7.3367682442901998E-5</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>9.4061131337053795E-7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>4484000</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>1.2968766886415199E-4</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>1.22116449024625E-6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>4707000</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>1.4518112523224401E-4</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>1.74496544750293E-6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>4588000</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>8.5692103973881797E-5</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>2.3869666845092401E-6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>4308000</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>1.9320024124609101E-5</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>3.9402680780452703E-6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>4296000</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>1.2746046495028399E-6</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>5.9906418526633501E-6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>4635000</v>
       </c>
-      <c r="C12" s="14">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14">
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
         <v>8.5059441930317695E-6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <v>4539000</v>
       </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
         <v>1.26668575743058E-5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>3905000</v>
       </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
         <v>2.0472533414662599E-5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="13">
         <v>3382000</v>
       </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
         <v>3.4000512436294603E-5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>3388000</v>
       </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
         <v>4.9617484749088298E-5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>2442000</v>
       </c>
-      <c r="C17" s="14">
-        <v>0</v>
-      </c>
-      <c r="D17" s="14">
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
         <v>8.7449779441565906E-5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>1737000</v>
       </c>
-      <c r="C18" s="14">
-        <v>0</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
         <v>1.6171761126065301E-4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>1078000</v>
       </c>
-      <c r="C19" s="14">
-        <v>0</v>
-      </c>
-      <c r="D19" s="14">
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
         <v>2.9461103089733202E-4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="13">
         <v>491000</v>
       </c>
-      <c r="C20" s="14">
-        <v>0</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
         <v>4.9738551978041395E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="13">
         <v>130000</v>
       </c>
-      <c r="C21" s="14">
-        <v>0</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
         <v>8.9717264255251901E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>16000</v>
       </c>
-      <c r="C22" s="14">
-        <v>0</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
         <v>7.2895277207392197E-3</v>
       </c>
     </row>
@@ -6059,131 +6070,131 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="55.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="7">
+        <v>43862</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="7">
+        <v>44075</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="B2" s="9">
-        <v>43862</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="9">
-        <v>44075</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="C4" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>174</v>
+      <c r="F4" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>338</v>
+      <c r="A5" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="C5" s="1">
         <v>2.5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>175</v>
+      <c r="F5" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>339</v>
+      <c r="A6" s="15" t="s">
+        <v>337</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>176</v>
+      <c r="F6" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>337</v>
+      <c r="A7" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>177</v>
+      <c r="F7" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6226,82 +6237,82 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="10"/>
+    <col min="1" max="1" width="38.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>336</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="1">
         <v>2.8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6339,185 +6350,185 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" style="10"/>
-    <col min="6" max="6" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="10"/>
-    <col min="8" max="16384" width="11" style="10"/>
+    <col min="1" max="1" width="53.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" style="8"/>
+    <col min="6" max="6" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="8"/>
+    <col min="8" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="12">
         <v>10</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="12">
         <v>3.5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="12">
         <v>4.5</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="12">
         <v>150</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="12">
         <v>55</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="12">
         <v>50</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="12">
         <v>75</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6566,314 +6577,314 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="10"/>
+    <col min="1" max="1" width="54.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="1">
         <v>160000</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="1">
         <v>8000</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B4" s="1">
         <v>8000</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>166</v>
+      <c r="A5" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>179</v>
+      <c r="A6" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>178</v>
+      <c r="E6" s="14" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B7" s="1">
         <v>35</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="1">
         <v>45</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="1">
         <v>55</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B10" s="1">
         <v>80</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B11" s="1">
         <v>80</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B12" s="1">
         <v>95</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>158</v>
+      <c r="A13" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>159</v>
+      <c r="A14" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>160</v>
+      <c r="A15" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>161</v>
+      <c r="A16" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>162</v>
+      <c r="A17" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>163</v>
+      <c r="A18" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6908,546 +6919,466 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="10"/>
-    <col min="8" max="8" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="10"/>
+    <col min="1" max="1" width="35" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="8"/>
+    <col min="6" max="6" width="20.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="12">
+        <v>50</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="33">
+        <v>4</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="34">
+        <v>4</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="35">
+        <v>100</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="12">
+        <v>85</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="35">
+        <v>10</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="12">
+        <v>85</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="35">
+        <v>20</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="12">
+        <v>95</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" s="35">
+        <v>70</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="35">
+        <v>50</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="12">
+        <v>14</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="33">
+        <v>2</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="12">
+        <v>20</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="35">
+        <v>100</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="12">
+        <v>4</v>
+      </c>
+      <c r="D26" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="1">
-        <v>50</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="E26" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="35">
+        <v>0</v>
+      </c>
+      <c r="D27" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="E27" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="7">
-        <v>4</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="8">
-        <v>4</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="43">
-        <v>100</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="42"/>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="E10" s="1">
-        <v>85</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="43">
-        <v>10</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="E13" s="1">
-        <v>85</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="43">
-        <v>20</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="E16" s="1">
-        <v>95</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="43">
-        <v>70</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" s="42"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="43">
-        <v>50</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="42"/>
-    </row>
-    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="E21" s="1">
-        <v>14</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="7">
-        <v>2</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="E23" s="1">
-        <v>20</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="43">
-        <v>100</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="42"/>
-    </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22" t="s">
+      <c r="F27" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="E26" s="1">
-        <v>4</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="43">
-        <v>0</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>143</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H27" xr:uid="{E454A1AF-76A4-7D40-98C2-916796BE8673}"/>
-  <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{E2FA9153-BF97-F44D-8444-660C47A52190}">
+  <autoFilter ref="A1:F27" xr:uid="{E454A1AF-76A4-7D40-98C2-916796BE8673}"/>
+  <dataValidations count="6">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{E2FA9153-BF97-F44D-8444-660C47A52190}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26" xr:uid="{79437B14-BBCB-41C8-B199-9D1512AD30EC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26" xr:uid="{79437B14-BBCB-41C8-B199-9D1512AD30EC}">
       <formula1>1</formula1>
       <formula2>52</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E13:E14 E19 E23:E24 E27 E16:E17 E10:E11 E8" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C13:C14 C19 C23:C24 C27 C16:C17 C10:C11 C8" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21" xr:uid="{F1FF1A14-FBFD-4ABB-A983-0610B931ADEC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{F1FF1A14-FBFD-4ABB-A983-0610B931ADEC}">
       <formula1>1</formula1>
       <formula2>21</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{B6D144CD-4330-4834-8E17-FC96B6EF40AB}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{B6D144CD-4330-4834-8E17-FC96B6EF40AB}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D9C273A-8170-CB49-8167-9B2AD22225CB}">
-          <x14:formula1>
-            <xm:f>HIDDEN!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2 C7 C9 C12 C15 C18 C20 C25</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C255638-2623-054E-B490-C1B36426F81E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3345A7-C933-674E-9CF8-DFC1790A96B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="-21140" windowWidth="31620" windowHeight="21140" tabRatio="648" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="5620" yWindow="-21140" windowWidth="16220" windowHeight="21140" tabRatio="648" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -2987,7 +2987,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3345A7-C933-674E-9CF8-DFC1790A96B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8525FDCD-80F2-2948-96CC-980ED1DADB3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="-21140" windowWidth="16220" windowHeight="21140" tabRatio="648" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="-4580" yWindow="-21140" windowWidth="38280" windowHeight="21140" tabRatio="648" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="352">
   <si>
     <t>date</t>
   </si>
@@ -2984,10 +2984,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3022,13 +3022,13 @@
         <v>111</v>
       </c>
       <c r="B2" s="7">
-        <v>43466</v>
+        <v>43876</v>
       </c>
       <c r="C2" s="7">
-        <v>43525</v>
+        <v>43936</v>
       </c>
       <c r="D2" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>345</v>
@@ -3036,16 +3036,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="B3" s="7">
-        <v>43526</v>
+        <v>43937</v>
       </c>
       <c r="C3" s="7">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="D3" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>345</v>
@@ -3053,16 +3053,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="B4" s="7">
-        <v>44013</v>
+        <v>43866</v>
       </c>
       <c r="C4" s="7">
-        <v>44044</v>
+        <v>43890</v>
       </c>
       <c r="D4" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>345</v>
@@ -3070,67 +3070,67 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="B5" s="7">
-        <v>43556</v>
+        <v>43891</v>
       </c>
       <c r="C5" s="7">
-        <v>43586</v>
+        <v>44012</v>
       </c>
       <c r="D5" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="B6" s="7">
-        <v>43466</v>
+        <v>43876</v>
       </c>
       <c r="C6" s="7">
-        <v>43525</v>
+        <v>43921</v>
       </c>
       <c r="D6" s="1">
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B7" s="7">
-        <v>43101</v>
+        <v>43922</v>
       </c>
       <c r="C7" s="7">
-        <v>43622</v>
+        <v>44012</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="B8" s="7">
-        <v>43511</v>
+        <v>43961</v>
       </c>
       <c r="C8" s="7">
-        <v>43586</v>
+        <v>43982</v>
       </c>
       <c r="D8" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>351</v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="B9" s="7">
-        <v>43587</v>
+        <v>43983</v>
       </c>
       <c r="C9" s="7">
-        <v>43617</v>
+        <v>44012</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -3154,18 +3154,38 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44013</v>
+      </c>
+      <c r="C10" s="7">
+        <v>44074</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44075</v>
+      </c>
+      <c r="C11" s="7">
+        <v>44104</v>
+      </c>
+      <c r="D11" s="1">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -3433,9 +3453,16 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D49" xr:uid="{D6E5BF00-5D2D-744A-810E-E4B5BEB9445C}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D50" xr:uid="{D6E5BF00-5D2D-744A-810E-E4B5BEB9445C}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -3448,13 +3475,13 @@
           <x14:formula1>
             <xm:f>HIDDEN!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E49</xm:sqref>
+          <xm:sqref>E2:E50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47936E1B-CEB7-1140-B286-248EE55FD596}">
           <x14:formula1>
             <xm:f>HIDDEN!$E$2:$E$14</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A49</xm:sqref>
+          <xm:sqref>A2:A50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6070,7 +6097,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6123,7 +6150,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="7">
-        <v>44075</v>
+        <v>44196</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>169</v>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8525FDCD-80F2-2948-96CC-980ED1DADB3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D7B37-A611-9B4E-9441-B364ACB2156D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4580" yWindow="-21140" windowWidth="38280" windowHeight="21140" tabRatio="648" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="13260" yWindow="-21140" windowWidth="20440" windowHeight="21140" tabRatio="648" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -2986,7 +2986,7 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -6096,8 +6096,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D7B37-A611-9B4E-9441-B364ACB2156D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D9B3DB-F8EE-714F-BCF7-C350651A2506}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="-21140" windowWidth="20440" windowHeight="21140" tabRatio="648" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="13260" yWindow="-21140" windowWidth="20440" windowHeight="21140" tabRatio="648" activeTab="2" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -5482,8 +5482,8 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5579,7 +5579,7 @@
         <v>0.26</v>
       </c>
       <c r="C8" s="1">
-        <v>8.4000000000000005E-2</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5590,7 +5590,7 @@
         <v>0.26</v>
       </c>
       <c r="C9" s="1">
-        <v>8.4000000000000005E-2</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5601,7 +5601,7 @@
         <v>0.48</v>
       </c>
       <c r="C10" s="1">
-        <v>0.16</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5612,7 +5612,7 @@
         <v>0.48</v>
       </c>
       <c r="C11" s="1">
-        <v>0.16</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5738,7 +5738,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B2:B22 C2:C22" xr:uid="{6F77CD72-3BB7-4451-8487-AA34D9320359}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B2:C22" xr:uid="{6F77CD72-3BB7-4451-8487-AA34D9320359}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -6096,7 +6096,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D9B3DB-F8EE-714F-BCF7-C350651A2506}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CE8013-612E-B44F-B4CF-860C88CB508E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="-21140" windowWidth="20440" windowHeight="21140" tabRatio="648" activeTab="2" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="13260" yWindow="-21140" windowWidth="20440" windowHeight="21140" tabRatio="648" firstSheet="4" activeTab="10" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Hospitalisation Param" sheetId="9" r:id="rId8"/>
     <sheet name="Interventions Param" sheetId="11" r:id="rId9"/>
     <sheet name="Interventions" sheetId="14" r:id="rId10"/>
-    <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId11"/>
+    <sheet name="HIDDEN" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$27</definedName>
@@ -2987,7 +2987,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B10" s="7">
         <v>44013</v>
@@ -3493,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57CEFC6-D2C7-B343-A51D-3BA4E81D468A}">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5482,7 +5482,7 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CE8013-612E-B44F-B4CF-860C88CB508E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A91D14-9965-1C4D-B776-549D5728AC91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="-21140" windowWidth="20440" windowHeight="21140" tabRatio="648" firstSheet="4" activeTab="10" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="13260" yWindow="-21140" windowWidth="20440" windowHeight="21140" tabRatio="648" firstSheet="3" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Hospitalisation Param" sheetId="9" r:id="rId8"/>
     <sheet name="Interventions Param" sheetId="11" r:id="rId9"/>
     <sheet name="Interventions" sheetId="14" r:id="rId10"/>
-    <sheet name="HIDDEN" sheetId="12" r:id="rId11"/>
+    <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$27</definedName>
@@ -2986,8 +2986,8 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3493,7 +3493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57CEFC6-D2C7-B343-A51D-3BA4E81D468A}">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A91D14-9965-1C4D-B776-549D5728AC91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3615C25E-9419-3146-BBD4-1218C15906E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="-21140" windowWidth="20440" windowHeight="21140" tabRatio="648" firstSheet="3" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="17540" tabRatio="648" activeTab="7" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Hospitalisation Param" sheetId="9" r:id="rId8"/>
     <sheet name="Interventions Param" sheetId="11" r:id="rId9"/>
     <sheet name="Interventions" sheetId="14" r:id="rId10"/>
-    <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId11"/>
+    <sheet name="HIDDEN" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$27</definedName>
@@ -476,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{96AD9494-0E73-EB4D-B4E7-5944E1089063}">
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{6AF90CD2-69CC-AA4B-A769-14DADD96C490}">
       <text>
         <r>
           <rPr>
@@ -509,106 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{6AF90CD2-69CC-AA4B-A769-14DADD96C490}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 30 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{15100A51-88F1-2D4A-BE13-B9EA8C6490CE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 30 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{5813D783-EA21-DD45-B6C5-56D42BCEDA80}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 30 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="1" shapeId="0" xr:uid="{0F7FC5C6-6ECF-DF4D-84D6-9F029454BE66}">
+    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{5813D783-EA21-DD45-B6C5-56D42BCEDA80}">
       <text>
         <r>
           <rPr>
@@ -1201,7 +1102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="345">
   <si>
     <t>date</t>
   </si>
@@ -1365,9 +1266,6 @@
     <t>beds_available</t>
   </si>
   <si>
-    <t>Maximum number of hospital beds</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -1470,33 +1368,15 @@
     <t>nus</t>
   </si>
   <si>
-    <t>nusc</t>
-  </si>
-  <si>
-    <t>nu_icuc</t>
-  </si>
-  <si>
     <t>nu_vent</t>
   </si>
   <si>
-    <t>nu_ventc</t>
-  </si>
-  <si>
     <t>nu_icu</t>
   </si>
   <si>
     <t>beds</t>
   </si>
   <si>
-    <t>ventilators</t>
-  </si>
-  <si>
-    <t>Maximum number of ICU beds</t>
-  </si>
-  <si>
-    <t>Maximum number of ventilators</t>
-  </si>
-  <si>
     <t>Probability of dying when hospitalised:</t>
   </si>
   <si>
@@ -1674,19 +1554,10 @@
     <t>Duration of hospitalised infection:</t>
   </si>
   <si>
-    <t>Duration of denied hospitalisation infection:</t>
-  </si>
-  <si>
     <t>Duration of ICU infection:</t>
   </si>
   <si>
-    <t>Duration of denied ICU infection:</t>
-  </si>
-  <si>
     <t>Duration of ventilated infection:</t>
-  </si>
-  <si>
-    <t>Duration of denied ventilation infection:</t>
   </si>
   <si>
     <t>Age-based relative fatality rate in well-resourced scenario (%)</t>
@@ -2303,6 +2174,61 @@
   </si>
   <si>
     <t>Future Scenario</t>
+  </si>
+  <si>
+    <t>Maximum number of hospital surge beds</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maximum number of ICU beds </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ventilators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maximum number of ICU beds </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ventilators</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2535,7 +2461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2566,9 +2492,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2622,6 +2545,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2941,7 +2868,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2951,27 +2878,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2986,8 +2913,8 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3002,24 +2929,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B2" s="7">
         <v>43876</v>
@@ -3031,12 +2958,12 @@
         <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B3" s="7">
         <v>43937</v>
@@ -3048,12 +2975,12 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B4" s="7">
         <v>43866</v>
@@ -3065,12 +2992,12 @@
         <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B5" s="7">
         <v>43891</v>
@@ -3082,12 +3009,12 @@
         <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B6" s="7">
         <v>43876</v>
@@ -3099,12 +3026,12 @@
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B7" s="7">
         <v>43922</v>
@@ -3116,12 +3043,12 @@
         <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B8" s="7">
         <v>43961</v>
@@ -3133,12 +3060,12 @@
         <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B9" s="7">
         <v>43983</v>
@@ -3150,12 +3077,12 @@
         <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B10" s="7">
         <v>44013</v>
@@ -3167,12 +3094,12 @@
         <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B11" s="7">
         <v>44075</v>
@@ -3184,7 +3111,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3494,7 +3421,7 @@
   <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3506,16 +3433,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3523,13 +3450,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3537,796 +3464,796 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C121" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C122" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C123" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C124" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C125" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C126" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C127" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C128" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C147" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C149" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4356,10 +4283,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5483,7 +5410,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5499,10 +5426,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5773,13 +5700,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6116,13 +6043,13 @@
         <v>23</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>44</v>
@@ -6133,35 +6060,35 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B2" s="7">
         <v>43862</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B3" s="7">
         <v>44196</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1">
         <v>4.9000000000000002E-2</v>
@@ -6170,58 +6097,58 @@
         <v>49</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C5" s="1">
         <v>2.5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -6278,13 +6205,13 @@
         <v>23</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>44</v>
@@ -6295,29 +6222,29 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="14" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
         <v>2.8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>49</v>
@@ -6328,13 +6255,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>46</v>
@@ -6399,7 +6326,7 @@
         <v>47</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>44</v>
@@ -6409,14 +6336,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
-        <v>59</v>
+      <c r="A2" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="12">
         <v>10</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>49</v>
@@ -6426,14 +6353,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
-        <v>58</v>
+      <c r="A3" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="B3" s="12">
         <v>3.5</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>49</v>
@@ -6443,120 +6370,120 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
-        <v>63</v>
+      <c r="A4" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="B4" s="12">
         <v>4.5</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
-        <v>65</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
-        <v>68</v>
-      </c>
       <c r="B6" s="12">
         <v>0</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
-        <v>70</v>
       </c>
       <c r="B7" s="12">
         <v>150</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
-        <v>73</v>
+      <c r="A8" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="B8" s="12">
         <v>55</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
-        <v>75</v>
       </c>
       <c r="B9" s="12">
         <v>50</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
-        <v>77</v>
       </c>
       <c r="B10" s="12">
         <v>75</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -6596,16 +6523,16 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
@@ -6620,7 +6547,7 @@
         <v>47</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>44</v>
@@ -6631,13 +6558,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="1">
+        <v>342</v>
+      </c>
+      <c r="B2" s="44">
         <v>160000</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>46</v>
@@ -6648,58 +6575,58 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="1">
+        <v>343</v>
+      </c>
+      <c r="B3" s="44">
         <v>8000</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="1">
+        <v>344</v>
+      </c>
+      <c r="B4" s="44">
         <v>8000</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>177</v>
+      <c r="A6" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -6708,137 +6635,137 @@
         <v>49</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1">
         <v>35</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1">
         <v>45</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1">
         <v>55</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1">
         <v>80</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1">
         <v>80</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1">
         <v>95</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>49</v>
@@ -6849,78 +6776,23 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B13:B18" xr:uid="{6C0631D2-5E94-0E44-AEDA-62F22487E25D}">
-      <formula1>1</formula1>
-      <formula2>30</formula2>
-    </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{1D15A7CB-72A1-4F2B-8C53-02E77DE5D83B}">
       <formula1>1</formula1>
     </dataValidation>
@@ -6934,6 +6806,10 @@
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{B4ABC229-799B-514E-B7F5-8FD96E5E9CBE}">
       <formula1>1</formula1>
       <formula2>4</formula2>
+    </dataValidation>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{6C0631D2-5E94-0E44-AEDA-62F22487E25D}">
+      <formula1>1</formula1>
+      <formula2>30</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6965,16 +6841,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>44</v>
@@ -6984,397 +6860,397 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="A2" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="39" t="s">
-        <v>121</v>
+      <c r="A3" s="18"/>
+      <c r="B3" s="38" t="s">
+        <v>114</v>
       </c>
       <c r="C3" s="12">
         <v>50</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>118</v>
+      <c r="F3" s="20" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
+      <c r="A4" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="A5" s="21"/>
+      <c r="B5" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="32">
         <v>4</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>152</v>
+      <c r="F5" s="20" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="42" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" s="34">
+      <c r="A6" s="22"/>
+      <c r="B6" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="33">
         <v>4</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>153</v>
+      <c r="F6" s="24" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
+      <c r="A7" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="A8" s="25"/>
+      <c r="B8" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="34">
         <v>100</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>119</v>
+      <c r="F8" s="24" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="A9" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="39" t="s">
-        <v>122</v>
+      <c r="A10" s="18"/>
+      <c r="B10" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="C10" s="12">
         <v>85</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>120</v>
+      <c r="F10" s="20" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="34">
         <v>10</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>124</v>
+      <c r="F11" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="A12" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="39" t="s">
-        <v>122</v>
+      <c r="A13" s="18"/>
+      <c r="B13" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="C13" s="12">
         <v>85</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>126</v>
+      <c r="F13" s="20" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="35">
+      <c r="A14" s="25"/>
+      <c r="B14" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="34">
         <v>20</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="D14" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>127</v>
+      <c r="F14" s="24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
+      <c r="A15" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="39" t="s">
-        <v>122</v>
+      <c r="A16" s="18"/>
+      <c r="B16" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="C16" s="12">
         <v>95</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="34">
+        <v>70</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="34">
+        <v>50</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="38" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="C17" s="35">
-        <v>70</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="35">
-        <v>50</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="39" t="s">
-        <v>135</v>
       </c>
       <c r="C21" s="12">
         <v>14</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="20" t="s">
+      <c r="D21" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>132</v>
+      <c r="F21" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="33">
+      <c r="A22" s="18"/>
+      <c r="B22" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="32">
         <v>2</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>155</v>
+      <c r="F22" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="39" t="s">
-        <v>136</v>
+      <c r="A23" s="18"/>
+      <c r="B23" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="C23" s="12">
         <v>20</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>133</v>
+      <c r="F23" s="20" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="35">
+      <c r="A24" s="25"/>
+      <c r="B24" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="34">
         <v>100</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="D24" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>134</v>
+      <c r="F24" s="24" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
+      <c r="A25" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="39" t="s">
-        <v>139</v>
+      <c r="A26" s="18"/>
+      <c r="B26" s="38" t="s">
+        <v>132</v>
       </c>
       <c r="C26" s="12">
         <v>4</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="20" t="s">
+      <c r="D26" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>140</v>
+      <c r="F26" s="20" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="35">
-        <v>0</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="24" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="34">
+        <v>0</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>141</v>
+      <c r="F27" s="24" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3615C25E-9419-3146-BBD4-1218C15906E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94016C0C-CEC1-FE41-8C63-D2124217CC07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="17540" tabRatio="648" activeTab="7" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="3940" yWindow="-19340" windowWidth="28000" windowHeight="17540" tabRatio="648" activeTab="10" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1102,13 +1102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="345">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>age_category</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="345">
   <si>
     <t>0-5 y.o.</t>
   </si>
@@ -1510,15 +1504,6 @@
   </si>
   <si>
     <t>Switch</t>
-  </si>
-  <si>
-    <t>Lockdown, Low</t>
-  </si>
-  <si>
-    <t>Lockdown, Mid</t>
-  </si>
-  <si>
-    <t>Lockdown, High</t>
   </si>
   <si>
     <t>Number of deaths per day</t>
@@ -2155,12 +2140,6 @@
     <t>Date End</t>
   </si>
   <si>
-    <t>Baseline + Future Scenario</t>
-  </si>
-  <si>
-    <t>Template v13</t>
-  </si>
-  <si>
     <t>Coverage (%)</t>
   </si>
   <si>
@@ -2171,9 +2150,6 @@
   </si>
   <si>
     <t>Contacts:</t>
-  </si>
-  <si>
-    <t>Future Scenario</t>
   </si>
   <si>
     <t>Maximum number of hospital surge beds</t>
@@ -2229,6 +2205,30 @@
       </rPr>
       <t xml:space="preserve"> ventilators</t>
     </r>
+  </si>
+  <si>
+    <t>Screening (when S.I.)</t>
+  </si>
+  <si>
+    <t>Household Isolation (when S.I.)</t>
+  </si>
+  <si>
+    <t>International Travel Ban</t>
+  </si>
+  <si>
+    <t>Baseline (Calibration)</t>
+  </si>
+  <si>
+    <t>Hypothetical Scenario</t>
+  </si>
+  <si>
+    <t>Age Category</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Template v13.01</t>
   </si>
 </sst>
 </file>
@@ -2868,7 +2868,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2878,27 +2878,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2914,12 +2914,12 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -2929,24 +2929,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="7">
         <v>43876</v>
@@ -2958,12 +2958,12 @@
         <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="7">
         <v>43937</v>
@@ -2975,12 +2975,12 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="7">
         <v>43866</v>
@@ -2992,12 +2992,12 @@
         <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="7">
         <v>43891</v>
@@ -3009,12 +3009,12 @@
         <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B6" s="7">
         <v>43876</v>
@@ -3026,55 +3026,55 @@
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>337</v>
       </c>
       <c r="B7" s="7">
-        <v>43922</v>
+        <v>43876</v>
       </c>
       <c r="C7" s="7">
-        <v>44012</v>
+        <v>43921</v>
       </c>
       <c r="D7" s="1">
         <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>138</v>
+        <v>338</v>
       </c>
       <c r="B8" s="7">
-        <v>43961</v>
+        <v>43876</v>
       </c>
       <c r="C8" s="7">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="D8" s="1">
         <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B9" s="7">
-        <v>43983</v>
+        <v>43876</v>
       </c>
       <c r="C9" s="7">
-        <v>44012</v>
+        <v>43936</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>341</v>
@@ -3082,16 +3082,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="B10" s="7">
-        <v>44013</v>
+        <v>43937</v>
       </c>
       <c r="C10" s="7">
-        <v>44074</v>
+        <v>44196</v>
       </c>
       <c r="D10" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>341</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B11" s="7">
-        <v>44075</v>
+        <v>43866</v>
       </c>
       <c r="C11" s="7">
-        <v>44104</v>
+        <v>43890</v>
       </c>
       <c r="D11" s="1">
         <v>50</v>
@@ -3115,39 +3115,89 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="7">
+        <v>43891</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44012</v>
+      </c>
+      <c r="D12" s="1">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="7">
+        <v>43876</v>
+      </c>
+      <c r="C13" s="7">
+        <v>43921</v>
+      </c>
+      <c r="D13" s="1">
+        <v>80</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="7">
+        <v>43876</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43921</v>
+      </c>
+      <c r="D14" s="1">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="7">
+        <v>43876</v>
+      </c>
+      <c r="C15" s="7">
+        <v>43921</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="7">
+        <v>43876</v>
+      </c>
+      <c r="C16" s="7">
+        <v>44196</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
@@ -3406,7 +3456,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47936E1B-CEB7-1140-B286-248EE55FD596}">
           <x14:formula1>
-            <xm:f>HIDDEN!$E$2:$E$14</xm:f>
+            <xm:f>HIDDEN!$E$2:$E$11</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A50</xm:sqref>
         </x14:dataValidation>
@@ -3420,29 +3470,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57CEFC6-D2C7-B343-A51D-3BA4E81D468A}">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3450,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3464,42 +3514,42 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>338</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>103</v>
@@ -3507,7 +3557,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>104</v>
@@ -3515,745 +3565,736 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>105</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>328</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C121" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C122" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C123" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C124" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C125" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C126" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C127" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C128" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C147" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C149" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -4269,7 +4310,7 @@
   <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4280,13 +4321,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5409,9 +5450,7 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5423,18 +5462,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>1</v>
+        <v>342</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1.6000000000000001E-3</v>
@@ -5445,7 +5484,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1.6000000000000001E-3</v>
@@ -5456,7 +5495,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>7.0000000000000001E-3</v>
@@ -5467,7 +5506,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>7.0000000000000001E-3</v>
@@ -5478,7 +5517,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>3.1E-2</v>
@@ -5489,7 +5528,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>3.1E-2</v>
@@ -5500,7 +5539,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.26</v>
@@ -5511,7 +5550,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.26</v>
@@ -5522,7 +5561,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.48</v>
@@ -5533,7 +5572,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.48</v>
@@ -5544,7 +5583,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.6</v>
@@ -5555,7 +5594,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.6</v>
@@ -5566,7 +5605,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>1.9</v>
@@ -5577,7 +5616,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>1.9</v>
@@ -5588,7 +5627,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>4.3</v>
@@ -5599,7 +5638,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>4.3</v>
@@ -5610,7 +5649,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>7.8</v>
@@ -5621,7 +5660,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>7.8</v>
@@ -5632,7 +5671,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>7.8</v>
@@ -5643,7 +5682,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>7.8</v>
@@ -5654,7 +5693,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>7.8</v>
@@ -5682,7 +5721,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5697,21 +5736,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>1</v>
+        <v>342</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="13">
         <v>3924000</v>
@@ -5725,7 +5764,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="13">
         <v>4120000</v>
@@ -5739,7 +5778,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="13">
         <v>3956000</v>
@@ -5753,7 +5792,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="13">
         <v>3686000</v>
@@ -5767,7 +5806,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="13">
         <v>4075000</v>
@@ -5781,7 +5820,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="13">
         <v>4484000</v>
@@ -5795,7 +5834,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="13">
         <v>4707000</v>
@@ -5809,7 +5848,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="13">
         <v>4588000</v>
@@ -5823,7 +5862,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="13">
         <v>4308000</v>
@@ -5837,7 +5876,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="13">
         <v>4296000</v>
@@ -5851,7 +5890,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="13">
         <v>4635000</v>
@@ -5865,7 +5904,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="13">
         <v>4539000</v>
@@ -5879,7 +5918,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="13">
         <v>3905000</v>
@@ -5893,7 +5932,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="13">
         <v>3382000</v>
@@ -5907,7 +5946,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="13">
         <v>3388000</v>
@@ -5921,7 +5960,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="13">
         <v>2442000</v>
@@ -5935,7 +5974,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="13">
         <v>1737000</v>
@@ -5949,7 +5988,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="13">
         <v>1078000</v>
@@ -5963,7 +6002,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="13">
         <v>491000</v>
@@ -5977,7 +6016,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="13">
         <v>130000</v>
@@ -5991,7 +6030,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="13">
         <v>16000</v>
@@ -6024,7 +6063,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6040,115 +6079,115 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B2" s="7">
         <v>43862</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B3" s="7">
         <v>44196</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C5" s="1">
         <v>2.5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6202,72 +6241,72 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="14" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1">
         <v>2.8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6320,170 +6359,170 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="12">
         <v>10</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="12">
         <v>3.5</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="12">
         <v>4.5</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="12">
         <v>150</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="12">
         <v>55</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="12">
         <v>50</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="12">
         <v>75</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6525,8 +6564,8 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6541,254 +6580,254 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B2" s="44">
         <v>160000</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B3" s="44">
         <v>8000</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B4" s="44">
         <v>8000</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1">
         <v>35</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1">
         <v>45</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1">
         <v>55</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1">
         <v>80</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1">
         <v>80</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1">
         <v>95</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -6841,27 +6880,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
@@ -6872,24 +6911,24 @@
     <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="12">
         <v>50</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="31"/>
@@ -6900,40 +6939,40 @@
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="40" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C5" s="32">
         <v>4</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="41" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C6" s="33">
         <v>4</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="31"/>
@@ -6944,24 +6983,24 @@
     <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="34">
         <v>100</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="31"/>
@@ -6972,42 +7011,42 @@
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" s="12">
         <v>85</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" s="34">
         <v>10</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="31"/>
@@ -7018,42 +7057,42 @@
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C13" s="12">
         <v>85</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C14" s="34">
         <v>20</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="31"/>
@@ -7064,42 +7103,42 @@
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C16" s="12">
         <v>95</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="42" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C17" s="34">
         <v>70</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="31"/>
@@ -7110,24 +7149,24 @@
     <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" s="34">
         <v>50</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="31"/>
@@ -7138,78 +7177,78 @@
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C21" s="12">
         <v>14</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="40" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C22" s="32">
         <v>2</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C23" s="12">
         <v>20</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="34">
         <v>100</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="31"/>
@@ -7220,37 +7259,37 @@
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" s="12">
         <v>4</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" s="34">
         <v>0</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94016C0C-CEC1-FE41-8C63-D2124217CC07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D9248B-3720-914D-8641-51412059543F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="-19340" windowWidth="28000" windowHeight="17540" tabRatio="648" activeTab="10" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="17540" tabRatio="648" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="Hospitalisation Param" sheetId="9" r:id="rId8"/>
     <sheet name="Interventions Param" sheetId="11" r:id="rId9"/>
     <sheet name="Interventions" sheetId="14" r:id="rId10"/>
-    <sheet name="HIDDEN" sheetId="12" r:id="rId11"/>
+    <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -619,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{2A3F5E2F-D961-4C00-8CF7-801F8593082C}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{2A3F5E2F-D961-4C00-8CF7-801F8593082C}">
       <text>
         <r>
           <rPr>
@@ -652,13 +652,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{101A2008-1A46-4B30-80E2-64212F268431}">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{33ECC315-8C1C-412A-93E2-AC949FE3FD96}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -667,16 +667,25 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-0 - 100%</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{33ECC315-8C1C-412A-93E2-AC949FE3FD96}">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{C52EBBE4-D1FF-4590-95C6-438370A19E03}">
       <text>
         <r>
           <rPr>
@@ -709,7 +718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{C52EBBE4-D1FF-4590-95C6-438370A19E03}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{59D86E4D-23E3-4A93-9A15-CFE70D521E51}">
       <text>
         <r>
           <rPr>
@@ -742,13 +751,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{59D86E4D-23E3-4A93-9A15-CFE70D521E51}">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{05F414A2-8255-46E3-9C62-928679F11C53}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -757,16 +766,25 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-0 - 100%</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{05F414A2-8255-46E3-9C62-928679F11C53}">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{728217A9-5FAF-4A64-8758-A31064D2AA76}">
       <text>
         <r>
           <rPr>
@@ -799,7 +817,40 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{728217A9-5FAF-4A64-8758-A31064D2AA76}">
+    <comment ref="C18" authorId="1" shapeId="0" xr:uid="{46D2EC60-D9BF-5B4B-8A58-5ABB2239D72B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 to 100 y.o.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{BCC3B568-B0F7-4053-884F-6FAF392D69F9}">
       <text>
         <r>
           <rPr>
@@ -832,7 +883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="1" shapeId="0" xr:uid="{46D2EC60-D9BF-5B4B-8A58-5ABB2239D72B}">
+    <comment ref="C23" authorId="1" shapeId="0" xr:uid="{B4AB7C2D-B141-D140-A03F-72A8E66AFC89}">
       <text>
         <r>
           <rPr>
@@ -861,11 +912,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0 to 100 y.o.</t>
+          <t>1 to 5 days</t>
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{BCC3B568-B0F7-4053-884F-6FAF392D69F9}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{DC6047C5-CC94-4D39-B8F5-D8E1BC59DC13}">
       <text>
         <r>
           <rPr>
@@ -898,7 +949,40 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="1" shapeId="0" xr:uid="{C536A31F-C87A-AF40-A51D-AC6F1020D4D2}">
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{DA868374-A6F9-41A4-8E01-641686A7BCD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="1" shapeId="0" xr:uid="{7ABCA5E8-93BC-7C4B-A47B-29E3D179384F}">
       <text>
         <r>
           <rPr>
@@ -924,147 +1008,15 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 21 days</t>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 to 52 weeks
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="1" shapeId="0" xr:uid="{B4AB7C2D-B141-D140-A03F-72A8E66AFC89}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 5 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{DC6047C5-CC94-4D39-B8F5-D8E1BC59DC13}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{DA868374-A6F9-41A4-8E01-641686A7BCD8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C26" authorId="1" shapeId="0" xr:uid="{7ABCA5E8-93BC-7C4B-A47B-29E3D179384F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 to 52 weeks
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{936A1F9D-AF0C-4AEA-9081-4A1A7E608056}">
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{936A1F9D-AF0C-4AEA-9081-4A1A7E608056}">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1054,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="347">
   <si>
     <t>0-5 y.o.</t>
   </si>
@@ -2229,6 +2181,12 @@
   </si>
   <si>
     <t>Template v13.01</t>
+  </si>
+  <si>
+    <t>Test Sensitivity:</t>
+  </si>
+  <si>
+    <t>screen_test_sens</t>
   </si>
 </sst>
 </file>
@@ -3470,7 +3428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57CEFC6-D2C7-B343-A51D-3BA4E81D468A}">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -6861,10 +6819,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6952,253 +6910,253 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="32">
+        <v>80</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C7" s="33">
         <v>4</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D7" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E7" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F7" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C9" s="34">
         <v>100</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D9" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F9" s="24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C11" s="12">
         <v>85</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D11" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="42" t="s">
+    <row r="12" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C12" s="34">
         <v>10</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D12" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E12" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F12" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C14" s="12">
         <v>85</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D14" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E14" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="42" t="s">
+    <row r="15" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C15" s="34">
         <v>20</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D15" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F15" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C17" s="12">
         <v>95</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D17" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E17" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F17" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="42" t="s">
+    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C18" s="34">
         <v>70</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D18" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E18" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F18" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C20" s="34">
         <v>50</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D20" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F20" s="24" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="12">
-        <v>14</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="32">
-        <v>2</v>
+      <c r="B22" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="12">
+        <v>14</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>53</v>
@@ -7207,111 +7165,128 @@
         <v>47</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
-      <c r="B23" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="12">
-        <v>20</v>
+      <c r="B23" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="32">
+        <v>2</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="12">
+        <v>20</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="42" t="s">
+    <row r="25" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C25" s="34">
         <v>100</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D25" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E25" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F25" s="24" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C27" s="12">
         <v>4</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D27" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F27" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="42" t="s">
+    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="34">
-        <v>0</v>
-      </c>
-      <c r="D27" s="37" t="s">
+      <c r="C28" s="34">
+        <v>0</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E28" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F28" s="24" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F27" xr:uid="{E454A1AF-76A4-7D40-98C2-916796BE8673}"/>
-  <dataValidations count="6">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{E2FA9153-BF97-F44D-8444-660C47A52190}">
+  <dataValidations count="7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{E2FA9153-BF97-F44D-8444-660C47A52190}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26" xr:uid="{79437B14-BBCB-41C8-B199-9D1512AD30EC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27" xr:uid="{79437B14-BBCB-41C8-B199-9D1512AD30EC}">
       <formula1>1</formula1>
       <formula2>52</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C13:C14 C19 C23:C24 C27 C16:C17 C10:C11 C8" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C14:C15 C20 C24:C25 C28 C17:C18 C11:C12 C9" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{F1FF1A14-FBFD-4ABB-A983-0610B931ADEC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22" xr:uid="{F1FF1A14-FBFD-4ABB-A983-0610B931ADEC}">
       <formula1>1</formula1>
       <formula2>21</formula2>
     </dataValidation>
@@ -7319,6 +7294,10 @@
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{CD746C83-53B1-D345-A8F6-BC88F0AF7ED0}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D9248B-3720-914D-8641-51412059543F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21E05CC-25B3-6941-9C65-474E14F06F53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="17540" tabRatio="648" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="648" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -291,7 +291,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -300,12 +300,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1 - 12 (Jan - Dec)</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 - 12 (Jan - Dec)</t>
         </r>
       </text>
     </comment>
@@ -315,7 +324,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -324,12 +333,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-0 - 100%</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
         </r>
       </text>
     </comment>
@@ -652,7 +670,40 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{33ECC315-8C1C-412A-93E2-AC949FE3FD96}">
+    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{B4AB7C2D-B141-D140-A03F-72A8E66AFC89}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 to 5 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{DC6047C5-CC94-4D39-B8F5-D8E1BC59DC13}">
       <text>
         <r>
           <rPr>
@@ -685,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{C52EBBE4-D1FF-4590-95C6-438370A19E03}">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{DA868374-A6F9-41A4-8E01-641686A7BCD8}">
       <text>
         <r>
           <rPr>
@@ -718,7 +769,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{59D86E4D-23E3-4A93-9A15-CFE70D521E51}">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{33ECC315-8C1C-412A-93E2-AC949FE3FD96}">
       <text>
         <r>
           <rPr>
@@ -751,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{05F414A2-8255-46E3-9C62-928679F11C53}">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{C52EBBE4-D1FF-4590-95C6-438370A19E03}">
       <text>
         <r>
           <rPr>
@@ -784,7 +835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{728217A9-5FAF-4A64-8758-A31064D2AA76}">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{59D86E4D-23E3-4A93-9A15-CFE70D521E51}">
       <text>
         <r>
           <rPr>
@@ -817,7 +868,73 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="1" shapeId="0" xr:uid="{46D2EC60-D9BF-5B4B-8A58-5ABB2239D72B}">
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{05F414A2-8255-46E3-9C62-928679F11C53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{728217A9-5FAF-4A64-8758-A31064D2AA76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="1" shapeId="0" xr:uid="{46D2EC60-D9BF-5B4B-8A58-5ABB2239D72B}">
       <text>
         <r>
           <rPr>
@@ -850,7 +967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{BCC3B568-B0F7-4053-884F-6FAF392D69F9}">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{BCC3B568-B0F7-4053-884F-6FAF392D69F9}">
       <text>
         <r>
           <rPr>
@@ -883,7 +1000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="1" shapeId="0" xr:uid="{B4AB7C2D-B141-D140-A03F-72A8E66AFC89}">
+    <comment ref="C29" authorId="1" shapeId="0" xr:uid="{7ABCA5E8-93BC-7C4B-A47B-29E3D179384F}">
       <text>
         <r>
           <rPr>
@@ -909,114 +1026,15 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 5 days</t>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 to 52 weeks
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{DC6047C5-CC94-4D39-B8F5-D8E1BC59DC13}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{DA868374-A6F9-41A4-8E01-641686A7BCD8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C27" authorId="1" shapeId="0" xr:uid="{7ABCA5E8-93BC-7C4B-A47B-29E3D179384F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 to 52 weeks
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{936A1F9D-AF0C-4AEA-9081-4A1A7E608056}">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{936A1F9D-AF0C-4AEA-9081-4A1A7E608056}">
       <text>
         <r>
           <rPr>
@@ -1054,7 +1072,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="345">
   <si>
     <t>0-5 y.o.</t>
   </si>
@@ -1369,12 +1387,6 @@
   </si>
   <si>
     <t>School Closures</t>
-  </si>
-  <si>
-    <t>Travel Ban</t>
-  </si>
-  <si>
-    <t>Voluntary home quarantine</t>
   </si>
   <si>
     <t>Value_Date</t>
@@ -2095,9 +2107,6 @@
     <t>Coverage (%)</t>
   </si>
   <si>
-    <t>Screening (when Self-isolation)</t>
-  </si>
-  <si>
     <t>Overdispersion:</t>
   </si>
   <si>
@@ -2188,6 +2197,9 @@
   <si>
     <t>screen_test_sens</t>
   </si>
+  <si>
+    <t>hand_eff</t>
+  </si>
 </sst>
 </file>
 
@@ -2197,7 +2209,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2252,19 +2264,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2836,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2872,7 +2871,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2887,19 +2886,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2916,7 +2915,7 @@
         <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2933,7 +2932,7 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2950,7 +2949,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2967,12 +2966,12 @@
         <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" s="7">
         <v>43876</v>
@@ -2984,12 +2983,12 @@
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B7" s="7">
         <v>43876</v>
@@ -3001,12 +3000,12 @@
         <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B8" s="7">
         <v>43876</v>
@@ -3018,7 +3017,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3035,7 +3034,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3052,7 +3051,7 @@
         <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3069,7 +3068,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3086,12 +3085,12 @@
         <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13" s="7">
         <v>43876</v>
@@ -3103,12 +3102,12 @@
         <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B14" s="7">
         <v>43876</v>
@@ -3120,12 +3119,12 @@
         <v>90</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B15" s="7">
         <v>43876</v>
@@ -3137,12 +3136,12 @@
         <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B16" s="7">
         <v>43876</v>
@@ -3154,7 +3153,7 @@
         <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3429,7 +3428,7 @@
   <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3441,16 +3440,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3458,13 +3457,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3472,26 +3471,26 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>101</v>
@@ -3499,7 +3498,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>102</v>
@@ -3507,7 +3506,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>103</v>
@@ -3515,7 +3514,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>104</v>
@@ -3523,736 +3522,736 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C121" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C122" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C123" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C124" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C125" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C126" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C127" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C128" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C147" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C149" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4279,13 +4278,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5420,13 +5419,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5694,16 +5693,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6040,7 +6039,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>45</v>
@@ -6057,35 +6056,35 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="7">
         <v>43862</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="7">
         <v>44196</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1">
         <v>4.9000000000000002E-2</v>
@@ -6094,12 +6093,12 @@
         <v>47</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C5" s="1">
         <v>2.5</v>
@@ -6111,12 +6110,12 @@
         <v>47</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -6128,12 +6127,12 @@
         <v>47</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
@@ -6145,7 +6144,7 @@
         <v>47</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6202,7 +6201,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>45</v>
@@ -6219,18 +6218,18 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6301,7 +6300,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6555,7 +6554,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B2" s="44">
         <v>160000</v>
@@ -6572,7 +6571,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B3" s="44">
         <v>8000</v>
@@ -6589,7 +6588,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B4" s="44">
         <v>8000</v>
@@ -6606,7 +6605,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
@@ -6623,7 +6622,7 @@
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -6632,7 +6631,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6739,7 +6738,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -6756,7 +6755,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -6773,7 +6772,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -6819,10 +6818,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6858,7 +6857,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
@@ -6869,7 +6868,7 @@
     <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="12">
         <v>50</v>
@@ -6881,12 +6880,12 @@
         <v>47</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="31"/>
@@ -6897,7 +6896,7 @@
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="40" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C5" s="32">
         <v>4</v>
@@ -6907,13 +6906,13 @@
         <v>47</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="40" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C6" s="32">
         <v>80</v>
@@ -6925,30 +6924,30 @@
         <v>47</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="41" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C7" s="33">
         <v>4</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>101</v>
+        <v>335</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="31"/>
@@ -6956,41 +6955,49 @@
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="34">
-        <v>100</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="23" t="s">
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="12">
+        <v>14</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F9" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="32">
+        <v>2</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="38" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C11" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>52</v>
@@ -6999,16 +7006,16 @@
         <v>47</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="42" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C12" s="34">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>52</v>
@@ -7017,12 +7024,12 @@
         <v>47</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="31"/>
@@ -7030,169 +7037,161 @@
       <c r="E13" s="29"/>
       <c r="F13" s="30"/>
     </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="38" t="s">
+    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="34">
+        <v>100</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="34">
+        <v>85</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="12">
+        <v>85</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="34">
+        <v>10</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="12">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="12">
         <v>85</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D21" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E21" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="42" t="s">
+      <c r="F21" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="34">
+        <v>20</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="34">
-        <v>20</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="12">
-        <v>95</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="C18" s="34">
-        <v>70</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="34">
-        <v>50</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="12">
-        <v>14</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="32">
-        <v>2</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="38" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C24" s="12">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="D24" s="35" t="s">
         <v>52</v>
@@ -7201,30 +7200,30 @@
         <v>47</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="42" t="s">
-        <v>128</v>
+        <v>322</v>
       </c>
       <c r="C25" s="34">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
-        <v>129</v>
+        <v>336</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="31"/>
@@ -7232,61 +7231,89 @@
       <c r="E26" s="29"/>
       <c r="F26" s="30"/>
     </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="38" t="s">
+    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="34">
+        <v>50</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="12">
+        <v>4</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="34">
+        <v>0</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="C27" s="12">
-        <v>4</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="34">
-        <v>0</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{E2FA9153-BF97-F44D-8444-660C47A52190}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C12" xr:uid="{E2FA9153-BF97-F44D-8444-660C47A52190}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27" xr:uid="{79437B14-BBCB-41C8-B199-9D1512AD30EC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29" xr:uid="{79437B14-BBCB-41C8-B199-9D1512AD30EC}">
       <formula1>1</formula1>
       <formula2>52</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C14:C15 C20 C24:C25 C28 C17:C18 C11:C12 C9" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C21:C22 C27 C11:C12 C30 C24:C25 C18:C19 C14 C16" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22" xr:uid="{F1FF1A14-FBFD-4ABB-A983-0610B931ADEC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{F1FF1A14-FBFD-4ABB-A983-0610B931ADEC}">
       <formula1>1</formula1>
       <formula2>21</formula2>
     </dataValidation>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21E05CC-25B3-6941-9C65-474E14F06F53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C072E98-A851-0E4B-BC8D-3E7276C53CB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="648" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$29</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -637,7 +637,40 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{2A3F5E2F-D961-4C00-8CF7-801F8593082C}">
+    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{B4AB7C2D-B141-D140-A03F-72A8E66AFC89}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 to 5 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{DC6047C5-CC94-4D39-B8F5-D8E1BC59DC13}">
       <text>
         <r>
           <rPr>
@@ -666,11 +699,209 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1 - 10</t>
+          <t>0 - 100%</t>
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{B4AB7C2D-B141-D140-A03F-72A8E66AFC89}">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{DA868374-A6F9-41A4-8E01-641686A7BCD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{33ECC315-8C1C-412A-93E2-AC949FE3FD96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{C52EBBE4-D1FF-4590-95C6-438370A19E03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{59D86E4D-23E3-4A93-9A15-CFE70D521E51}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{05F414A2-8255-46E3-9C62-928679F11C53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{728217A9-5FAF-4A64-8758-A31064D2AA76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 - 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="1" shapeId="0" xr:uid="{46D2EC60-D9BF-5B4B-8A58-5ABB2239D72B}">
       <text>
         <r>
           <rPr>
@@ -699,11 +930,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1 to 5 days</t>
+          <t>0 to 100 y.o.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{DC6047C5-CC94-4D39-B8F5-D8E1BC59DC13}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{BCC3B568-B0F7-4053-884F-6FAF392D69F9}">
       <text>
         <r>
           <rPr>
@@ -736,21 +967,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{DA868374-A6F9-41A4-8E01-641686A7BCD8}">
+    <comment ref="C28" authorId="1" shapeId="0" xr:uid="{7ABCA5E8-93BC-7C4B-A47B-29E3D179384F}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Olivier Celhay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -760,281 +991,17 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 to 52 weeks
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{33ECC315-8C1C-412A-93E2-AC949FE3FD96}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{C52EBBE4-D1FF-4590-95C6-438370A19E03}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{59D86E4D-23E3-4A93-9A15-CFE70D521E51}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{05F414A2-8255-46E3-9C62-928679F11C53}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{728217A9-5FAF-4A64-8758-A31064D2AA76}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C25" authorId="1" shapeId="0" xr:uid="{46D2EC60-D9BF-5B4B-8A58-5ABB2239D72B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 to 100 y.o.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{BCC3B568-B0F7-4053-884F-6FAF392D69F9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C29" authorId="1" shapeId="0" xr:uid="{7ABCA5E8-93BC-7C4B-A47B-29E3D179384F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 to 52 weeks
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{936A1F9D-AF0C-4AEA-9081-4A1A7E608056}">
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{936A1F9D-AF0C-4AEA-9081-4A1A7E608056}">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1039,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="343">
   <si>
     <t>0-5 y.o.</t>
   </si>
@@ -1485,13 +1452,7 @@
     <t>Deaths per person per day</t>
   </si>
   <si>
-    <t>contacts</t>
-  </si>
-  <si>
     <t>screen_overdispersion</t>
-  </si>
-  <si>
-    <t>screen_contacts</t>
   </si>
   <si>
     <t>Days to implement maximum quarantine coverage:</t>
@@ -2110,9 +2071,6 @@
     <t>Overdispersion:</t>
   </si>
   <si>
-    <t>Contacts:</t>
-  </si>
-  <si>
     <t>Maximum number of hospital surge beds</t>
   </si>
   <si>
@@ -2199,6 +2157,9 @@
   </si>
   <si>
     <t>hand_eff</t>
+  </si>
+  <si>
+    <t>Efficacy: (0-25%)</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2453,7 +2414,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2468,9 +2428,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2492,9 +2449,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2835,7 +2789,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2886,19 +2840,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2915,7 +2869,7 @@
         <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2932,7 +2886,7 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2949,7 +2903,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2966,12 +2920,12 @@
         <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="7">
         <v>43876</v>
@@ -2983,12 +2937,12 @@
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B7" s="7">
         <v>43876</v>
@@ -3000,12 +2954,12 @@
         <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B8" s="7">
         <v>43876</v>
@@ -3017,7 +2971,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3034,7 +2988,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3051,7 +3005,7 @@
         <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3068,7 +3022,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3085,12 +3039,12 @@
         <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B13" s="7">
         <v>43876</v>
@@ -3102,12 +3056,12 @@
         <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B14" s="7">
         <v>43876</v>
@@ -3119,12 +3073,12 @@
         <v>90</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B15" s="7">
         <v>43876</v>
@@ -3136,12 +3090,12 @@
         <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B16" s="7">
         <v>43876</v>
@@ -3153,7 +3107,7 @@
         <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3443,13 +3397,13 @@
         <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3457,13 +3411,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3471,26 +3425,26 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>101</v>
@@ -3498,7 +3452,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>102</v>
@@ -3506,7 +3460,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>103</v>
@@ -3514,7 +3468,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>104</v>
@@ -3522,23 +3476,23 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>127</v>
@@ -3546,712 +3500,712 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C121" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C122" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C123" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C124" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C125" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C126" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C127" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C128" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C147" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C149" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4278,7 +4232,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>133</v>
@@ -5419,13 +5373,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5693,7 +5647,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>134</v>
@@ -6056,35 +6010,35 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="7">
         <v>43862</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="7">
         <v>44196</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1">
         <v>4.9000000000000002E-2</v>
@@ -6093,12 +6047,12 @@
         <v>47</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C5" s="1">
         <v>2.5</v>
@@ -6110,12 +6064,12 @@
         <v>47</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -6127,12 +6081,12 @@
         <v>47</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
@@ -6144,7 +6098,7 @@
         <v>47</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6201,7 +6155,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>45</v>
@@ -6218,18 +6172,18 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6332,7 +6286,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="40" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="12">
@@ -6349,7 +6303,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="40" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="12">
@@ -6366,7 +6320,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="12">
@@ -6383,7 +6337,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="12">
@@ -6398,7 +6352,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="12">
@@ -6415,7 +6369,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="40" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="12">
@@ -6432,7 +6386,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="40" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="12">
@@ -6449,7 +6403,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="40" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="12">
@@ -6466,7 +6420,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="40" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="12">
@@ -6554,9 +6508,9 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="44">
+        <v>328</v>
+      </c>
+      <c r="B2" s="41">
         <v>160000</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -6571,9 +6525,9 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B3" s="44">
+        <v>329</v>
+      </c>
+      <c r="B3" s="41">
         <v>8000</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -6588,9 +6542,9 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B4" s="44">
+        <v>330</v>
+      </c>
+      <c r="B4" s="41">
         <v>8000</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -6605,7 +6559,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
@@ -6621,8 +6575,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
-        <v>160</v>
+      <c r="A6" s="42" t="s">
+        <v>158</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -6631,7 +6585,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6738,7 +6692,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -6755,7 +6709,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -6772,7 +6726,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -6818,10 +6772,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6856,24 +6810,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="A2" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>110</v>
       </c>
       <c r="C3" s="12">
         <v>50</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -6884,436 +6838,414 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="C5" s="32">
+      <c r="B5" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="31">
         <v>4</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
-      <c r="B6" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="C6" s="32">
+      <c r="B6" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="31">
         <v>80</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="41" t="s">
-        <v>330</v>
-      </c>
-      <c r="C7" s="33">
-        <v>4</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="12">
+        <v>14</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
+      <c r="F8" s="20" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="12">
-        <v>14</v>
-      </c>
-      <c r="D9" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="31">
+        <v>2</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
-      <c r="B10" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="32">
-        <v>2</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>53</v>
+      <c r="B10" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="12">
+        <v>20</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="12">
-        <v>20</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="32">
+        <v>100</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="34">
+      <c r="F11" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="32">
         <v>100</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D13" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="34">
-        <v>100</v>
-      </c>
-      <c r="D14" s="37" t="s">
+      <c r="F13" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="32">
+        <v>5</v>
+      </c>
+      <c r="D15" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="38" t="s">
+      <c r="F15" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C17" s="12">
         <v>85</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D17" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E17" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="12">
-        <v>85</v>
+      <c r="F17" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="32">
+        <v>10</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="34">
-        <v>10</v>
-      </c>
-      <c r="D19" s="37" t="s">
+      <c r="F18" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="12">
+        <v>85</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="12">
-        <v>85</v>
+      <c r="F20" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="32">
+        <v>20</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="34">
-        <v>20</v>
-      </c>
-      <c r="D22" s="37" t="s">
+      <c r="F21" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="12">
+        <v>95</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E23" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="38" t="s">
+      <c r="F23" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="C24" s="32">
+        <v>70</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="12">
-        <v>95</v>
-      </c>
-      <c r="D24" s="35" t="s">
+      <c r="C26" s="32">
+        <v>50</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E26" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="C25" s="34">
-        <v>70</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="23" t="s">
+      <c r="F26" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="12">
+        <v>4</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="42" t="s">
+      <c r="F28" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="34">
-        <v>50</v>
-      </c>
-      <c r="D27" s="37" t="s">
+      <c r="C29" s="32">
+        <v>0</v>
+      </c>
+      <c r="D29" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E29" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="12">
-        <v>4</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="34">
-        <v>0</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="24" t="s">
+      <c r="F29" s="23" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C12" xr:uid="{E2FA9153-BF97-F44D-8444-660C47A52190}">
-      <formula1>1</formula1>
-      <formula2>10</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
+  <dataValidations count="8">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29" xr:uid="{79437B14-BBCB-41C8-B199-9D1512AD30EC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28" xr:uid="{79437B14-BBCB-41C8-B199-9D1512AD30EC}">
       <formula1>1</formula1>
       <formula2>52</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C21:C22 C27 C11:C12 C30 C24:C25 C18:C19 C14 C16" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C20:C21 C26 C10:C11 C29 C23:C24 C17:C18 C13" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{F1FF1A14-FBFD-4ABB-A983-0610B931ADEC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{F1FF1A14-FBFD-4ABB-A983-0610B931ADEC}">
       <formula1>1</formula1>
       <formula2>21</formula2>
     </dataValidation>
@@ -7325,6 +7257,14 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{1FE2A73D-4B9A-994E-9090-48F33D0F77E3}">
+      <formula1>0</formula1>
+      <formula2>25</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C11" xr:uid="{E2FA9153-BF97-F44D-8444-660C47A52190}">
+      <formula1>1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C072E98-A851-0E4B-BC8D-3E7276C53CB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F051D9B-169D-DF48-AE98-BE0DDB510074}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="648" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="5060" yWindow="460" windowWidth="22760" windowHeight="17540" tabRatio="648" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -2824,8 +2824,8 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6774,7 +6774,7 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F051D9B-169D-DF48-AE98-BE0DDB510074}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCCB3DB-C493-C747-BE95-5ECE657D7EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="460" windowWidth="22760" windowHeight="17540" tabRatio="648" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27100" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -37,1007 +37,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Olivier Celhay</author>
-  </authors>
-  <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{0CC5576C-A1A7-7841-B0C3-592EE60CFC15}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 to 0.2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{2764A438-DFDE-924B-A542-066F81FC1E24}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 to 100</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{8AD2806A-0360-764B-88F6-A679E1DACDA3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 to 100</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{E23ECAEF-C282-A74D-A2C9-55CAD5E28C7F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 to 100</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-    <author>Olivier Celhay</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{2EE5D9F9-70D2-4739-AFAE-0614035B39C6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{75449A71-E16D-874C-A4E3-E802E681943C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 7 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{000E9CFB-1FDB-EE47-B9BF-8F8DB282F20A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 7 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{B9D281D5-26D2-4EA9-8894-5FF5A286FE33}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 - 12 (Jan - Dec)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{F5DB51BD-EBA9-4F27-8D31-176034A1BBB8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{2040E543-4D10-1848-9CA9-2D20FF237DBA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0.5 to 150 years</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-    <author>Olivier Celhay</author>
-  </authors>
-  <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{19EEFD16-A4C8-43F7-B777-1E668FAB69A6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{CAFDEB5A-367C-214E-9860-6419D337CBE9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1, 2, 3 or 4.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{3FD13DF3-4955-2247-AAA2-68EC3599CA31}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 30 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{6AF90CD2-69CC-AA4B-A769-14DADD96C490}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 30 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{5813D783-EA21-DD45-B6C5-56D42BCEDA80}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 30 days</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-    <author>Olivier Celhay</author>
-  </authors>
-  <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{12B29199-C105-4946-88E3-48F95AE7F550}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{218D6E6A-9184-47B3-AFCD-A4600686EA47}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 - 5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{B4AB7C2D-B141-D140-A03F-72A8E66AFC89}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 to 5 days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{DC6047C5-CC94-4D39-B8F5-D8E1BC59DC13}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{DA868374-A6F9-41A4-8E01-641686A7BCD8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{33ECC315-8C1C-412A-93E2-AC949FE3FD96}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{C52EBBE4-D1FF-4590-95C6-438370A19E03}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{59D86E4D-23E3-4A93-9A15-CFE70D521E51}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{05F414A2-8255-46E3-9C62-928679F11C53}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{728217A9-5FAF-4A64-8758-A31064D2AA76}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="1" shapeId="0" xr:uid="{46D2EC60-D9BF-5B4B-8A58-5ABB2239D72B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 to 100 y.o.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{BCC3B568-B0F7-4053-884F-6FAF392D69F9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C28" authorId="1" shapeId="0" xr:uid="{7ABCA5E8-93BC-7C4B-A47B-29E3D179384F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Olivier Celhay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 to 52 weeks
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{936A1F9D-AF0C-4AEA-9081-4A1A7E608056}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0 - 100%</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="343">
   <si>
@@ -1206,9 +205,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Average incubation period:</t>
-  </si>
-  <si>
     <t>Relative infectiousness of incubation phase:</t>
   </si>
   <si>
@@ -1221,15 +217,9 @@
     <t>Mean Household size:</t>
   </si>
   <si>
-    <t>Average duration of symptomatic infection period:</t>
-  </si>
-  <si>
     <t>nui</t>
   </si>
   <si>
-    <t>Month of peak infectivity of the virus:</t>
-  </si>
-  <si>
     <t>slider_text</t>
   </si>
   <si>
@@ -1242,9 +232,6 @@
     <t>amp</t>
   </si>
   <si>
-    <t>Average duration of immunity:</t>
-  </si>
-  <si>
     <t>omega</t>
   </si>
   <si>
@@ -1425,9 +412,6 @@
     <t>Vaccination</t>
   </si>
   <si>
-    <t>Time to reach target coverage:</t>
-  </si>
-  <si>
     <t>vac_campaign</t>
   </si>
   <si>
@@ -1455,21 +439,9 @@
     <t>screen_overdispersion</t>
   </si>
   <si>
-    <t>Days to implement maximum quarantine coverage:</t>
-  </si>
-  <si>
     <t>quarantine_effort</t>
   </si>
   <si>
-    <t>Duration of hospitalised infection:</t>
-  </si>
-  <si>
-    <t>Duration of ICU infection:</t>
-  </si>
-  <si>
-    <t>Duration of ventilated infection:</t>
-  </si>
-  <si>
     <t>Age-based relative fatality rate in well-resourced scenario (%)</t>
   </si>
   <si>
@@ -1488,9 +460,6 @@
     <t>Date range of simulation / End:</t>
   </si>
   <si>
-    <t>Probability of infection given contact:</t>
-  </si>
-  <si>
     <t>date_range_simul</t>
   </si>
   <si>
@@ -1513,9 +482,6 @@
   </si>
   <si>
     <t>ihr_scaling</t>
-  </si>
-  <si>
-    <t>Scaling factor for infection hospitalisation rate: (NOT USED IN CURRENT VERSION)</t>
   </si>
   <si>
     <t>Social Contacts</t>
@@ -2047,9 +1013,6 @@
     <t>Shielding the Elderly</t>
   </si>
   <si>
-    <t>Minimum age for elderly shielding:</t>
-  </si>
-  <si>
     <t>Interventions</t>
   </si>
   <si>
@@ -2066,9 +1029,6 @@
   </si>
   <si>
     <t>Coverage (%)</t>
-  </si>
-  <si>
-    <t>Overdispersion:</t>
   </si>
   <si>
     <t>Maximum number of hospital surge beds</t>
@@ -2147,9 +1107,6 @@
     <t>Day</t>
   </si>
   <si>
-    <t>Template v13.01</t>
-  </si>
-  <si>
     <t>Test Sensitivity:</t>
   </si>
   <si>
@@ -2160,6 +1117,48 @@
   </si>
   <si>
     <t>Efficacy: (0-25%)</t>
+  </si>
+  <si>
+    <t>Template v13</t>
+  </si>
+  <si>
+    <t>Probability of infection given contact: (0 to 0.2)</t>
+  </si>
+  <si>
+    <t>Average incubation period: (1 to 7 days)</t>
+  </si>
+  <si>
+    <t>Average duration of symptomatic infection period: (1 to 7 days)</t>
+  </si>
+  <si>
+    <t>Month of peak infectivity of the virus: (1, 2, …, 12)</t>
+  </si>
+  <si>
+    <t>Average duration of immunity: (0.5 to 150)</t>
+  </si>
+  <si>
+    <t>Scaling factor for infection hospitalisation rate: (NOT USED IN CURRENT VERSION) (1, 2, 3 or 4)</t>
+  </si>
+  <si>
+    <t>Duration of hospitalised infection: (1 to 30)</t>
+  </si>
+  <si>
+    <t>Duration of ICU infection: (1 to 30)</t>
+  </si>
+  <si>
+    <t>Duration of ventilated infection: (1 to 30)</t>
+  </si>
+  <si>
+    <t>Overdispersion: (1, 2, 3, 4 or 5)</t>
+  </si>
+  <si>
+    <t>Days to implement maximum quarantine coverage: (1 to 5)</t>
+  </si>
+  <si>
+    <t>Minimum age for elderly shielding: (0 to 100)</t>
+  </si>
+  <si>
+    <t>Time to reach target coverage: (1 to 52)</t>
   </si>
 </sst>
 </file>
@@ -2170,7 +1169,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2207,19 +1206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -2228,30 +1214,11 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2387,7 +1354,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2458,7 +1425,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2778,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2789,27 +1756,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2824,8 +1791,8 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2840,24 +1807,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" s="7">
         <v>43876</v>
@@ -2869,12 +1836,12 @@
         <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7">
         <v>43937</v>
@@ -2886,12 +1853,12 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4" s="7">
         <v>43866</v>
@@ -2903,12 +1870,12 @@
         <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B5" s="7">
         <v>43891</v>
@@ -2920,12 +1887,12 @@
         <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B6" s="7">
         <v>43876</v>
@@ -2937,12 +1904,12 @@
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B7" s="7">
         <v>43876</v>
@@ -2954,12 +1921,12 @@
         <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B8" s="7">
         <v>43876</v>
@@ -2971,12 +1938,12 @@
         <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B9" s="7">
         <v>43876</v>
@@ -2988,12 +1955,12 @@
         <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B10" s="7">
         <v>43937</v>
@@ -3005,12 +1972,12 @@
         <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" s="7">
         <v>43866</v>
@@ -3022,12 +1989,12 @@
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" s="7">
         <v>43891</v>
@@ -3039,12 +2006,12 @@
         <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B13" s="7">
         <v>43876</v>
@@ -3056,12 +2023,12 @@
         <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B14" s="7">
         <v>43876</v>
@@ -3073,12 +2040,12 @@
         <v>90</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B15" s="7">
         <v>43876</v>
@@ -3090,12 +2057,12 @@
         <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B16" s="7">
         <v>43876</v>
@@ -3107,7 +2074,7 @@
         <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3394,16 +2361,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3411,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3425,787 +2392,787 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="2" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="2" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" s="2" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C121" s="2" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C122" s="2" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C123" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C124" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C125" s="2" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C126" s="2" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C127" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C128" s="2" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" s="2" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" s="2" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" s="2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C147" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" s="2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C149" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4232,13 +3199,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5361,7 +4328,9 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C22" sqref="B2:C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5373,13 +4342,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5647,16 +4616,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5967,14 +4936,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEBEAC8-C0D6-3149-B965-10185C366694}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEBEAC8-C0D6-3149-B965-10185C366694}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5993,7 +4962,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>45</v>
@@ -6010,35 +4979,35 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B2" s="7">
         <v>43862</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B3" s="7">
         <v>44196</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>149</v>
+        <v>330</v>
       </c>
       <c r="C4" s="1">
         <v>4.9000000000000002E-2</v>
@@ -6047,12 +5016,12 @@
         <v>47</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C5" s="1">
         <v>2.5</v>
@@ -6064,12 +5033,12 @@
         <v>47</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -6081,12 +5050,12 @@
         <v>47</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
@@ -6098,7 +5067,7 @@
         <v>47</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -6124,7 +5093,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6155,7 +5123,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>45</v>
@@ -6172,29 +5140,29 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="14" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
         <v>2.8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>47</v>
@@ -6205,13 +5173,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>44</v>
@@ -6247,14 +5215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C67C35-2310-B341-9292-D007A3DFBE5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C67C35-2310-B341-9292-D007A3DFBE5D}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6287,7 +5255,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="12">
         <v>10</v>
@@ -6304,7 +5272,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>55</v>
+        <v>331</v>
       </c>
       <c r="B3" s="12">
         <v>3.5</v>
@@ -6321,7 +5289,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>60</v>
+        <v>332</v>
       </c>
       <c r="B4" s="12">
         <v>4.5</v>
@@ -6333,27 +5301,27 @@
         <v>47</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>62</v>
+        <v>333</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -6365,29 +5333,29 @@
         <v>47</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c r="B7" s="12">
         <v>150</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B8" s="12">
         <v>55</v>
@@ -6399,12 +5367,12 @@
         <v>47</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B9" s="12">
         <v>50</v>
@@ -6416,12 +5384,12 @@
         <v>47</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B10" s="12">
         <v>75</v>
@@ -6433,7 +5401,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6464,19 +5432,18 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A51F038-D814-D045-99D6-939E07D55DA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A51F038-D814-D045-99D6-939E07D55DA9}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6508,13 +5475,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B2" s="41">
         <v>160000</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>44</v>
@@ -6525,41 +5492,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B3" s="41">
         <v>8000</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B4" s="41">
         <v>8000</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
@@ -6571,12 +5538,12 @@
         <v>47</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>158</v>
+        <v>335</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -6585,12 +5552,12 @@
         <v>47</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1">
         <v>35</v>
@@ -6602,12 +5569,12 @@
         <v>47</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1">
         <v>45</v>
@@ -6619,12 +5586,12 @@
         <v>47</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1">
         <v>55</v>
@@ -6636,12 +5603,12 @@
         <v>47</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1">
         <v>80</v>
@@ -6653,12 +5620,12 @@
         <v>47</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1">
         <v>80</v>
@@ -6670,12 +5637,12 @@
         <v>47</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1">
         <v>95</v>
@@ -6687,12 +5654,12 @@
         <v>47</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -6704,12 +5671,12 @@
         <v>47</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>141</v>
+        <v>337</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -6721,12 +5688,12 @@
         <v>47</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>142</v>
+        <v>338</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -6738,7 +5705,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6763,25 +5730,24 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173C6647-D12A-2647-B02F-0C6C0D519608}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173C6647-D12A-2647-B02F-0C6C0D519608}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="8"/>
@@ -6791,10 +5757,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>45</v>
@@ -6811,7 +5777,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="27"/>
@@ -6822,7 +5788,7 @@
     <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C3" s="12">
         <v>50</v>
@@ -6834,12 +5800,12 @@
         <v>47</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="30"/>
@@ -6850,7 +5816,7 @@
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="38" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C5" s="31">
         <v>4</v>
@@ -6860,13 +5826,13 @@
         <v>47</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="38" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C6" s="31">
         <v>80</v>
@@ -6878,12 +5844,12 @@
         <v>47</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="30"/>
@@ -6894,7 +5860,7 @@
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C8" s="12">
         <v>14</v>
@@ -6906,13 +5872,13 @@
         <v>47</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="38" t="s">
-        <v>138</v>
+        <v>340</v>
       </c>
       <c r="C9" s="31">
         <v>2</v>
@@ -6924,13 +5890,13 @@
         <v>47</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C10" s="12">
         <v>20</v>
@@ -6942,13 +5908,13 @@
         <v>47</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C11" s="32">
         <v>100</v>
@@ -6960,12 +5926,12 @@
         <v>47</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="30"/>
@@ -6976,7 +5942,7 @@
     <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C13" s="32">
         <v>100</v>
@@ -6988,12 +5954,12 @@
         <v>47</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="30"/>
@@ -7004,7 +5970,7 @@
     <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="36" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C15" s="32">
         <v>5</v>
@@ -7016,12 +5982,12 @@
         <v>47</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="30"/>
@@ -7032,7 +5998,7 @@
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C17" s="12">
         <v>85</v>
@@ -7044,13 +6010,13 @@
         <v>47</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C18" s="32">
         <v>10</v>
@@ -7062,12 +6028,12 @@
         <v>47</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="30"/>
@@ -7078,7 +6044,7 @@
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C20" s="12">
         <v>85</v>
@@ -7090,13 +6056,13 @@
         <v>47</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C21" s="32">
         <v>20</v>
@@ -7108,12 +6074,12 @@
         <v>47</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="30"/>
@@ -7124,7 +6090,7 @@
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C23" s="12">
         <v>95</v>
@@ -7136,30 +6102,30 @@
         <v>47</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="39" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="C24" s="32">
         <v>70</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>47</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="30"/>
@@ -7170,7 +6136,7 @@
     <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C26" s="32">
         <v>50</v>
@@ -7182,12 +6148,12 @@
         <v>47</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="30"/>
@@ -7198,25 +6164,25 @@
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="36" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
       <c r="C28" s="12">
         <v>4</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C29" s="32">
         <v>0</v>
@@ -7228,7 +6194,7 @@
         <v>47</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -7267,6 +6233,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCCB3DB-C493-C747-BE95-5ECE657D7EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51ACBF2-0CDC-CA4A-B966-4BAF3F9CB28C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27100" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27100" windowHeight="17540" tabRatio="648" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="343">
   <si>
     <t>0-5 y.o.</t>
   </si>
@@ -1745,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1789,10 +1789,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1833,7 +1833,7 @@
         <v>43936</v>
       </c>
       <c r="D2" s="1">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>321</v>
@@ -1850,7 +1850,7 @@
         <v>44196</v>
       </c>
       <c r="D3" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>321</v>
@@ -1858,16 +1858,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B4" s="7">
-        <v>43866</v>
+        <v>43876</v>
       </c>
       <c r="C4" s="7">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="D4" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>321</v>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="B5" s="7">
-        <v>43891</v>
+        <v>43876</v>
       </c>
       <c r="C5" s="7">
-        <v>44012</v>
+        <v>43921</v>
       </c>
       <c r="D5" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>321</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>319</v>
       </c>
       <c r="B6" s="7">
         <v>43876</v>
@@ -1901,7 +1901,7 @@
         <v>43921</v>
       </c>
       <c r="D6" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>321</v>
@@ -1909,50 +1909,50 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>318</v>
+        <v>98</v>
       </c>
       <c r="B7" s="7">
         <v>43876</v>
       </c>
       <c r="C7" s="7">
-        <v>43921</v>
+        <v>43936</v>
       </c>
       <c r="D7" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>319</v>
+        <v>98</v>
       </c>
       <c r="B8" s="7">
-        <v>43876</v>
+        <v>43937</v>
       </c>
       <c r="C8" s="7">
-        <v>43921</v>
+        <v>44196</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="B9" s="7">
         <v>43876</v>
       </c>
       <c r="C9" s="7">
-        <v>43936</v>
+        <v>43921</v>
       </c>
       <c r="D9" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>322</v>
@@ -1960,16 +1960,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>98</v>
+        <v>318</v>
       </c>
       <c r="B10" s="7">
-        <v>43937</v>
+        <v>43876</v>
       </c>
       <c r="C10" s="7">
-        <v>44196</v>
+        <v>43921</v>
       </c>
       <c r="D10" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>322</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="B11" s="7">
-        <v>43866</v>
+        <v>43876</v>
       </c>
       <c r="C11" s="7">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="D11" s="1">
         <v>50</v>
@@ -1994,16 +1994,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>320</v>
       </c>
       <c r="B12" s="7">
-        <v>43891</v>
+        <v>43876</v>
       </c>
       <c r="C12" s="7">
-        <v>44012</v>
+        <v>44196</v>
       </c>
       <c r="D12" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>322</v>
@@ -2011,16 +2011,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B13" s="7">
-        <v>43876</v>
+        <v>43866</v>
       </c>
       <c r="C13" s="7">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="D13" s="1">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>322</v>
@@ -2028,54 +2028,34 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="B14" s="7">
-        <v>43876</v>
+        <v>43891</v>
       </c>
       <c r="C14" s="7">
-        <v>43921</v>
+        <v>44012</v>
       </c>
       <c r="D14" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B15" s="7">
-        <v>43876</v>
-      </c>
-      <c r="C15" s="7">
-        <v>43921</v>
-      </c>
-      <c r="D15" s="1">
-        <v>100</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>322</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B16" s="7">
-        <v>43876</v>
-      </c>
-      <c r="C16" s="7">
-        <v>44196</v>
-      </c>
-      <c r="D16" s="1">
-        <v>100</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>322</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
@@ -2287,37 +2267,9 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D50" xr:uid="{D6E5BF00-5D2D-744A-810E-E4B5BEB9445C}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D46 D2:D8" xr:uid="{D6E5BF00-5D2D-744A-810E-E4B5BEB9445C}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -2330,13 +2282,13 @@
           <x14:formula1>
             <xm:f>HIDDEN!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E50</xm:sqref>
+          <xm:sqref>E2:E8 E9:E46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47936E1B-CEB7-1140-B286-248EE55FD596}">
           <x14:formula1>
             <xm:f>HIDDEN!$E$2:$E$11</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A50</xm:sqref>
+          <xm:sqref>A2:A8 A9:A46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51ACBF2-0CDC-CA4A-B966-4BAF3F9CB28C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD1A15D-A0AA-D54C-BD47-A5B78BCF35CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27100" windowHeight="17540" tabRatio="648" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27100" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1119,9 +1119,6 @@
     <t>Efficacy: (0-25%)</t>
   </si>
   <si>
-    <t>Template v13</t>
-  </si>
-  <si>
     <t>Probability of infection given contact: (0 to 0.2)</t>
   </si>
   <si>
@@ -1159,6 +1156,9 @@
   </si>
   <si>
     <t>Time to reach target coverage: (1 to 52)</t>
+  </si>
+  <si>
+    <t>Template v13.1</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1756,7 +1756,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -1791,7 +1791,7 @@
   </sheetPr>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C4" s="1">
         <v>4.9000000000000002E-2</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" s="12">
         <v>3.5</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" s="12">
         <v>4.5</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B7" s="12">
         <v>150</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -5768,7 +5768,7 @@
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C5" s="31">
         <v>4</v>
@@ -5830,7 +5830,7 @@
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C9" s="31">
         <v>2</v>
@@ -6060,7 +6060,7 @@
     <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C24" s="32">
         <v>70</v>
@@ -6116,7 +6116,7 @@
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C28" s="12">
         <v>4</v>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD1A15D-A0AA-D54C-BD47-A5B78BCF35CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9123FB60-536A-B74C-86E8-C6D5DECDEC81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27100" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="-4160" yWindow="-19920" windowWidth="27100" windowHeight="17540" tabRatio="648" activeTab="9" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="342">
   <si>
     <t>0-5 y.o.</t>
   </si>
@@ -1028,9 +1028,6 @@
     <t>Date End</t>
   </si>
   <si>
-    <t>Coverage (%)</t>
-  </si>
-  <si>
     <t>Maximum number of hospital surge beds</t>
   </si>
   <si>
@@ -1158,7 +1155,7 @@
     <t>Time to reach target coverage: (1 to 52)</t>
   </si>
   <si>
-    <t>Template v13.1</t>
+    <t>Template v13.2</t>
   </si>
 </sst>
 </file>
@@ -1745,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1756,7 +1753,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -1789,10 +1786,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1801,11 +1798,12 @@
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="8.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>310</v>
       </c>
@@ -1816,13 +1814,16 @@
         <v>313</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -1835,11 +1836,15 @@
       <c r="D2" s="1">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="str">
+        <f>IF(A2 = "", "", IF(A2="Screening (when S.I.)", "contacts", "%"))</f>
+        <v>%</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -1852,11 +1857,15 @@
       <c r="D3" s="1">
         <v>60</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="2" t="str">
+        <f t="shared" ref="E3:E46" si="0">IF(A3 = "", "", IF(A3="Screening (when S.I.)", "contacts", "%"))</f>
+        <v>%</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>137</v>
       </c>
@@ -1869,13 +1878,17 @@
       <c r="D4" s="1">
         <v>60</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" s="7">
         <v>43876</v>
@@ -1886,13 +1899,17 @@
       <c r="D5" s="1">
         <v>60</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>contacts</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6" s="7">
         <v>43876</v>
@@ -1903,11 +1920,15 @@
       <c r="D6" s="1">
         <v>50</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
@@ -1920,11 +1941,15 @@
       <c r="D7" s="1">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
@@ -1937,11 +1962,15 @@
       <c r="D8" s="1">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>137</v>
       </c>
@@ -1954,13 +1983,17 @@
       <c r="D9" s="1">
         <v>60</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B10" s="7">
         <v>43876</v>
@@ -1971,13 +2004,17 @@
       <c r="D10" s="1">
         <v>60</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>contacts</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B11" s="7">
         <v>43876</v>
@@ -1988,13 +2025,17 @@
       <c r="D11" s="1">
         <v>50</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B12" s="7">
         <v>43876</v>
@@ -2005,11 +2046,15 @@
       <c r="D12" s="1">
         <v>100</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -2022,11 +2067,15 @@
       <c r="D13" s="1">
         <v>15</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
@@ -2039,237 +2088,369 @@
       <c r="D14" s="1">
         <v>30</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F46" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D46 D2:D8" xr:uid="{D6E5BF00-5D2D-744A-810E-E4B5BEB9445C}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D46" xr:uid="{D6E5BF00-5D2D-744A-810E-E4B5BEB9445C}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -2282,13 +2463,13 @@
           <x14:formula1>
             <xm:f>HIDDEN!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E8 E9:E46</xm:sqref>
+          <xm:sqref>F2:F46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47936E1B-CEB7-1140-B286-248EE55FD596}">
           <x14:formula1>
             <xm:f>HIDDEN!$E$2:$E$11</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A8 A9:A46</xm:sqref>
+          <xm:sqref>A2:A46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2336,7 +2517,7 @@
         <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2347,10 +2528,10 @@
         <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2358,7 +2539,7 @@
         <v>151</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2406,7 +2587,7 @@
         <v>157</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3151,7 +3332,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>128</v>
@@ -4294,7 +4475,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>134</v>
@@ -4568,7 +4749,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>129</v>
@@ -4959,7 +5140,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C4" s="1">
         <v>4.9000000000000002E-2</v>
@@ -5224,7 +5405,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B3" s="12">
         <v>3.5</v>
@@ -5241,7 +5422,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B4" s="12">
         <v>4.5</v>
@@ -5258,7 +5439,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -5290,7 +5471,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B7" s="12">
         <v>150</v>
@@ -5427,7 +5608,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="41">
         <v>160000</v>
@@ -5444,7 +5625,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" s="41">
         <v>8000</v>
@@ -5461,7 +5642,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" s="41">
         <v>8000</v>
@@ -5495,7 +5676,7 @@
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -5611,7 +5792,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -5628,7 +5809,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -5645,7 +5826,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -5692,8 +5873,8 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5757,7 +5938,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="30"/>
@@ -5768,7 +5949,7 @@
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" s="31">
         <v>4</v>
@@ -5784,7 +5965,7 @@
     <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C6" s="31">
         <v>80</v>
@@ -5796,12 +5977,12 @@
         <v>47</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="30"/>
@@ -5830,7 +6011,7 @@
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C9" s="31">
         <v>2</v>
@@ -5922,7 +6103,7 @@
     <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C15" s="32">
         <v>5</v>
@@ -5934,7 +6115,7 @@
         <v>47</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -6060,7 +6241,7 @@
     <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C24" s="32">
         <v>70</v>
@@ -6077,7 +6258,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="30"/>
@@ -6116,7 +6297,7 @@
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C28" s="12">
         <v>4</v>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D69544B-464D-A642-BDB3-44D4615A5C3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCEFD18-11C3-4840-ABE3-B7F991C0EB57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4160" yWindow="-19920" windowWidth="27100" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="-4160" yWindow="-19920" windowWidth="27100" windowHeight="17540" tabRatio="648" activeTab="7" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1131,9 +1131,6 @@
     <t>Average duration of immunity: (0.5 to 150)</t>
   </si>
   <si>
-    <t>Scaling factor for infection hospitalisation rate: (NOT USED IN CURRENT VERSION) (1, 2, 3 or 4)</t>
-  </si>
-  <si>
     <t>Duration of hospitalised infection: (1 to 30)</t>
   </si>
   <si>
@@ -1156,6 +1153,9 @@
   </si>
   <si>
     <t>Template v13.0</t>
+  </si>
+  <si>
+    <t>Scaling factor for infection hospitalisation rate: (1, 2, 3 or 4)</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1422,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1742,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1753,7 +1753,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5575,8 +5575,8 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5674,9 +5674,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -5792,7 +5792,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -5949,7 +5949,7 @@
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C5" s="31">
         <v>4</v>
@@ -6011,7 +6011,7 @@
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C9" s="31">
         <v>2</v>
@@ -6241,7 +6241,7 @@
     <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C24" s="32">
         <v>70</v>
@@ -6297,7 +6297,7 @@
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C28" s="12">
         <v>4</v>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCEFD18-11C3-4840-ABE3-B7F991C0EB57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC61940-EB66-1A42-8808-F99BBD526DB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4160" yWindow="-19920" windowWidth="27100" windowHeight="17540" tabRatio="648" activeTab="7" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="2980" yWindow="460" windowWidth="24120" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="345">
   <si>
     <t>0-5 y.o.</t>
   </si>
@@ -1152,10 +1152,62 @@
     <t>Time to reach target coverage: (1 to 52)</t>
   </si>
   <si>
-    <t>Template v13.0</t>
-  </si>
-  <si>
-    <t>Scaling factor for infection hospitalisation rate: (1, 2, 3 or 4)</t>
+    <t>Template v13.0 B</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Scaling factor for infection hospitalisation rate: (0.1 to 5)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scaling factor for infection hospitalisation rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> accepted range of values is now 0.1 to 5.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default value for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handwashing efficacy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set to 20%.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1166,7 +1218,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1211,6 +1263,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1343,7 +1403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1422,9 +1482,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1740,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1774,6 +1831,21 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5575,8 +5647,8 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5674,9 +5746,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
-        <v>341</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>342</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -5853,9 +5925,9 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{B4ABC229-799B-514E-B7F5-8FD96E5E9CBE}">
-      <formula1>1</formula1>
-      <formula2>4</formula2>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{B4ABC229-799B-514E-B7F5-8FD96E5E9CBE}">
+      <formula1>0.1</formula1>
+      <formula2>5</formula2>
     </dataValidation>
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{6C0631D2-5E94-0E44-AEDA-62F22487E25D}">
       <formula1>1</formula1>
@@ -5873,8 +5945,8 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6106,7 +6178,7 @@
         <v>327</v>
       </c>
       <c r="C15" s="32">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>52</v>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC61940-EB66-1A42-8808-F99BBD526DB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0CF978-3908-D44E-A837-673B20618BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="460" windowWidth="24120" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="2640" yWindow="460" windowWidth="25280" windowHeight="17540" tabRatio="648" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="363">
   <si>
     <t>0-5 y.o.</t>
   </si>
@@ -1152,62 +1152,73 @@
     <t>Time to reach target coverage: (1 to 52)</t>
   </si>
   <si>
-    <t>Template v13.0 B</t>
-  </si>
-  <si>
-    <t>Changes</t>
-  </si>
-  <si>
     <t>Scaling factor for infection hospitalisation rate: (0.1 to 5)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scaling factor for infection hospitalisation rate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> accepted range of values is now 0.1 to 5.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Default value for </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>handwashing efficacy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> set to 20%.</t>
-    </r>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>iterations</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>Template v14</t>
+  </si>
+  <si>
+    <t>Minimum Age for vaccination</t>
+  </si>
+  <si>
+    <t>age_vaccine_min</t>
+  </si>
+  <si>
+    <t>Mass Testing</t>
+  </si>
+  <si>
+    <t>mass_test_sens</t>
+  </si>
+  <si>
+    <t>isolation_days</t>
+  </si>
+  <si>
+    <t>age_testing_min</t>
+  </si>
+  <si>
+    <t>age_testing_max</t>
+  </si>
+  <si>
+    <t>New in v14:</t>
+  </si>
+  <si>
+    <t>Isolation days</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Minimum age for mass testing (0 to 100)</t>
+  </si>
+  <si>
+    <t>Maximum age for mass testing (0 to 100)</t>
+  </si>
+  <si>
+    <t>Interventions sheet: added "Mass Testing" to the dropdown list of interventions.</t>
+  </si>
+  <si>
+    <t>Interventions Param sheet: Minimum Age for vaccination, 4 parameters for Mass Testing.</t>
+  </si>
+  <si>
+    <t>Parameters sheet: Iterations, Noise, Confidence.</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1229,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1270,15 +1281,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD0CECE"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1309,8 +1326,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1398,12 +1427,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1482,6 +1591,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1797,9 +1924,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1810,7 +1937,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -1835,17 +1962,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -1861,7 +1993,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1897,7 +2029,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="B2" s="7">
         <v>43876</v>
@@ -1909,7 +2041,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f>IF(A2 = "", "", IF(A2="Screening (when S.I.)", "contacts", "%"))</f>
+        <f>IF(A2 = "", "", IF(A2="Screening (when S.I.)", "contacts", IF(A2 = "Mass Testing", "tests", "%")))</f>
         <v>%</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1930,7 +2062,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E46" si="0">IF(A3 = "", "", IF(A3="Screening (when S.I.)", "contacts", "%"))</f>
+        <f t="shared" ref="E3:E46" si="0">IF(A3 = "", "", IF(A3="Screening (when S.I.)", "contacts", IF(A3 = "Mass Testing", "tests", "%")))</f>
         <v>%</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2173,10 +2305,6 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2521,7 +2649,7 @@
       <c r="F46" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D46" xr:uid="{D6E5BF00-5D2D-744A-810E-E4B5BEB9445C}">
       <formula1>0</formula1>
       <formula2>100</formula2>
@@ -2530,7 +2658,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{440D4135-AD3D-9D45-A472-9BA444A2B9DA}">
           <x14:formula1>
             <xm:f>HIDDEN!$G$2:$G$3</xm:f>
@@ -2539,7 +2667,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47936E1B-CEB7-1140-B286-248EE55FD596}">
           <x14:formula1>
-            <xm:f>HIDDEN!$E$2:$E$11</xm:f>
+            <xm:f>HIDDEN!$E$2:$E$12</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A46</xm:sqref>
         </x14:dataValidation>
@@ -2554,7 +2682,7 @@
   <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2673,6 +2801,9 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>159</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5145,10 +5276,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5258,7 +5389,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>305</v>
       </c>
@@ -5273,6 +5404,56 @@
       </c>
       <c r="F7" s="14" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44">
+        <v>10</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54">
+        <v>5</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5748,7 +5929,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -5943,10 +6124,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6384,26 +6565,126 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="39" t="s">
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="C29" s="12">
+        <v>60</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="32">
-        <v>0</v>
-      </c>
-      <c r="D29" s="35" t="s">
+      <c r="C30" s="32">
+        <v>0</v>
+      </c>
+      <c r="D30" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E30" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F30" s="23" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C32" s="12">
+        <v>80</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="12">
+        <v>14</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="C34" s="57">
+        <v>20</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="C35" s="32">
+        <v>60</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
       <formula1>1</formula1>
       <formula2>5</formula2>
@@ -6412,7 +6693,7 @@
       <formula1>1</formula1>
       <formula2>52</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C20:C21 C26 C10:C11 C29 C23:C24 C17:C18 C13" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C20:C21 C26 C10:C11 C30 C23:C24 C17:C18 C13 C32 C33 C34 C35" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -6436,6 +6717,10 @@
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29" xr:uid="{B3A77258-E555-9644-BB0D-41361904BE89}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0CF978-3908-D44E-A837-673B20618BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06181C87-512D-3349-A932-6F4D12859DE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="460" windowWidth="25280" windowHeight="17540" tabRatio="648" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="12380" yWindow="460" windowWidth="15540" windowHeight="17540" tabRatio="648" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1155,30 +1155,18 @@
     <t>Scaling factor for infection hospitalisation rate: (0.1 to 5)</t>
   </si>
   <si>
-    <t>Iterations</t>
-  </si>
-  <si>
     <t>iterations</t>
   </si>
   <si>
-    <t>Noise</t>
-  </si>
-  <si>
     <t>noise</t>
   </si>
   <si>
-    <t>Confidence</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
     <t>Template v14</t>
   </si>
   <si>
-    <t>Minimum Age for vaccination</t>
-  </si>
-  <si>
     <t>age_vaccine_min</t>
   </si>
   <si>
@@ -1219,6 +1207,18 @@
   </si>
   <si>
     <t>Parameters sheet: Iterations, Noise, Confidence.</t>
+  </si>
+  <si>
+    <t>Minimum age for vaccination</t>
+  </si>
+  <si>
+    <t>Iterations (1 to 100)</t>
+  </si>
+  <si>
+    <t>Noise (0.01 to 0.2)</t>
+  </si>
+  <si>
+    <t>Confidence (5 to 25)</t>
   </si>
 </sst>
 </file>
@@ -1937,7 +1937,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -1962,22 +1962,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2803,7 +2803,7 @@
         <v>159</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5278,8 +5278,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="44">
@@ -5419,12 +5419,12 @@
         <v>47</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="49">
@@ -5435,12 +5435,12 @@
         <v>47</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="54">
@@ -5453,11 +5453,11 @@
         <v>47</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="7">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{B93D921B-ACCD-B540-B62C-AE19092FA296}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
@@ -5476,6 +5476,14 @@
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{439241F6-0612-BB4B-B5E3-5B6C55F0B4B9}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{CB814818-B5CA-A746-A079-0D54DE38C760}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{86EA7129-76D5-C14C-A270-6059C886D569}">
+      <formula1>0.01</formula1>
+      <formula2>0.2</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6126,8 +6134,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6568,7 +6576,7 @@
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="36" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="C29" s="12">
         <v>60</v>
@@ -6580,7 +6588,7 @@
         <v>47</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6603,7 +6611,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B31" s="37"/>
       <c r="C31" s="30"/>
@@ -6614,7 +6622,7 @@
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="36" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C32" s="12">
         <v>80</v>
@@ -6626,13 +6634,13 @@
         <v>47</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="36" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C33" s="12">
         <v>14</v>
@@ -6644,13 +6652,13 @@
         <v>47</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="36" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C34" s="57">
         <v>20</v>
@@ -6662,13 +6670,13 @@
         <v>47</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="39" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C35" s="32">
         <v>60</v>
@@ -6680,7 +6688,7 @@
         <v>47</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06181C87-512D-3349-A932-6F4D12859DE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9429BF8-7ABF-4A4C-A953-204B95B18344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="460" windowWidth="15540" windowHeight="17540" tabRatio="648" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="12380" yWindow="460" windowWidth="15540" windowHeight="17540" tabRatio="648" firstSheet="1" activeTab="5" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1164,9 +1164,6 @@
     <t>confidence</t>
   </si>
   <si>
-    <t>Template v14</t>
-  </si>
-  <si>
     <t>age_vaccine_min</t>
   </si>
   <si>
@@ -1185,9 +1182,6 @@
     <t>age_testing_max</t>
   </si>
   <si>
-    <t>New in v14:</t>
-  </si>
-  <si>
     <t>Isolation days</t>
   </si>
   <si>
@@ -1219,6 +1213,12 @@
   </si>
   <si>
     <t>Confidence (5 to 25)</t>
+  </si>
+  <si>
+    <t>Template v15</t>
+  </si>
+  <si>
+    <t>New in v15:</t>
   </si>
 </sst>
 </file>
@@ -1927,7 +1927,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1937,7 +1937,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -1962,22 +1962,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -1993,7 +1993,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="B14" s="7">
         <v>43891</v>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>%</v>
+        <v>tests</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>321</v>
@@ -2649,7 +2649,7 @@
       <c r="F46" s="1"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D46" xr:uid="{D6E5BF00-5D2D-744A-810E-E4B5BEB9445C}">
       <formula1>0</formula1>
       <formula2>100</formula2>
@@ -2658,7 +2658,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{440D4135-AD3D-9D45-A472-9BA444A2B9DA}">
           <x14:formula1>
             <xm:f>HIDDEN!$G$2:$G$3</xm:f>
@@ -2803,7 +2803,7 @@
         <v>159</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5278,8 +5278,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="44">
@@ -5424,7 +5424,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="49">
@@ -5440,7 +5440,7 @@
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="54">
@@ -5497,7 +5497,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -6576,7 +6576,7 @@
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="36" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C29" s="12">
         <v>60</v>
@@ -6588,7 +6588,7 @@
         <v>47</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6611,7 +6611,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B31" s="37"/>
       <c r="C31" s="30"/>
@@ -6622,7 +6622,7 @@
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="36" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C32" s="12">
         <v>80</v>
@@ -6634,13 +6634,13 @@
         <v>47</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C33" s="12">
         <v>14</v>
@@ -6652,13 +6652,13 @@
         <v>47</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="36" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C34" s="57">
         <v>20</v>
@@ -6670,13 +6670,13 @@
         <v>47</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="39" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C35" s="32">
         <v>60</v>
@@ -6688,7 +6688,7 @@
         <v>47</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9429BF8-7ABF-4A4C-A953-204B95B18344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243E6804-1170-3340-8298-EBFED8AE0B21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="460" windowWidth="15540" windowHeight="17540" tabRatio="648" firstSheet="1" activeTab="5" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="12380" yWindow="460" windowWidth="15540" windowHeight="17540" tabRatio="648" firstSheet="1" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -5278,8 +5278,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="44">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="45" t="s">
@@ -5497,7 +5497,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243E6804-1170-3340-8298-EBFED8AE0B21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAE4BAB-0E59-6947-87EC-0C489A7B9339}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="460" windowWidth="15540" windowHeight="17540" tabRatio="648" firstSheet="1" activeTab="4" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="3120" yWindow="460" windowWidth="24800" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="391">
   <si>
     <t>0-5 y.o.</t>
   </si>
@@ -293,18 +293,6 @@
   </si>
   <si>
     <t>beds</t>
-  </si>
-  <si>
-    <t>Probability of dying when hospitalised:</t>
-  </si>
-  <si>
-    <t>Probability of dying when denied hospitalisation:</t>
-  </si>
-  <si>
-    <t>Probability of dying when admitted to ICU:</t>
-  </si>
-  <si>
-    <t>Probability of dying when admission to ICU denied:</t>
   </si>
   <si>
     <t>Probability of dying when ventilated:</t>
@@ -1215,10 +1203,126 @@
     <t>Confidence (5 to 25)</t>
   </si>
   <si>
-    <t>Template v15</t>
-  </si>
-  <si>
     <t>New in v15:</t>
+  </si>
+  <si>
+    <t>Template v15.2</t>
+  </si>
+  <si>
+    <t>Proportion of hospitalised patients needing O2</t>
+  </si>
+  <si>
+    <t>propo2</t>
+  </si>
+  <si>
+    <t>Virus Param sheet: Proportion of hospitalised patients needing O2</t>
+  </si>
+  <si>
+    <t>Probability of dying when hospitalised (not req O2):</t>
+  </si>
+  <si>
+    <t>Probability of dying when hospitalised if req O2:</t>
+  </si>
+  <si>
+    <t>pdeath_ho</t>
+  </si>
+  <si>
+    <t>Probability of dying when denied hospitalisation (not req O2):</t>
+  </si>
+  <si>
+    <t>Probability of dying when denied hospitalisation if req O2:</t>
+  </si>
+  <si>
+    <t>pdeath_hco</t>
+  </si>
+  <si>
+    <t>Probability of dying when admitted to ICU (not req O2):</t>
+  </si>
+  <si>
+    <t>Probability of dying when admitted to ICU if req O2:</t>
+  </si>
+  <si>
+    <t>pdeath_icuo</t>
+  </si>
+  <si>
+    <t>Probability of dying when admission to ICU denied (not req O2):</t>
+  </si>
+  <si>
+    <t>Probability of dying when admission to ICU denied if req O2:</t>
+  </si>
+  <si>
+    <t>pdeath_icuco</t>
+  </si>
+  <si>
+    <t>Dexamethasone</t>
+  </si>
+  <si>
+    <t>Relative risk of dying if needing O2 and taking Dex</t>
+  </si>
+  <si>
+    <t>dexo2</t>
+  </si>
+  <si>
+    <t>Relative risk of dying if needing ventilation and taking Dex</t>
+  </si>
+  <si>
+    <t>dexv</t>
+  </si>
+  <si>
+    <t>Relative risk of dying if needing  but not receivingO2 and taking Dex</t>
+  </si>
+  <si>
+    <t>dexo2c</t>
+  </si>
+  <si>
+    <t>Relative risk of dying if needing but not receiving ventilation and taking Dex</t>
+  </si>
+  <si>
+    <t>dexvc</t>
+  </si>
+  <si>
+    <t>Change in ventilation requirement if given Dex</t>
+  </si>
+  <si>
+    <t>vent_dex</t>
+  </si>
+  <si>
+    <t>Mask Wearing</t>
+  </si>
+  <si>
+    <t>Efficacy: (0-35%)</t>
+  </si>
+  <si>
+    <t>mask_eff</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New in v15.2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>with changes compared to v15 in red in the sheets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Hospitalisation Param sheet: the four "Probability of dying ..." parameters are duplicated with (1) req O2 and (2) not req O2</t>
+  </si>
+  <si>
+    <t>Interventions Param:  several parameters for two new interventions: Mask Wearing and Dexamethasone.</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1333,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1294,6 +1398,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1339,7 +1448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1427,92 +1536,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1591,23 +1620,64 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1924,60 +1994,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="76.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21">
+      <c r="A2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>354</v>
+    <row r="10" spans="1:1" ht="34">
+      <c r="A10" s="49" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="34">
+      <c r="A11" s="49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -1993,10 +2081,10 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
@@ -2007,15 +2095,15 @@
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>45</v>
@@ -2024,12 +2112,12 @@
         <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B2" s="7">
         <v>43876</v>
@@ -2045,12 +2133,12 @@
         <v>%</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B3" s="7">
         <v>43937</v>
@@ -2066,12 +2154,12 @@
         <v>%</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B4" s="7">
         <v>43876</v>
@@ -2087,12 +2175,12 @@
         <v>%</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B5" s="7">
         <v>43876</v>
@@ -2108,12 +2196,12 @@
         <v>contacts</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B6" s="7">
         <v>43876</v>
@@ -2129,12 +2217,12 @@
         <v>%</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B7" s="7">
         <v>43876</v>
@@ -2150,12 +2238,12 @@
         <v>%</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B8" s="7">
         <v>43937</v>
@@ -2171,12 +2259,12 @@
         <v>%</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B9" s="7">
         <v>43876</v>
@@ -2192,12 +2280,12 @@
         <v>%</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B10" s="7">
         <v>43876</v>
@@ -2213,12 +2301,12 @@
         <v>contacts</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B11" s="7">
         <v>43876</v>
@@ -2234,12 +2322,12 @@
         <v>%</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B12" s="7">
         <v>43876</v>
@@ -2255,12 +2343,12 @@
         <v>%</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B13" s="7">
         <v>43866</v>
@@ -2276,12 +2364,12 @@
         <v>%</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B14" s="7">
         <v>43891</v>
@@ -2297,28 +2385,50 @@
         <v>tests</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B15" s="7">
+        <v>43891</v>
+      </c>
+      <c r="C15" s="7">
+        <v>44089</v>
+      </c>
+      <c r="D15" s="1">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" s="7">
+        <v>43910</v>
+      </c>
+      <c r="C16" s="7">
+        <v>44095</v>
+      </c>
+      <c r="D16" s="1">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2329,7 +2439,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2340,7 +2450,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2351,7 +2461,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2362,7 +2472,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2373,7 +2483,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2384,7 +2494,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2395,7 +2505,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2406,7 +2516,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2417,7 +2527,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2428,7 +2538,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2439,7 +2549,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2450,7 +2560,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2461,7 +2571,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2472,7 +2582,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2483,7 +2593,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2494,7 +2604,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2505,7 +2615,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2516,7 +2626,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2527,7 +2637,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="1"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2538,7 +2648,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2549,7 +2659,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="1"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2560,7 +2670,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2571,7 +2681,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2582,7 +2692,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2593,7 +2703,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2604,7 +2714,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2615,7 +2725,7 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2626,7 +2736,7 @@
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2637,7 +2747,7 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2658,7 +2768,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{440D4135-AD3D-9D45-A472-9BA444A2B9DA}">
           <x14:formula1>
             <xm:f>HIDDEN!$G$2:$G$3</xm:f>
@@ -2669,7 +2779,13 @@
           <x14:formula1>
             <xm:f>HIDDEN!$E$2:$E$12</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A46</xm:sqref>
+          <xm:sqref>A2:A14 A16:A46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8111968A-8FE9-DE4F-AE93-5F28872C16C3}">
+          <x14:formula1>
+            <xm:f>HIDDEN!$E$2:$E$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2682,833 +2798,839 @@
   <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C8" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C9" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C10" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C14" s="2" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="2" t="s">
+    <row r="19" spans="3:3">
+      <c r="C19" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16" s="2" t="s">
+    <row r="20" spans="3:3">
+      <c r="C20" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="s">
+    <row r="21" spans="3:3">
+      <c r="C21" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="s">
+    <row r="22" spans="3:3">
+      <c r="C22" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
+    <row r="23" spans="3:3">
+      <c r="C23" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="2" t="s">
+    <row r="24" spans="3:3">
+      <c r="C24" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
+    <row r="25" spans="3:3">
+      <c r="C25" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="2" t="s">
+    <row r="26" spans="3:3">
+      <c r="C26" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="2" t="s">
+    <row r="27" spans="3:3">
+      <c r="C27" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="2" t="s">
+    <row r="28" spans="3:3">
+      <c r="C28" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="2" t="s">
+    <row r="29" spans="3:3">
+      <c r="C29" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="2" t="s">
+    <row r="30" spans="3:3">
+      <c r="C30" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="2" t="s">
+    <row r="31" spans="3:3">
+      <c r="C31" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="2" t="s">
+    <row r="32" spans="3:3">
+      <c r="C32" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="2" t="s">
+    <row r="33" spans="3:3">
+      <c r="C33" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="2" t="s">
+    <row r="34" spans="3:3">
+      <c r="C34" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="2" t="s">
+    <row r="35" spans="3:3">
+      <c r="C35" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="2" t="s">
+    <row r="36" spans="3:3">
+      <c r="C36" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="2" t="s">
+    <row r="37" spans="3:3">
+      <c r="C37" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="2" t="s">
+    <row r="38" spans="3:3">
+      <c r="C38" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="2" t="s">
+    <row r="39" spans="3:3">
+      <c r="C39" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="2" t="s">
+    <row r="40" spans="3:3">
+      <c r="C40" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="2" t="s">
+    <row r="41" spans="3:3">
+      <c r="C41" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="2" t="s">
+    <row r="42" spans="3:3">
+      <c r="C42" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="2" t="s">
+    <row r="43" spans="3:3">
+      <c r="C43" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="2" t="s">
+    <row r="44" spans="3:3">
+      <c r="C44" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="2" t="s">
+    <row r="45" spans="3:3">
+      <c r="C45" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="2" t="s">
+    <row r="46" spans="3:3">
+      <c r="C46" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="2" t="s">
+    <row r="47" spans="3:3">
+      <c r="C47" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="2" t="s">
+    <row r="48" spans="3:3">
+      <c r="C48" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="2" t="s">
+    <row r="49" spans="3:3">
+      <c r="C49" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="2" t="s">
+    <row r="50" spans="3:3">
+      <c r="C50" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="2" t="s">
+    <row r="51" spans="3:3">
+      <c r="C51" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="2" t="s">
+    <row r="52" spans="3:3">
+      <c r="C52" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="2" t="s">
+    <row r="53" spans="3:3">
+      <c r="C53" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="2" t="s">
+    <row r="54" spans="3:3">
+      <c r="C54" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="2" t="s">
+    <row r="55" spans="3:3">
+      <c r="C55" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="2" t="s">
+    <row r="56" spans="3:3">
+      <c r="C56" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="2" t="s">
+    <row r="57" spans="3:3">
+      <c r="C57" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="2" t="s">
+    <row r="58" spans="3:3">
+      <c r="C58" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="2" t="s">
+    <row r="59" spans="3:3">
+      <c r="C59" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="2" t="s">
+    <row r="60" spans="3:3">
+      <c r="C60" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="2" t="s">
+    <row r="61" spans="3:3">
+      <c r="C61" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="2" t="s">
+    <row r="62" spans="3:3">
+      <c r="C62" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="2" t="s">
+    <row r="63" spans="3:3">
+      <c r="C63" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="2" t="s">
+    <row r="64" spans="3:3">
+      <c r="C64" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="2" t="s">
+    <row r="65" spans="3:3">
+      <c r="C65" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="2" t="s">
+    <row r="66" spans="3:3">
+      <c r="C66" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="2" t="s">
+    <row r="67" spans="3:3">
+      <c r="C67" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="2" t="s">
+    <row r="68" spans="3:3">
+      <c r="C68" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="2" t="s">
+    <row r="69" spans="3:3">
+      <c r="C69" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="2" t="s">
+    <row r="70" spans="3:3">
+      <c r="C70" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="2" t="s">
+    <row r="71" spans="3:3">
+      <c r="C71" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="2" t="s">
+    <row r="72" spans="3:3">
+      <c r="C72" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="2" t="s">
+    <row r="73" spans="3:3">
+      <c r="C73" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="2" t="s">
+    <row r="74" spans="3:3">
+      <c r="C74" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="2" t="s">
+    <row r="75" spans="3:3">
+      <c r="C75" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="2" t="s">
+    <row r="76" spans="3:3">
+      <c r="C76" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="2" t="s">
+    <row r="77" spans="3:3">
+      <c r="C77" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="2" t="s">
+    <row r="78" spans="3:3">
+      <c r="C78" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="2" t="s">
+    <row r="79" spans="3:3">
+      <c r="C79" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="2" t="s">
+    <row r="80" spans="3:3">
+      <c r="C80" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="2" t="s">
+    <row r="81" spans="3:3">
+      <c r="C81" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="2" t="s">
+    <row r="82" spans="3:3">
+      <c r="C82" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="2" t="s">
+    <row r="83" spans="3:3">
+      <c r="C83" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="2" t="s">
+    <row r="84" spans="3:3">
+      <c r="C84" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="2" t="s">
+    <row r="85" spans="3:3">
+      <c r="C85" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="2" t="s">
+    <row r="86" spans="3:3">
+      <c r="C86" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="2" t="s">
+    <row r="87" spans="3:3">
+      <c r="C87" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="2" t="s">
+    <row r="88" spans="3:3">
+      <c r="C88" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="2" t="s">
+    <row r="89" spans="3:3">
+      <c r="C89" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="2" t="s">
+    <row r="90" spans="3:3">
+      <c r="C90" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="2" t="s">
+    <row r="91" spans="3:3">
+      <c r="C91" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="2" t="s">
+    <row r="92" spans="3:3">
+      <c r="C92" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="2" t="s">
+    <row r="93" spans="3:3">
+      <c r="C93" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="2" t="s">
+    <row r="94" spans="3:3">
+      <c r="C94" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="2" t="s">
+    <row r="95" spans="3:3">
+      <c r="C95" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="2" t="s">
+    <row r="96" spans="3:3">
+      <c r="C96" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="2" t="s">
+    <row r="97" spans="3:3">
+      <c r="C97" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="2" t="s">
+    <row r="98" spans="3:3">
+      <c r="C98" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="2" t="s">
+    <row r="99" spans="3:3">
+      <c r="C99" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="2" t="s">
+    <row r="100" spans="3:3">
+      <c r="C100" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="2" t="s">
+    <row r="101" spans="3:3">
+      <c r="C101" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="2" t="s">
+    <row r="102" spans="3:3">
+      <c r="C102" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="2" t="s">
+    <row r="103" spans="3:3">
+      <c r="C103" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="2" t="s">
+    <row r="104" spans="3:3">
+      <c r="C104" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="2" t="s">
+    <row r="105" spans="3:3">
+      <c r="C105" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="2" t="s">
+    <row r="106" spans="3:3">
+      <c r="C106" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C103" s="2" t="s">
+    <row r="107" spans="3:3">
+      <c r="C107" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C104" s="2" t="s">
+    <row r="108" spans="3:3">
+      <c r="C108" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C105" s="2" t="s">
+    <row r="109" spans="3:3">
+      <c r="C109" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C106" s="2" t="s">
+    <row r="110" spans="3:3">
+      <c r="C110" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C107" s="2" t="s">
+    <row r="111" spans="3:3">
+      <c r="C111" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C108" s="2" t="s">
+    <row r="112" spans="3:3">
+      <c r="C112" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C109" s="2" t="s">
+    <row r="113" spans="3:3">
+      <c r="C113" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C110" s="2" t="s">
+    <row r="114" spans="3:3">
+      <c r="C114" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C111" s="2" t="s">
+    <row r="115" spans="3:3">
+      <c r="C115" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C112" s="2" t="s">
+    <row r="116" spans="3:3">
+      <c r="C116" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C113" s="2" t="s">
+    <row r="117" spans="3:3">
+      <c r="C117" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C114" s="2" t="s">
+    <row r="118" spans="3:3">
+      <c r="C118" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C115" s="2" t="s">
+    <row r="119" spans="3:3">
+      <c r="C119" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C116" s="2" t="s">
+    <row r="120" spans="3:3">
+      <c r="C120" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C117" s="2" t="s">
+    <row r="121" spans="3:3">
+      <c r="C121" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C118" s="2" t="s">
+    <row r="122" spans="3:3">
+      <c r="C122" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C119" s="2" t="s">
+    <row r="123" spans="3:3">
+      <c r="C123" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C120" s="2" t="s">
+    <row r="124" spans="3:3">
+      <c r="C124" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C121" s="2" t="s">
+    <row r="125" spans="3:3">
+      <c r="C125" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C122" s="2" t="s">
+    <row r="126" spans="3:3">
+      <c r="C126" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C123" s="2" t="s">
+    <row r="127" spans="3:3">
+      <c r="C127" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C124" s="2" t="s">
+    <row r="128" spans="3:3">
+      <c r="C128" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C125" s="2" t="s">
+    <row r="129" spans="3:3">
+      <c r="C129" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C126" s="2" t="s">
+    <row r="130" spans="3:3">
+      <c r="C130" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C127" s="2" t="s">
+    <row r="131" spans="3:3">
+      <c r="C131" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C128" s="2" t="s">
+    <row r="132" spans="3:3">
+      <c r="C132" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C129" s="2" t="s">
+    <row r="133" spans="3:3">
+      <c r="C133" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C130" s="2" t="s">
+    <row r="134" spans="3:3">
+      <c r="C134" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C131" s="2" t="s">
+    <row r="135" spans="3:3">
+      <c r="C135" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C132" s="2" t="s">
+    <row r="136" spans="3:3">
+      <c r="C136" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C133" s="2" t="s">
+    <row r="137" spans="3:3">
+      <c r="C137" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C134" s="2" t="s">
+    <row r="138" spans="3:3">
+      <c r="C138" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C135" s="2" t="s">
+    <row r="139" spans="3:3">
+      <c r="C139" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C136" s="2" t="s">
+    <row r="140" spans="3:3">
+      <c r="C140" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C137" s="2" t="s">
+    <row r="141" spans="3:3">
+      <c r="C141" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C138" s="2" t="s">
+    <row r="142" spans="3:3">
+      <c r="C142" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C139" s="2" t="s">
+    <row r="143" spans="3:3">
+      <c r="C143" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C140" s="2" t="s">
+    <row r="144" spans="3:3">
+      <c r="C144" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C141" s="2" t="s">
+    <row r="145" spans="3:3">
+      <c r="C145" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C142" s="2" t="s">
+    <row r="146" spans="3:3">
+      <c r="C146" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C143" s="2" t="s">
+    <row r="147" spans="3:3">
+      <c r="C147" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C144" s="2" t="s">
+    <row r="148" spans="3:3">
+      <c r="C148" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C145" s="2" t="s">
+    <row r="149" spans="3:3">
+      <c r="C149" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C146" s="2" t="s">
+    <row r="150" spans="3:3">
+      <c r="C150" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C147" s="2" t="s">
+    <row r="151" spans="3:3">
+      <c r="C151" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C148" s="2" t="s">
+    <row r="152" spans="3:3">
+      <c r="C152" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C149" s="2" t="s">
+    <row r="153" spans="3:3">
+      <c r="C153" s="2" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C150" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C151" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C152" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C153" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3527,24 +3649,24 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="3" width="11" style="1"/>
     <col min="4" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="68">
       <c r="A1" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="7">
         <v>43830</v>
       </c>
@@ -3555,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="7">
         <v>43831</v>
       </c>
@@ -3566,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="7">
         <v>43832</v>
       </c>
@@ -3577,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="7">
         <v>43833</v>
       </c>
@@ -3588,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="7">
         <v>43834</v>
       </c>
@@ -3599,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="7">
         <v>43835</v>
       </c>
@@ -3610,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="7">
         <v>43836</v>
       </c>
@@ -3621,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="7">
         <v>43837</v>
       </c>
@@ -3632,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="7">
         <v>43838</v>
       </c>
@@ -3643,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="7">
         <v>43839</v>
       </c>
@@ -3654,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="7">
         <v>43840</v>
       </c>
@@ -3665,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="7">
         <v>43841</v>
       </c>
@@ -3676,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="7">
         <v>43842</v>
       </c>
@@ -3687,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="7">
         <v>43843</v>
       </c>
@@ -3698,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="7">
         <v>43844</v>
       </c>
@@ -3709,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="7">
         <v>43845</v>
       </c>
@@ -3720,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="7">
         <v>43846</v>
       </c>
@@ -3731,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="7">
         <v>43847</v>
       </c>
@@ -3742,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="7">
         <v>43848</v>
       </c>
@@ -3753,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="7">
         <v>43849</v>
       </c>
@@ -3764,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="7">
         <v>43850</v>
       </c>
@@ -3775,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="7">
         <v>43851</v>
       </c>
@@ -3786,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="7">
         <v>43852</v>
       </c>
@@ -3797,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="7">
         <v>43853</v>
       </c>
@@ -3808,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="7">
         <v>43854</v>
       </c>
@@ -3819,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="7">
         <v>43855</v>
       </c>
@@ -3830,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="7">
         <v>43856</v>
       </c>
@@ -3841,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="7">
         <v>43857</v>
       </c>
@@ -3852,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="7">
         <v>43858</v>
       </c>
@@ -3863,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="7">
         <v>43859</v>
       </c>
@@ -3874,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="7">
         <v>43860</v>
       </c>
@@ -3885,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="7">
         <v>43861</v>
       </c>
@@ -3896,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="7">
         <v>43862</v>
       </c>
@@ -3907,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="7">
         <v>43863</v>
       </c>
@@ -3918,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="7">
         <v>43864</v>
       </c>
@@ -3929,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="7">
         <v>43865</v>
       </c>
@@ -3940,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="7">
         <v>43866</v>
       </c>
@@ -3951,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="7">
         <v>43867</v>
       </c>
@@ -3962,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="7">
         <v>43868</v>
       </c>
@@ -3973,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="7">
         <v>43869</v>
       </c>
@@ -3984,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="7">
         <v>43870</v>
       </c>
@@ -3995,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="7">
         <v>43871</v>
       </c>
@@ -4006,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="7">
         <v>43872</v>
       </c>
@@ -4017,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="7">
         <v>43873</v>
       </c>
@@ -4028,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="7">
         <v>43874</v>
       </c>
@@ -4039,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="7">
         <v>43875</v>
       </c>
@@ -4050,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="7">
         <v>43876</v>
       </c>
@@ -4061,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="7">
         <v>43877</v>
       </c>
@@ -4072,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="7">
         <v>43878</v>
       </c>
@@ -4083,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="7">
         <v>43879</v>
       </c>
@@ -4094,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="7">
         <v>43880</v>
       </c>
@@ -4105,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="7">
         <v>43881</v>
       </c>
@@ -4116,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="7">
         <v>43882</v>
       </c>
@@ -4127,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="7">
         <v>43883</v>
       </c>
@@ -4138,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="7">
         <v>43884</v>
       </c>
@@ -4149,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="7">
         <v>43885</v>
       </c>
@@ -4160,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="7">
         <v>43886</v>
       </c>
@@ -4171,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="7">
         <v>43887</v>
       </c>
@@ -4182,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="7">
         <v>43888</v>
       </c>
@@ -4193,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="7">
         <v>43889</v>
       </c>
@@ -4204,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="7">
         <v>43890</v>
       </c>
@@ -4215,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="7">
         <v>43891</v>
       </c>
@@ -4226,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="7">
         <v>43892</v>
       </c>
@@ -4237,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="7">
         <v>43893</v>
       </c>
@@ -4248,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="7">
         <v>43894</v>
       </c>
@@ -4259,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="7">
         <v>43895</v>
       </c>
@@ -4270,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="7">
         <v>43896</v>
       </c>
@@ -4281,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="7">
         <v>43897</v>
       </c>
@@ -4292,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="7">
         <v>43898</v>
       </c>
@@ -4303,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="7">
         <v>43899</v>
       </c>
@@ -4314,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="7">
         <v>43900</v>
       </c>
@@ -4325,7 +4447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="7">
         <v>43901</v>
       </c>
@@ -4336,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="7">
         <v>43902</v>
       </c>
@@ -4347,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="7">
         <v>43903</v>
       </c>
@@ -4358,7 +4480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="7">
         <v>43904</v>
       </c>
@@ -4369,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="7">
         <v>43905</v>
       </c>
@@ -4380,7 +4502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="7">
         <v>43906</v>
       </c>
@@ -4391,7 +4513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="7">
         <v>43907</v>
       </c>
@@ -4402,7 +4524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="7">
         <v>43908</v>
       </c>
@@ -4413,7 +4535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="7">
         <v>43909</v>
       </c>
@@ -4424,7 +4546,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="7">
         <v>43910</v>
       </c>
@@ -4435,7 +4557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="7">
         <v>43911</v>
       </c>
@@ -4446,7 +4568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="7">
         <v>43912</v>
       </c>
@@ -4457,7 +4579,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="7">
         <v>43913</v>
       </c>
@@ -4468,7 +4590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="7">
         <v>43914</v>
       </c>
@@ -4479,7 +4601,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="7">
         <v>43915</v>
       </c>
@@ -4490,7 +4612,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="7">
         <v>43916</v>
       </c>
@@ -4501,7 +4623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="7">
         <v>43917</v>
       </c>
@@ -4512,7 +4634,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="7">
         <v>43918</v>
       </c>
@@ -4523,7 +4645,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="7">
         <v>43919</v>
       </c>
@@ -4534,7 +4656,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="7">
         <v>43920</v>
       </c>
@@ -4545,7 +4667,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="7">
         <v>43921</v>
       </c>
@@ -4556,7 +4678,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="7">
         <v>43922</v>
       </c>
@@ -4567,7 +4689,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="7">
         <v>43923</v>
       </c>
@@ -4578,7 +4700,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="7">
         <v>43924</v>
       </c>
@@ -4589,7 +4711,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="7">
         <v>43925</v>
       </c>
@@ -4600,7 +4722,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="7">
         <v>43926</v>
       </c>
@@ -4611,37 +4733,37 @@
         <v>708</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="7">
         <v>43927</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="7">
         <v>43928</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="7">
         <v>43929</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="7">
         <v>43930</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="7">
         <v>43931</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="7">
         <v>43932</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="7">
         <v>43933</v>
       </c>
@@ -4668,7 +4790,7 @@
       <selection activeCell="C22" sqref="B2:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="8" customWidth="1"/>
@@ -4676,18 +4798,18 @@
     <col min="4" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="170">
       <c r="A1" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -4698,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -4709,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -4720,7 +4842,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -4731,7 +4853,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -4742,7 +4864,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -4753,7 +4875,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -4764,7 +4886,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -4775,7 +4897,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -4786,7 +4908,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -4797,7 +4919,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -4808,7 +4930,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -4819,7 +4941,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -4830,7 +4952,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -4841,7 +4963,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -4852,7 +4974,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -4863,7 +4985,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -4874,7 +4996,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -4885,7 +5007,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -4896,7 +5018,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -4907,7 +5029,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -4940,7 +5062,7 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="10" bestFit="1" customWidth="1"/>
@@ -4950,21 +5072,21 @@
     <col min="7" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="68">
       <c r="A1" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
@@ -4978,7 +5100,7 @@
         <v>2.3722458400227202E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -4992,7 +5114,7 @@
         <v>1.32905378016121E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -5006,7 +5128,7 @@
         <v>2.7683021103459102E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
@@ -5020,7 +5142,7 @@
         <v>5.9421612308889897E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -5034,7 +5156,7 @@
         <v>9.4061131337053795E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -5048,7 +5170,7 @@
         <v>1.22116449024625E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
@@ -5062,7 +5184,7 @@
         <v>1.74496544750293E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
@@ -5076,7 +5198,7 @@
         <v>2.3869666845092401E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
@@ -5090,7 +5212,7 @@
         <v>3.9402680780452703E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
@@ -5104,7 +5226,7 @@
         <v>5.9906418526633501E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="10" t="s">
         <v>32</v>
       </c>
@@ -5118,7 +5240,7 @@
         <v>8.5059441930317695E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -5132,7 +5254,7 @@
         <v>1.26668575743058E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
@@ -5146,7 +5268,7 @@
         <v>2.0472533414662599E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
         <v>35</v>
       </c>
@@ -5160,7 +5282,7 @@
         <v>3.4000512436294603E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="10" t="s">
         <v>36</v>
       </c>
@@ -5174,7 +5296,7 @@
         <v>4.9617484749088298E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="10" t="s">
         <v>37</v>
       </c>
@@ -5188,7 +5310,7 @@
         <v>8.7449779441565906E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="10" t="s">
         <v>38</v>
       </c>
@@ -5202,7 +5324,7 @@
         <v>1.6171761126065301E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="10" t="s">
         <v>39</v>
       </c>
@@ -5216,7 +5338,7 @@
         <v>2.9461103089733202E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="10" t="s">
         <v>40</v>
       </c>
@@ -5230,7 +5352,7 @@
         <v>4.9738551978041395E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="10" t="s">
         <v>41</v>
       </c>
@@ -5244,7 +5366,7 @@
         <v>8.9717264255251901E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
@@ -5278,11 +5400,11 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="55.33203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="8" bestFit="1" customWidth="1"/>
@@ -5293,12 +5415,12 @@
     <col min="7" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>45</v>
@@ -5313,37 +5435,37 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B2" s="7">
         <v>43862</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B3" s="7">
         <v>44196</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C4" s="1">
         <v>4.9000000000000002E-2</v>
@@ -5352,12 +5474,12 @@
         <v>47</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C5" s="1">
         <v>2.5</v>
@@ -5369,12 +5491,12 @@
         <v>47</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="15" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -5386,12 +5508,12 @@
         <v>47</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
@@ -5403,12 +5525,12 @@
         <v>47</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
-        <v>358</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="46" customFormat="1">
+      <c r="A8" s="43" t="s">
+        <v>354</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="44">
@@ -5418,42 +5540,42 @@
       <c r="E8" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49">
+      <c r="F8" s="45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="46" customFormat="1">
+      <c r="A9" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="47">
         <v>0.1</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="50" t="s">
+      <c r="D9" s="43"/>
+      <c r="E9" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54">
+      <c r="F9" s="45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="46" customFormat="1">
+      <c r="A10" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="47">
         <v>5</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="56" t="s">
-        <v>343</v>
+      <c r="F10" s="45" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -5501,7 +5623,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="38.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="8" bestFit="1" customWidth="1"/>
@@ -5512,12 +5634,12 @@
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>45</v>
@@ -5532,23 +5654,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="14" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>58</v>
       </c>
@@ -5565,7 +5687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
@@ -5613,13 +5735,13 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="53.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
@@ -5630,7 +5752,7 @@
     <col min="8" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
@@ -5647,7 +5769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="40" t="s">
         <v>55</v>
       </c>
@@ -5664,9 +5786,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="40" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B3" s="12">
         <v>3.5</v>
@@ -5681,9 +5803,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="40" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B4" s="12">
         <v>4.5</v>
@@ -5698,9 +5820,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="40" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -5713,7 +5835,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="40" t="s">
         <v>62</v>
       </c>
@@ -5730,9 +5852,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="40" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B7" s="12">
         <v>150</v>
@@ -5747,7 +5869,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="40" t="s">
         <v>66</v>
       </c>
@@ -5764,7 +5886,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="40" t="s">
         <v>68</v>
       </c>
@@ -5781,7 +5903,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="40" t="s">
         <v>70</v>
       </c>
@@ -5798,8 +5920,25 @@
         <v>71</v>
       </c>
     </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="51">
+        <v>50</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations disablePrompts="1" count="6">
     <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{655A6F57-9369-8648-9632-8EF8EA8EE8F3}">
       <formula1>1</formula1>
       <formula2>7</formula2>
@@ -5816,7 +5955,7 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B6 B9:B10" xr:uid="{2A8D3FDB-25E9-4D83-8EB8-DB3DA49C3FD5}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B6 B9:B10 B11" xr:uid="{2A8D3FDB-25E9-4D83-8EB8-DB3DA49C3FD5}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -5834,13 +5973,13 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="54.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="8" bestFit="1" customWidth="1"/>
@@ -5850,7 +5989,7 @@
     <col min="6" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
@@ -5867,9 +6006,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B2" s="41">
         <v>160000</v>
@@ -5884,9 +6023,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B3" s="41">
         <v>8000</v>
@@ -5901,9 +6040,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B4" s="41">
         <v>8000</v>
@@ -5918,9 +6057,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
@@ -5935,9 +6074,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -5946,17 +6085,17 @@
         <v>47</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7" s="53">
         <v>35</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="52" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -5966,139 +6105,207 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45</v>
-      </c>
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="53">
+        <v>35</v>
+      </c>
+      <c r="C8" s="52" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="1">
-        <v>55</v>
-      </c>
-      <c r="C9" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="53">
+        <v>50</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="1">
-        <v>80</v>
-      </c>
-      <c r="C10" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="53">
+        <v>50</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="1">
-        <v>80</v>
-      </c>
-      <c r="C11" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="53">
+        <v>55</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="1">
-        <v>95</v>
-      </c>
-      <c r="C12" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="53">
+        <v>55</v>
+      </c>
+      <c r="C12" s="52" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>53</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="53">
+        <v>75</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>52</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>53</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" s="53">
+        <v>75</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>52</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>335</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1">
+        <v>95</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6110,7 +6317,7 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{B281495F-DB35-47BB-9D76-CFF630A4B4E7}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B7:B12 B5" xr:uid="{5D60B908-FEDB-4FEF-A945-3CA55E06C223}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B5 B15:B16 B7:B14" xr:uid="{5D60B908-FEDB-4FEF-A945-3CA55E06C223}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -6118,7 +6325,7 @@
       <formula1>0.1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{6C0631D2-5E94-0E44-AEDA-62F22487E25D}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B17:B19" xr:uid="{6C0631D2-5E94-0E44-AEDA-62F22487E25D}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
@@ -6132,13 +6339,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="35" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="8" customWidth="1"/>
@@ -6149,12 +6356,12 @@
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17" thickBot="1">
       <c r="A1" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>45</v>
@@ -6169,9 +6376,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="27"/>
@@ -6179,10 +6386,10 @@
       <c r="E2" s="28"/>
       <c r="F2" s="29"/>
     </row>
-    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18" thickBot="1">
       <c r="A3" s="18"/>
       <c r="B3" s="36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C3" s="12">
         <v>50</v>
@@ -6194,12 +6401,12 @@
         <v>47</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="25" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="30"/>
@@ -6207,10 +6414,10 @@
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="21"/>
       <c r="B5" s="38" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C5" s="31">
         <v>4</v>
@@ -6220,13 +6427,13 @@
         <v>47</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" thickBot="1">
       <c r="A6" s="21"/>
       <c r="B6" s="38" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C6" s="31">
         <v>80</v>
@@ -6238,12 +6445,12 @@
         <v>47</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="30"/>
@@ -6251,10 +6458,10 @@
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
     </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="34">
       <c r="A8" s="18"/>
       <c r="B8" s="36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C8" s="12">
         <v>14</v>
@@ -6266,13 +6473,13 @@
         <v>47</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34">
       <c r="A9" s="18"/>
       <c r="B9" s="38" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C9" s="31">
         <v>2</v>
@@ -6284,13 +6491,13 @@
         <v>47</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34">
       <c r="A10" s="18"/>
       <c r="B10" s="36" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C10" s="12">
         <v>20</v>
@@ -6302,13 +6509,13 @@
         <v>47</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="35" thickBot="1">
       <c r="A11" s="24"/>
       <c r="B11" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C11" s="32">
         <v>100</v>
@@ -6320,12 +6527,12 @@
         <v>47</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="30"/>
@@ -6333,10 +6540,10 @@
       <c r="E12" s="28"/>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="18" thickBot="1">
       <c r="A13" s="24"/>
       <c r="B13" s="39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C13" s="32">
         <v>100</v>
@@ -6348,12 +6555,12 @@
         <v>47</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="30"/>
@@ -6361,10 +6568,10 @@
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
     </row>
-    <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="18" thickBot="1">
       <c r="A15" s="24"/>
       <c r="B15" s="36" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C15" s="32">
         <v>20</v>
@@ -6376,178 +6583,178 @@
         <v>47</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="34"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="28"/>
       <c r="F16" s="29"/>
     </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="36" t="s">
+    <row r="17" spans="1:6" ht="18" thickBot="1">
+      <c r="A17" s="65"/>
+      <c r="B17" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="67">
+        <v>15</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" ht="17">
+      <c r="A19" s="18"/>
+      <c r="B19" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="12">
+        <v>85</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="35" thickBot="1">
+      <c r="A20" s="24"/>
+      <c r="B20" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="32">
+        <v>10</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:6" ht="17">
+      <c r="A22" s="18"/>
+      <c r="B22" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="12">
+        <v>85</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="12">
-        <v>85</v>
-      </c>
-      <c r="D17" s="33" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="35" thickBot="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="32">
+        <v>20</v>
+      </c>
+      <c r="D23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="39" t="s">
+      <c r="F23" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="32">
-        <v>10</v>
-      </c>
-      <c r="D18" s="35" t="s">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" ht="17">
+      <c r="A25" s="18"/>
+      <c r="B25" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="12">
+        <v>95</v>
+      </c>
+      <c r="D25" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F25" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="12">
-        <v>85</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="32">
-        <v>20</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="12">
-        <v>95</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="C24" s="32">
-        <v>70</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18" thickBot="1">
       <c r="A26" s="24"/>
       <c r="B26" s="39" t="s">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="C26" s="32">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>47</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="25" t="s">
-        <v>123</v>
+        <v>315</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="30"/>
@@ -6555,153 +6762,281 @@
       <c r="E27" s="28"/>
       <c r="F27" s="29"/>
     </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="C28" s="12">
+    <row r="28" spans="1:6" ht="18" thickBot="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="32">
+        <v>50</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="1:6" ht="17">
+      <c r="A30" s="18"/>
+      <c r="B30" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C30" s="12">
         <v>4</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="19" t="s">
+      <c r="D30" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="C29" s="12">
+      <c r="F30" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17">
+      <c r="A31" s="18"/>
+      <c r="B31" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="12">
         <v>60</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D31" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E31" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="32">
-        <v>0</v>
-      </c>
-      <c r="D30" s="35" t="s">
+      <c r="F31" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" thickBot="1">
+      <c r="A32" s="24"/>
+      <c r="B32" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E32" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="C32" s="12">
-        <v>80</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="C33" s="12">
-        <v>14</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F32" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+    </row>
+    <row r="34" spans="1:6" ht="17">
       <c r="A34" s="18"/>
       <c r="B34" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="C34" s="57">
-        <v>20</v>
+        <v>347</v>
+      </c>
+      <c r="C34" s="12">
+        <v>80</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F34" s="20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17">
+      <c r="A35" s="18"/>
+      <c r="B35" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="C35" s="12">
+        <v>14</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17">
+      <c r="A36" s="18"/>
+      <c r="B36" s="36" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="C35" s="32">
+      <c r="C36" s="42">
+        <v>20</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" thickBot="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="C37" s="32">
         <v>60</v>
       </c>
-      <c r="D35" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="22" t="s">
+      <c r="D37" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="23" t="s">
-        <v>349</v>
+      <c r="F37" s="23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="54" t="s">
+        <v>374</v>
+      </c>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:6" ht="34">
+      <c r="A39" s="58"/>
+      <c r="B39" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="C39" s="60">
+        <v>82</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="34">
+      <c r="A40" s="52"/>
+      <c r="B40" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="C40" s="60">
+        <v>64</v>
+      </c>
+      <c r="D40" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="34">
+      <c r="A41" s="58"/>
+      <c r="B41" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="C41" s="60">
+        <v>82</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="34">
+      <c r="A42" s="58"/>
+      <c r="B42" s="62" t="s">
+        <v>381</v>
+      </c>
+      <c r="C42" s="63">
+        <v>64</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" thickBot="1">
+      <c r="A43" s="65"/>
+      <c r="B43" s="66" t="s">
+        <v>383</v>
+      </c>
+      <c r="C43" s="67">
+        <v>87</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28" xr:uid="{79437B14-BBCB-41C8-B199-9D1512AD30EC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30" xr:uid="{79437B14-BBCB-41C8-B199-9D1512AD30EC}">
       <formula1>1</formula1>
       <formula2>52</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C20:C21 C26 C10:C11 C30 C23:C24 C17:C18 C13 C32 C33 C34 C35" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C22:C23 C28 C10:C11 C32 C25:C26 C19:C20 C13 C34:C37" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -6725,9 +7060,13 @@
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29" xr:uid="{B3A77258-E555-9644-BB0D-41361904BE89}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31 C39:C43" xr:uid="{B3A77258-E555-9644-BB0D-41361904BE89}">
       <formula1>1</formula1>
       <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{55DE335C-11E3-B249-8863-8D771A23BE20}">
+      <formula1>0</formula1>
+      <formula2>35</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAE4BAB-0E59-6947-87EC-0C489A7B9339}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A57219B-8103-5945-B2DE-901DB46F4F1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="460" windowWidth="24800" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="648" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="401">
   <si>
     <t>0-5 y.o.</t>
   </si>
@@ -1323,6 +1323,37 @@
   </si>
   <si>
     <t>Interventions Param:  several parameters for two new interventions: Mask Wearing and Dexamethasone.</t>
+  </si>
+  <si>
+    <t>(*Self-isolation) Screening</t>
+  </si>
+  <si>
+    <t>(*Self-isolation) Household Isolation</t>
+  </si>
+  <si>
+    <t>(*Vaccination) Age Vaccine Minimum</t>
+  </si>
+  <si>
+    <t>(*Mass Testing) Age Testing Minimum</t>
+  </si>
+  <si>
+    <t>(*Mass Testing) Age Testing Maximum</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>Unit Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ </t>
+  </si>
+  <si>
+    <t>Interventions: two interventions renamed: "(*Self-isolation) Screening" and 
+"(*Self-isolation) Household Isolation" and three options "(*Vaccination) Age Vaccine Minimum", "(*Mass Testing) Age Testing Minimum", "(*Mass Testing) Age Testing Maximum" added to allow overtime modification of these parameters.</t>
   </si>
 </sst>
 </file>
@@ -1994,9 +2025,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
@@ -2048,23 +2081,37 @@
         <v>390</v>
       </c>
     </row>
+    <row r="12" spans="1:1" ht="68">
+      <c r="A12" s="49" t="s">
+        <v>400</v>
+      </c>
+    </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="A13" s="49"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="49"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="49"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2081,12 +2128,12 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -2117,7 +2164,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>304</v>
+        <v>96</v>
       </c>
       <c r="B2" s="7">
         <v>43876</v>
@@ -2129,7 +2176,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f>IF(A2 = "", "", IF(A2="Screening (when S.I.)", "contacts", IF(A2 = "Mass Testing", "tests", "%")))</f>
+        <f>IF(A2="","",VLOOKUP(A2,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2138,7 +2185,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="B3" s="7">
         <v>43937</v>
@@ -2150,7 +2197,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E46" si="0">IF(A3 = "", "", IF(A3="Screening (when S.I.)", "contacts", IF(A3 = "Mass Testing", "tests", "%")))</f>
+        <f>IF(A3="","",VLOOKUP(A3,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2171,7 +2218,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A4="","",VLOOKUP(A4,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -2180,7 +2227,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="B5" s="7">
         <v>43876</v>
@@ -2192,7 +2239,7 @@
         <v>60</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A5="","",VLOOKUP(A5,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v>contacts</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2201,7 +2248,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>314</v>
+        <v>392</v>
       </c>
       <c r="B6" s="7">
         <v>43876</v>
@@ -2213,7 +2260,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A6="","",VLOOKUP(A6,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2234,7 +2281,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A7="","",VLOOKUP(A7,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2243,7 +2290,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>304</v>
       </c>
       <c r="B8" s="7">
         <v>43937</v>
@@ -2255,7 +2302,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A8="","",VLOOKUP(A8,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2276,7 +2323,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A9="","",VLOOKUP(A9,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2285,7 +2332,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="B10" s="7">
         <v>43876</v>
@@ -2297,7 +2344,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A10="","",VLOOKUP(A10,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v>contacts</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2306,7 +2353,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>314</v>
+        <v>392</v>
       </c>
       <c r="B11" s="7">
         <v>43876</v>
@@ -2318,7 +2365,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A11="","",VLOOKUP(A11,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2339,7 +2386,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A12="","",VLOOKUP(A12,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2360,7 +2407,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A13="","",VLOOKUP(A13,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2381,7 +2428,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A14="","",VLOOKUP(A14,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v>tests</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2401,8 +2448,9 @@
       <c r="D15" s="1">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
+      <c r="E15" s="2" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <v>%</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>317</v>
@@ -2421,34 +2469,55 @@
       <c r="D16" s="1">
         <v>30</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>52</v>
+      <c r="E16" s="2" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <v>%</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="7">
+        <v>43983</v>
+      </c>
+      <c r="C17" s="7">
+        <v>44012</v>
+      </c>
+      <c r="D17" s="1">
+        <v>70</v>
+      </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F17" s="1"/>
+        <f>IF(A17="","",VLOOKUP(A17,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <v>%</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18" s="7">
+        <v>43983</v>
+      </c>
+      <c r="C18" s="7">
+        <v>44012</v>
+      </c>
+      <c r="D18" s="1">
+        <v>40</v>
+      </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F18" s="1"/>
+        <f>IF(A18="","",VLOOKUP(A18,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <v>y.o.</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1"/>
@@ -2456,7 +2525,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A19="","",VLOOKUP(A19,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F19" s="1"/>
@@ -2467,7 +2536,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A20="","",VLOOKUP(A20,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F20" s="1"/>
@@ -2478,7 +2547,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A21="","",VLOOKUP(A21,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F21" s="1"/>
@@ -2489,7 +2558,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A22="","",VLOOKUP(A22,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F22" s="1"/>
@@ -2500,7 +2569,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A23="","",VLOOKUP(A23,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F23" s="1"/>
@@ -2511,7 +2580,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A24="","",VLOOKUP(A24,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F24" s="1"/>
@@ -2522,7 +2591,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A25="","",VLOOKUP(A25,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F25" s="1"/>
@@ -2533,7 +2602,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A26="","",VLOOKUP(A26,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F26" s="1"/>
@@ -2544,7 +2613,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A27="","",VLOOKUP(A27,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F27" s="1"/>
@@ -2555,7 +2624,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A28="","",VLOOKUP(A28,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F28" s="1"/>
@@ -2566,7 +2635,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A29="","",VLOOKUP(A29,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F29" s="1"/>
@@ -2577,7 +2646,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A30="","",VLOOKUP(A30,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F30" s="1"/>
@@ -2588,7 +2657,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A31="","",VLOOKUP(A31,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F31" s="1"/>
@@ -2599,7 +2668,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A32="","",VLOOKUP(A32,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F32" s="1"/>
@@ -2610,7 +2679,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A33="","",VLOOKUP(A33,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F33" s="1"/>
@@ -2621,7 +2690,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A34="","",VLOOKUP(A34,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F34" s="1"/>
@@ -2632,7 +2701,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A35="","",VLOOKUP(A35,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F35" s="1"/>
@@ -2643,7 +2712,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A36="","",VLOOKUP(A36,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F36" s="1"/>
@@ -2654,7 +2723,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A37="","",VLOOKUP(A37,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F37" s="1"/>
@@ -2665,7 +2734,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A38="","",VLOOKUP(A38,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F38" s="1"/>
@@ -2676,7 +2745,7 @@
       <c r="C39" s="7"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A39="","",VLOOKUP(A39,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F39" s="1"/>
@@ -2687,7 +2756,7 @@
       <c r="C40" s="7"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A40="","",VLOOKUP(A40,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F40" s="1"/>
@@ -2698,7 +2767,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A41="","",VLOOKUP(A41,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F41" s="1"/>
@@ -2709,7 +2778,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A42="","",VLOOKUP(A42,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F42" s="1"/>
@@ -2720,7 +2789,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A43="","",VLOOKUP(A43,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F43" s="1"/>
@@ -2731,7 +2800,7 @@
       <c r="C44" s="7"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A44="","",VLOOKUP(A44,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F44" s="1"/>
@@ -2742,7 +2811,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A45="","",VLOOKUP(A45,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F45" s="1"/>
@@ -2753,7 +2822,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A46="","",VLOOKUP(A46,HIDDEN!$E$2:$F$17,2,FALSE))</f>
         <v/>
       </c>
       <c r="F46" s="1"/>
@@ -2768,24 +2837,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8111968A-8FE9-DE4F-AE93-5F28872C16C3}">
+          <x14:formula1>
+            <xm:f>HIDDEN!$E$2:$E$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A46</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{440D4135-AD3D-9D45-A472-9BA444A2B9DA}">
           <x14:formula1>
-            <xm:f>HIDDEN!$G$2:$G$3</xm:f>
+            <xm:f>HIDDEN!$I$2:$I$3</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F46</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47936E1B-CEB7-1140-B286-248EE55FD596}">
-          <x14:formula1>
-            <xm:f>HIDDEN!$E$2:$E$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A14 A16:A46</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8111968A-8FE9-DE4F-AE93-5F28872C16C3}">
-          <x14:formula1>
-            <xm:f>HIDDEN!$E$2:$E$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>A15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2795,20 +2858,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57CEFC6-D2C7-B343-A51D-3BA4E81D468A}">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
@@ -2818,11 +2881,14 @@
       <c r="E1" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="b">
         <v>0</v>
       </c>
@@ -2832,11 +2898,14 @@
       <c r="E2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="b">
         <v>1</v>
       </c>
@@ -2844,186 +2913,243 @@
         <v>146</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="C4" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>392</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="C5" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="C6" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="C7" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="C8" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="C9" s="2" t="s">
         <v>152</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="C10" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="C11" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="C12" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>393</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="C13" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>341</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="C14" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>394</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="C15" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="E15" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="C16" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
+      <c r="E16" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
       <c r="C17" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="3:3">
+      <c r="E17" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
       <c r="C18" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="19" spans="3:3">
+      <c r="F18" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
       <c r="C19" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:6">
       <c r="C20" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:6">
       <c r="C21" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:6">
       <c r="C22" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:6">
       <c r="C23" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:6">
       <c r="C24" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:6">
       <c r="C25" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:6">
       <c r="C26" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:6">
       <c r="C27" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:6">
       <c r="C28" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:6">
       <c r="C29" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:6">
       <c r="C30" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:6">
       <c r="C31" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:6">
       <c r="C32" s="2" t="s">
         <v>175</v>
       </c>
@@ -5976,7 +6102,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -6341,8 +6467,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -6458,7 +6584,7 @@
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
     </row>
-    <row r="8" spans="1:6" ht="34">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="18"/>
       <c r="B8" s="36" t="s">
         <v>116</v>
@@ -6688,7 +6814,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="35" thickBot="1">
+    <row r="23" spans="1:6" ht="18" thickBot="1">
       <c r="A23" s="24"/>
       <c r="B23" s="39" t="s">
         <v>106</v>
@@ -7027,7 +7153,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations disablePrompts="1" count="10">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
       <formula1>1</formula1>
       <formula2>5</formula2>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A57219B-8103-5945-B2DE-901DB46F4F1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863BA4C6-DAEC-FB4D-80E6-C9D5C6FA25DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="648" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="400">
   <si>
     <t>0-5 y.o.</t>
   </si>
@@ -999,9 +999,6 @@
   </si>
   <si>
     <t>Shielding the Elderly</t>
-  </si>
-  <si>
-    <t>Interventions</t>
   </si>
   <si>
     <t>Intervention</t>
@@ -2027,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2038,7 +2035,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21">
@@ -2063,27 +2060,27 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="34">
       <c r="A10" s="49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="34">
       <c r="A11" s="49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="68">
       <c r="A12" s="49" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2097,22 +2094,22 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2127,9 +2124,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2144,13 +2139,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17">
       <c r="A1" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>45</v>
@@ -2159,7 +2154,7 @@
         <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2180,7 +2175,7 @@
         <v>%</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2201,7 +2196,7 @@
         <v>%</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2222,12 +2217,12 @@
         <v>%</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B5" s="7">
         <v>43876</v>
@@ -2243,12 +2238,12 @@
         <v>contacts</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B6" s="7">
         <v>43876</v>
@@ -2264,7 +2259,7 @@
         <v>%</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2285,7 +2280,7 @@
         <v>%</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2306,7 +2301,7 @@
         <v>%</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2327,12 +2322,12 @@
         <v>%</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B10" s="7">
         <v>43876</v>
@@ -2348,12 +2343,12 @@
         <v>contacts</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B11" s="7">
         <v>43876</v>
@@ -2369,12 +2364,12 @@
         <v>%</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" s="7">
         <v>43876</v>
@@ -2390,7 +2385,7 @@
         <v>%</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2411,12 +2406,12 @@
         <v>%</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B14" s="7">
         <v>43891</v>
@@ -2432,12 +2427,12 @@
         <v>tests</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B15" s="7">
         <v>43891</v>
@@ -2453,12 +2448,12 @@
         <v>%</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B16" s="7">
         <v>43910</v>
@@ -2474,7 +2469,7 @@
         <v>%</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2495,12 +2490,12 @@
         <v>%</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B18" s="7">
         <v>43983</v>
@@ -2516,7 +2511,7 @@
         <v>y.o.</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2861,7 +2856,7 @@
   <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2882,10 +2877,10 @@
         <v>305</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2902,7 +2897,7 @@
         <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2913,13 +2908,13 @@
         <v>146</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2927,7 +2922,7 @@
         <v>147</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>52</v>
@@ -2993,7 +2988,7 @@
         <v>153</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>52</v>
@@ -3015,7 +3010,7 @@
         <v>155</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>110</v>
@@ -3026,10 +3021,10 @@
         <v>156</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3037,7 +3032,7 @@
         <v>157</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>110</v>
@@ -3048,7 +3043,7 @@
         <v>158</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>110</v>
@@ -3059,7 +3054,7 @@
         <v>159</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>52</v>
@@ -3070,7 +3065,7 @@
         <v>160</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>52</v>
@@ -3081,7 +3076,7 @@
         <v>161</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -3783,7 +3778,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="68">
       <c r="A1" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>124</v>
@@ -4926,7 +4921,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="170">
       <c r="A1" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>130</v>
@@ -5200,7 +5195,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="68">
       <c r="A1" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>125</v>
@@ -5591,7 +5586,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C4" s="1">
         <v>4.9000000000000002E-2</v>
@@ -5656,7 +5651,7 @@
     </row>
     <row r="8" spans="1:6" s="46" customFormat="1">
       <c r="A8" s="43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="44">
@@ -5667,12 +5662,12 @@
         <v>47</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="46" customFormat="1">
       <c r="A9" s="43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="47">
@@ -5683,12 +5678,12 @@
         <v>47</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="46" customFormat="1">
       <c r="A10" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="47">
@@ -5701,7 +5696,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -5914,7 +5909,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" s="12">
         <v>3.5</v>
@@ -5931,7 +5926,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B4" s="12">
         <v>4.5</v>
@@ -5948,7 +5943,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -5980,7 +5975,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B7" s="12">
         <v>150</v>
@@ -6048,7 +6043,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B11" s="51">
         <v>50</v>
@@ -6060,7 +6055,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -6134,7 +6129,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="41">
         <v>160000</v>
@@ -6151,7 +6146,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B3" s="41">
         <v>8000</v>
@@ -6168,7 +6163,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="41">
         <v>8000</v>
@@ -6202,7 +6197,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -6216,7 +6211,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B7" s="53">
         <v>35</v>
@@ -6233,7 +6228,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B8" s="53">
         <v>35</v>
@@ -6245,12 +6240,12 @@
         <v>47</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B9" s="53">
         <v>50</v>
@@ -6267,7 +6262,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="52" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B10" s="53">
         <v>50</v>
@@ -6279,12 +6274,12 @@
         <v>47</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B11" s="53">
         <v>55</v>
@@ -6301,7 +6296,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B12" s="53">
         <v>55</v>
@@ -6313,12 +6308,12 @@
         <v>47</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B13" s="53">
         <v>75</v>
@@ -6335,7 +6330,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="52" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" s="53">
         <v>75</v>
@@ -6347,7 +6342,7 @@
         <v>47</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6386,7 +6381,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -6403,7 +6398,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -6420,7 +6415,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
@@ -6467,7 +6462,7 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -6532,7 +6527,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="30"/>
@@ -6543,7 +6538,7 @@
     <row r="5" spans="1:6" ht="17">
       <c r="A5" s="21"/>
       <c r="B5" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C5" s="31">
         <v>4</v>
@@ -6559,7 +6554,7 @@
     <row r="6" spans="1:6" ht="18" thickBot="1">
       <c r="A6" s="21"/>
       <c r="B6" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C6" s="31">
         <v>80</v>
@@ -6571,12 +6566,12 @@
         <v>47</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="30"/>
@@ -6605,7 +6600,7 @@
     <row r="9" spans="1:6" ht="34">
       <c r="A9" s="18"/>
       <c r="B9" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" s="31">
         <v>2</v>
@@ -6697,7 +6692,7 @@
     <row r="15" spans="1:6" ht="18" thickBot="1">
       <c r="A15" s="24"/>
       <c r="B15" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C15" s="32">
         <v>20</v>
@@ -6709,12 +6704,12 @@
         <v>47</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="54" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="56"/>
@@ -6725,7 +6720,7 @@
     <row r="17" spans="1:6" ht="18" thickBot="1">
       <c r="A17" s="65"/>
       <c r="B17" s="59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C17" s="67">
         <v>15</v>
@@ -6737,7 +6732,7 @@
         <v>47</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6863,7 +6858,7 @@
     <row r="26" spans="1:6" ht="18" thickBot="1">
       <c r="A26" s="24"/>
       <c r="B26" s="39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C26" s="32">
         <v>70</v>
@@ -6880,7 +6875,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="30"/>
@@ -6919,7 +6914,7 @@
     <row r="30" spans="1:6" ht="17">
       <c r="A30" s="18"/>
       <c r="B30" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C30" s="12">
         <v>4</v>
@@ -6937,7 +6932,7 @@
     <row r="31" spans="1:6" ht="17">
       <c r="A31" s="18"/>
       <c r="B31" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C31" s="12">
         <v>60</v>
@@ -6949,7 +6944,7 @@
         <v>47</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" thickBot="1">
@@ -6972,7 +6967,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="30"/>
@@ -6983,7 +6978,7 @@
     <row r="34" spans="1:6" ht="17">
       <c r="A34" s="18"/>
       <c r="B34" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C34" s="12">
         <v>80</v>
@@ -6995,13 +6990,13 @@
         <v>47</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17">
       <c r="A35" s="18"/>
       <c r="B35" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C35" s="12">
         <v>14</v>
@@ -7013,13 +7008,13 @@
         <v>47</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17">
       <c r="A36" s="18"/>
       <c r="B36" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C36" s="42">
         <v>20</v>
@@ -7031,13 +7026,13 @@
         <v>47</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" thickBot="1">
       <c r="A37" s="24"/>
       <c r="B37" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C37" s="32">
         <v>60</v>
@@ -7049,12 +7044,12 @@
         <v>47</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B38" s="55"/>
       <c r="C38" s="56"/>
@@ -7065,7 +7060,7 @@
     <row r="39" spans="1:6" ht="34">
       <c r="A39" s="58"/>
       <c r="B39" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C39" s="60">
         <v>82</v>
@@ -7077,13 +7072,13 @@
         <v>47</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34">
       <c r="A40" s="52"/>
       <c r="B40" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C40" s="60">
         <v>64</v>
@@ -7095,13 +7090,13 @@
         <v>47</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34">
       <c r="A41" s="58"/>
       <c r="B41" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C41" s="60">
         <v>82</v>
@@ -7113,13 +7108,13 @@
         <v>47</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34">
       <c r="A42" s="58"/>
       <c r="B42" s="62" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C42" s="63">
         <v>64</v>
@@ -7131,13 +7126,13 @@
         <v>47</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" thickBot="1">
       <c r="A43" s="65"/>
       <c r="B43" s="66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C43" s="67">
         <v>87</v>
@@ -7149,7 +7144,7 @@
         <v>47</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863BA4C6-DAEC-FB4D-80E6-C9D5C6FA25DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ECC21C-F31F-2448-9EA5-A522A23AA727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ECC21C-F31F-2448-9EA5-A522A23AA727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E4BA1F-04EC-0E4A-8ECE-2ED42B7482DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="402">
   <si>
     <t>0-5 y.o.</t>
   </si>
@@ -1191,9 +1191,6 @@
     <t>Minimum age for vaccination</t>
   </si>
   <si>
-    <t>Iterations (1 to 100)</t>
-  </si>
-  <si>
     <t>Noise (0.01 to 0.2)</t>
   </si>
   <si>
@@ -1203,9 +1200,6 @@
     <t>New in v15:</t>
   </si>
   <si>
-    <t>Template v15.2</t>
-  </si>
-  <si>
     <t>Proportion of hospitalised patients needing O2</t>
   </si>
   <si>
@@ -1291,29 +1285,6 @@
   </si>
   <si>
     <t>mask_eff</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">New in v15.2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>with changes compared to v15 in red in the sheets</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>Hospitalisation Param sheet: the four "Probability of dying ..." parameters are duplicated with (1) req O2 and (2) not req O2</t>
@@ -1351,6 +1322,21 @@
   <si>
     <t>Interventions: two interventions renamed: "(*Self-isolation) Screening" and 
 "(*Self-isolation) Household Isolation" and three options "(*Vaccination) Age Vaccine Minimum", "(*Mass Testing) Age Testing Minimum", "(*Mass Testing) Age Testing Maximum" added to allow overtime modification of these parameters.</t>
+  </si>
+  <si>
+    <t>Iterations (1 to 10,000)</t>
+  </si>
+  <si>
+    <t>Template v15.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New in v15.3 </t>
+  </si>
+  <si>
+    <t>Iterations can be set to 10,000 (previousely limit was 100)</t>
+  </si>
+  <si>
+    <t>New in v15.2:</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1347,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1427,9 +1413,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)_x0000_"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1569,7 +1558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1648,65 +1637,67 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2022,93 +2013,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="76.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="21">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="48" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="34">
-      <c r="A10" s="49" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="34">
-      <c r="A11" s="49" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="68">
-      <c r="A12" s="49" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="49"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="49"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="49"/>
-    </row>
-    <row r="17" spans="1:1">
+    <row r="8" spans="1:1" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="70" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="47" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="69" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
         <v>349</v>
       </c>
     </row>
@@ -2126,7 +2121,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
@@ -2137,7 +2132,7 @@
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>305</v>
       </c>
@@ -2157,7 +2152,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>96</v>
       </c>
@@ -2178,7 +2173,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>133</v>
       </c>
@@ -2199,7 +2194,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>133</v>
       </c>
@@ -2220,9 +2215,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B5" s="7">
         <v>43876</v>
@@ -2241,9 +2236,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B6" s="7">
         <v>43876</v>
@@ -2262,7 +2257,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2283,7 +2278,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>304</v>
       </c>
@@ -2304,7 +2299,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>133</v>
       </c>
@@ -2325,9 +2320,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B10" s="7">
         <v>43876</v>
@@ -2346,9 +2341,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B11" s="7">
         <v>43876</v>
@@ -2367,7 +2362,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>314</v>
       </c>
@@ -2388,7 +2383,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -2409,7 +2404,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>340</v>
       </c>
@@ -2430,9 +2425,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B15" s="7">
         <v>43891</v>
@@ -2451,9 +2446,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B16" s="7">
         <v>43910</v>
@@ -2472,7 +2467,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>119</v>
       </c>
@@ -2493,9 +2488,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B18" s="7">
         <v>43983</v>
@@ -2514,7 +2509,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2525,7 +2520,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2536,7 +2531,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2547,7 +2542,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2558,7 +2553,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2569,7 +2564,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2580,7 +2575,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2591,7 +2586,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2602,7 +2597,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2613,7 +2608,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2624,7 +2619,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2635,7 +2630,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2646,7 +2641,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2657,7 +2652,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2668,7 +2663,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2679,7 +2674,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2690,7 +2685,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2701,7 +2696,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2712,7 +2707,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2723,7 +2718,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2734,7 +2729,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2745,7 +2740,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2756,7 +2751,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2767,7 +2762,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2778,7 +2773,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2789,7 +2784,7 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2800,7 +2795,7 @@
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2811,7 +2806,7 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2859,14 +2854,14 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="39.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
@@ -2877,13 +2872,13 @@
         <v>305</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="b">
         <v>0</v>
       </c>
@@ -2900,7 +2895,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="b">
         <v>1</v>
       </c>
@@ -2908,27 +2903,27 @@
         <v>146</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>148</v>
       </c>
@@ -2939,7 +2934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>149</v>
       </c>
@@ -2950,7 +2945,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>150</v>
       </c>
@@ -2961,7 +2956,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>151</v>
       </c>
@@ -2972,7 +2967,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>152</v>
       </c>
@@ -2983,7 +2978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>153</v>
       </c>
@@ -2994,7 +2989,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>154</v>
       </c>
@@ -3005,18 +3000,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>156</v>
       </c>
@@ -3024,732 +3019,732 @@
         <v>340</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
         <v>158</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="3:6">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="3:6">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="3:6">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="3:3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="3:3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="107" spans="3:3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="3:3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="115" spans="3:3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="3:3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="3:3">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="118" spans="3:3">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="119" spans="3:3">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="120" spans="3:3">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="3:3">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C121" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="122" spans="3:3">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C122" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="3:3">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C123" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="124" spans="3:3">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C124" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="125" spans="3:3">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C125" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="126" spans="3:3">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C126" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="3:3">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C127" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="128" spans="3:3">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C128" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="129" spans="3:3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="131" spans="3:3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="3:3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="137" spans="3:3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="3:3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="141" spans="3:3">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="143" spans="3:3">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="144" spans="3:3">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="3:3">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="146" spans="3:3">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="3:3">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C147" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="148" spans="3:3">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="149" spans="3:3">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C149" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="150" spans="3:3">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="151" spans="3:3">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="152" spans="3:3">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="153" spans="3:3">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" s="2" t="s">
         <v>296</v>
       </c>
@@ -3770,13 +3765,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="11" style="1"/>
     <col min="4" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="68">
+    <row r="1" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>318</v>
       </c>
@@ -3787,7 +3782,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>43830</v>
       </c>
@@ -3798,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>43831</v>
       </c>
@@ -3809,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>43832</v>
       </c>
@@ -3820,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>43833</v>
       </c>
@@ -3831,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>43834</v>
       </c>
@@ -3842,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>43835</v>
       </c>
@@ -3853,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>43836</v>
       </c>
@@ -3864,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>43837</v>
       </c>
@@ -3875,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>43838</v>
       </c>
@@ -3886,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>43839</v>
       </c>
@@ -3897,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>43840</v>
       </c>
@@ -3908,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>43841</v>
       </c>
@@ -3919,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>43842</v>
       </c>
@@ -3930,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>43843</v>
       </c>
@@ -3941,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>43844</v>
       </c>
@@ -3952,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>43845</v>
       </c>
@@ -3963,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>43846</v>
       </c>
@@ -3974,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>43847</v>
       </c>
@@ -3985,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>43848</v>
       </c>
@@ -3996,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>43849</v>
       </c>
@@ -4007,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>43850</v>
       </c>
@@ -4018,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>43851</v>
       </c>
@@ -4029,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>43852</v>
       </c>
@@ -4040,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>43853</v>
       </c>
@@ -4051,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>43854</v>
       </c>
@@ -4062,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>43855</v>
       </c>
@@ -4073,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>43856</v>
       </c>
@@ -4084,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>43857</v>
       </c>
@@ -4095,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>43858</v>
       </c>
@@ -4106,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>43859</v>
       </c>
@@ -4117,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>43860</v>
       </c>
@@ -4128,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>43861</v>
       </c>
@@ -4139,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>43862</v>
       </c>
@@ -4150,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>43863</v>
       </c>
@@ -4161,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>43864</v>
       </c>
@@ -4172,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>43865</v>
       </c>
@@ -4183,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>43866</v>
       </c>
@@ -4194,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>43867</v>
       </c>
@@ -4205,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>43868</v>
       </c>
@@ -4216,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>43869</v>
       </c>
@@ -4227,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>43870</v>
       </c>
@@ -4238,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>43871</v>
       </c>
@@ -4249,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43872</v>
       </c>
@@ -4260,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>43873</v>
       </c>
@@ -4271,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>43874</v>
       </c>
@@ -4282,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>43875</v>
       </c>
@@ -4293,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>43876</v>
       </c>
@@ -4304,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>43877</v>
       </c>
@@ -4315,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>43878</v>
       </c>
@@ -4326,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>43879</v>
       </c>
@@ -4337,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>43880</v>
       </c>
@@ -4348,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>43881</v>
       </c>
@@ -4359,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>43882</v>
       </c>
@@ -4370,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>43883</v>
       </c>
@@ -4381,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>43884</v>
       </c>
@@ -4392,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>43885</v>
       </c>
@@ -4403,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>43886</v>
       </c>
@@ -4414,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>43887</v>
       </c>
@@ -4425,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>43888</v>
       </c>
@@ -4436,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>43889</v>
       </c>
@@ -4447,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>43890</v>
       </c>
@@ -4458,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>43891</v>
       </c>
@@ -4469,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>43892</v>
       </c>
@@ -4480,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>43893</v>
       </c>
@@ -4491,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>43894</v>
       </c>
@@ -4502,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>43895</v>
       </c>
@@ -4513,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>43896</v>
       </c>
@@ -4524,7 +4519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>43897</v>
       </c>
@@ -4535,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>43898</v>
       </c>
@@ -4546,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>43899</v>
       </c>
@@ -4557,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>43900</v>
       </c>
@@ -4568,7 +4563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>43901</v>
       </c>
@@ -4579,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>43902</v>
       </c>
@@ -4590,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>43903</v>
       </c>
@@ -4601,7 +4596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>43904</v>
       </c>
@@ -4612,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>43905</v>
       </c>
@@ -4623,7 +4618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>43906</v>
       </c>
@@ -4634,7 +4629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>43907</v>
       </c>
@@ -4645,7 +4640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>43908</v>
       </c>
@@ -4656,7 +4651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>43909</v>
       </c>
@@ -4667,7 +4662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>43910</v>
       </c>
@@ -4678,7 +4673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>43911</v>
       </c>
@@ -4689,7 +4684,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>43912</v>
       </c>
@@ -4700,7 +4695,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>43913</v>
       </c>
@@ -4711,7 +4706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>43914</v>
       </c>
@@ -4722,7 +4717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>43915</v>
       </c>
@@ -4733,7 +4728,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>43916</v>
       </c>
@@ -4744,7 +4739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>43917</v>
       </c>
@@ -4755,7 +4750,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>43918</v>
       </c>
@@ -4766,7 +4761,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>43919</v>
       </c>
@@ -4777,7 +4772,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>43920</v>
       </c>
@@ -4788,7 +4783,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>43921</v>
       </c>
@@ -4799,7 +4794,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>43922</v>
       </c>
@@ -4810,7 +4805,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>43923</v>
       </c>
@@ -4821,7 +4816,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>43924</v>
       </c>
@@ -4832,7 +4827,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>43925</v>
       </c>
@@ -4843,7 +4838,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>43926</v>
       </c>
@@ -4854,37 +4849,37 @@
         <v>708</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>43927</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>43928</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>43929</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>43930</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>43931</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>43932</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>43933</v>
       </c>
@@ -4911,7 +4906,7 @@
       <selection activeCell="C22" sqref="B2:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="8" customWidth="1"/>
@@ -4919,7 +4914,7 @@
     <col min="4" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="170">
+    <row r="1" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>317</v>
       </c>
@@ -4930,7 +4925,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -4941,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -4952,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -4963,7 +4958,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -4974,7 +4969,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -4985,7 +4980,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -4996,7 +4991,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -5007,7 +5002,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -5018,7 +5013,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -5029,7 +5024,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -5040,7 +5035,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -5051,7 +5046,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -5062,7 +5057,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -5073,7 +5068,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -5084,7 +5079,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -5095,7 +5090,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -5106,7 +5101,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -5117,7 +5112,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -5128,7 +5123,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -5139,7 +5134,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -5150,7 +5145,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -5183,7 +5178,7 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="10" bestFit="1" customWidth="1"/>
@@ -5193,7 +5188,7 @@
     <col min="7" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="68">
+    <row r="1" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>317</v>
       </c>
@@ -5207,7 +5202,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
@@ -5221,7 +5216,7 @@
         <v>2.3722458400227202E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -5235,7 +5230,7 @@
         <v>1.32905378016121E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -5249,7 +5244,7 @@
         <v>2.7683021103459102E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
@@ -5263,7 +5258,7 @@
         <v>5.9421612308889897E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -5277,7 +5272,7 @@
         <v>9.4061131337053795E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -5291,7 +5286,7 @@
         <v>1.22116449024625E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
@@ -5305,7 +5300,7 @@
         <v>1.74496544750293E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
@@ -5319,7 +5314,7 @@
         <v>2.3869666845092401E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
@@ -5333,7 +5328,7 @@
         <v>3.9402680780452703E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
@@ -5347,7 +5342,7 @@
         <v>5.9906418526633501E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>32</v>
       </c>
@@ -5361,7 +5356,7 @@
         <v>8.5059441930317695E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -5375,7 +5370,7 @@
         <v>1.26668575743058E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
@@ -5389,7 +5384,7 @@
         <v>2.0472533414662599E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>35</v>
       </c>
@@ -5403,7 +5398,7 @@
         <v>3.4000512436294603E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>36</v>
       </c>
@@ -5417,7 +5412,7 @@
         <v>4.9617484749088298E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>37</v>
       </c>
@@ -5431,7 +5426,7 @@
         <v>8.7449779441565906E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>38</v>
       </c>
@@ -5445,7 +5440,7 @@
         <v>1.6171761126065301E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>39</v>
       </c>
@@ -5459,7 +5454,7 @@
         <v>2.9461103089733202E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>40</v>
       </c>
@@ -5473,7 +5468,7 @@
         <v>4.9738551978041395E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>41</v>
       </c>
@@ -5487,7 +5482,7 @@
         <v>8.9717264255251901E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
@@ -5522,10 +5517,10 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.33203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="8" bestFit="1" customWidth="1"/>
@@ -5536,7 +5531,7 @@
     <col min="7" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
@@ -5556,7 +5551,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>134</v>
       </c>
@@ -5570,7 +5565,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>135</v>
       </c>
@@ -5584,7 +5579,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>323</v>
       </c>
@@ -5598,7 +5593,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>302</v>
       </c>
@@ -5615,7 +5610,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>303</v>
       </c>
@@ -5632,7 +5627,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17">
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>301</v>
       </c>
@@ -5649,53 +5644,53 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="46" customFormat="1">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44">
-        <v>1</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="45" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="46" customFormat="1">
-      <c r="A9" s="43" t="s">
+      <c r="F9" s="44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="47">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="45" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="46">
+        <v>5</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="45" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="46" customFormat="1">
-      <c r="A10" s="43" t="s">
-        <v>355</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="47">
-        <v>5</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="44" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5722,7 +5717,7 @@
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{CB814818-B5CA-A746-A079-0D54DE38C760}">
       <formula1>1</formula1>
-      <formula2>100</formula2>
+      <formula2>10000</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{86EA7129-76D5-C14C-A270-6059C886D569}">
       <formula1>0.01</formula1>
@@ -5744,7 +5739,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="8" bestFit="1" customWidth="1"/>
@@ -5755,7 +5750,7 @@
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
@@ -5775,7 +5770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>297</v>
       </c>
@@ -5791,7 +5786,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>58</v>
       </c>
@@ -5808,7 +5803,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
@@ -5859,10 +5854,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
@@ -5873,7 +5868,7 @@
     <col min="8" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
@@ -5890,7 +5885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>55</v>
       </c>
@@ -5907,7 +5902,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>324</v>
       </c>
@@ -5924,7 +5919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>325</v>
       </c>
@@ -5941,7 +5936,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
         <v>326</v>
       </c>
@@ -5956,7 +5951,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>62</v>
       </c>
@@ -5973,7 +5968,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>327</v>
       </c>
@@ -5990,7 +5985,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
         <v>66</v>
       </c>
@@ -6007,7 +6002,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>68</v>
       </c>
@@ -6024,7 +6019,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>70</v>
       </c>
@@ -6041,21 +6036,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="50" t="s">
-        <v>358</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>356</v>
       </c>
       <c r="B11" s="51">
         <v>50</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6097,10 +6092,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="8" bestFit="1" customWidth="1"/>
@@ -6110,7 +6105,7 @@
     <col min="6" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
@@ -6127,7 +6122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>309</v>
       </c>
@@ -6144,7 +6139,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>310</v>
       </c>
@@ -6161,7 +6156,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>311</v>
       </c>
@@ -6178,7 +6173,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>132</v>
       </c>
@@ -6195,7 +6190,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>335</v>
       </c>
@@ -6209,14 +6204,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="52" t="s">
-        <v>361</v>
-      </c>
-      <c r="B7" s="53">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="6">
         <v>35</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -6226,31 +6221,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="52" t="s">
-        <v>362</v>
-      </c>
-      <c r="B8" s="53">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="6">
         <v>35</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="52" t="s">
-        <v>364</v>
-      </c>
-      <c r="B9" s="53">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" s="6">
         <v>50</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -6260,31 +6255,31 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="B10" s="53">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="6">
         <v>50</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="52" t="s">
-        <v>367</v>
-      </c>
-      <c r="B11" s="53">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="6">
         <v>55</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -6294,31 +6289,31 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="52" t="s">
-        <v>368</v>
-      </c>
-      <c r="B12" s="53">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="6">
         <v>55</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="B13" s="53">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" s="6">
         <v>75</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -6328,24 +6323,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="B14" s="53">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" s="6">
         <v>75</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>85</v>
       </c>
@@ -6362,7 +6357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>86</v>
       </c>
@@ -6379,7 +6374,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>328</v>
       </c>
@@ -6396,7 +6391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>329</v>
       </c>
@@ -6413,7 +6408,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>330</v>
       </c>
@@ -6462,11 +6457,11 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="8" customWidth="1"/>
@@ -6477,7 +6472,7 @@
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1">
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>91</v>
       </c>
@@ -6497,7 +6492,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>133</v>
       </c>
@@ -6507,7 +6502,7 @@
       <c r="E2" s="28"/>
       <c r="F2" s="29"/>
     </row>
-    <row r="3" spans="1:6" ht="18" thickBot="1">
+    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="36" t="s">
         <v>102</v>
@@ -6525,7 +6520,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>312</v>
       </c>
@@ -6535,7 +6530,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:6" ht="17">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="38" t="s">
         <v>331</v>
@@ -6551,7 +6546,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" thickBot="1">
+    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="38" t="s">
         <v>319</v>
@@ -6569,7 +6564,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>313</v>
       </c>
@@ -6579,7 +6574,7 @@
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
     </row>
-    <row r="8" spans="1:6" ht="17">
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="36" t="s">
         <v>116</v>
@@ -6597,7 +6592,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34">
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="38" t="s">
         <v>332</v>
@@ -6615,7 +6610,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34">
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="36" t="s">
         <v>117</v>
@@ -6633,7 +6628,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="35" thickBot="1">
+    <row r="11" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="39" t="s">
         <v>118</v>
@@ -6651,25 +6646,25 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="28"/>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:6" ht="18" thickBot="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="39" t="s">
+    <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="58">
         <v>100</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="59" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="22" t="s">
@@ -6679,25 +6674,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="34"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
     </row>
-    <row r="15" spans="1:6" ht="18" thickBot="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="58">
         <v>20</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="59" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="22" t="s">
@@ -6707,53 +6702,53 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="54" t="s">
-        <v>384</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="28"/>
       <c r="F16" s="29"/>
     </row>
-    <row r="17" spans="1:6" ht="18" thickBot="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="59" t="s">
-        <v>385</v>
-      </c>
-      <c r="C17" s="67">
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="C17" s="62">
         <v>15</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="59" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="28"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:6" ht="17">
-      <c r="A19" s="18"/>
-      <c r="B19" s="36" t="s">
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="63"/>
+      <c r="B19" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="51">
         <v>85</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -6763,15 +6758,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="35" thickBot="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="39" t="s">
+    <row r="20" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
+      <c r="B20" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="58">
         <v>10</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="59" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="22" t="s">
@@ -6781,25 +6776,25 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="34"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="28"/>
       <c r="F21" s="29"/>
     </row>
-    <row r="22" spans="1:6" ht="17">
-      <c r="A22" s="18"/>
-      <c r="B22" s="36" t="s">
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="63"/>
+      <c r="B22" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="51">
         <v>85</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="19" t="s">
@@ -6809,15 +6804,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="39" t="s">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="56"/>
+      <c r="B23" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="58">
         <v>20</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="59" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="22" t="s">
@@ -6827,25 +6822,25 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="52" t="s">
         <v>304</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="34"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="28"/>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="1:6" ht="17">
-      <c r="A25" s="18"/>
-      <c r="B25" s="36" t="s">
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="63"/>
+      <c r="B25" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="51">
         <v>95</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="19" t="s">
@@ -6855,15 +6850,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="39" t="s">
+    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="58">
         <v>70</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="59" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="22" t="s">
@@ -6873,25 +6868,25 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="25" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="34"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="28"/>
       <c r="F27" s="29"/>
     </row>
-    <row r="28" spans="1:6" ht="18" thickBot="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="39" t="s">
+    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="58">
         <v>50</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="59" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="22" t="s">
@@ -6901,25 +6896,25 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="25" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="34"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="28"/>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="1:6" ht="17">
-      <c r="A30" s="18"/>
-      <c r="B30" s="36" t="s">
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="63"/>
+      <c r="B30" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="51">
         <v>4</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="64" t="s">
         <v>98</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -6929,15 +6924,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17">
-      <c r="A31" s="18"/>
-      <c r="B31" s="36" t="s">
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="63"/>
+      <c r="B31" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="51">
         <v>60</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E31" s="19" t="s">
@@ -6947,15 +6942,15 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" thickBot="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="39" t="s">
+    <row r="32" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="35" t="s">
+      <c r="C32" s="58">
+        <v>0</v>
+      </c>
+      <c r="D32" s="59" t="s">
         <v>52</v>
       </c>
       <c r="E32" s="22" t="s">
@@ -6965,25 +6960,25 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="25" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="34"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="28"/>
       <c r="F33" s="29"/>
     </row>
-    <row r="34" spans="1:6" ht="17">
-      <c r="A34" s="18"/>
-      <c r="B34" s="36" t="s">
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="63"/>
+      <c r="B34" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="51">
         <v>80</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="19" t="s">
@@ -6993,15 +6988,15 @@
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17">
-      <c r="A35" s="18"/>
-      <c r="B35" s="36" t="s">
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="63"/>
+      <c r="B35" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="51">
         <v>14</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="64" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="19" t="s">
@@ -7011,15 +7006,15 @@
         <v>342</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17">
-      <c r="A36" s="18"/>
-      <c r="B36" s="36" t="s">
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="63"/>
+      <c r="B36" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="65">
         <v>20</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="64" t="s">
         <v>110</v>
       </c>
       <c r="E36" s="19" t="s">
@@ -7029,15 +7024,15 @@
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" thickBot="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="39" t="s">
+    <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="B37" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="58">
         <v>60</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="59" t="s">
         <v>110</v>
       </c>
       <c r="E37" s="22" t="s">
@@ -7047,76 +7042,76 @@
         <v>344</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="54" t="s">
-        <v>373</v>
-      </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="28"/>
       <c r="F38" s="29"/>
     </row>
-    <row r="39" spans="1:6" ht="34">
-      <c r="A39" s="58"/>
-      <c r="B39" s="59" t="s">
-        <v>374</v>
-      </c>
-      <c r="C39" s="60">
+    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="63"/>
+      <c r="B39" s="61" t="s">
+        <v>372</v>
+      </c>
+      <c r="C39" s="66">
         <v>82</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="67" t="s">
         <v>52</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="34">
-      <c r="A40" s="52"/>
-      <c r="B40" s="59" t="s">
-        <v>376</v>
-      </c>
-      <c r="C40" s="60">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="61" t="s">
+        <v>374</v>
+      </c>
+      <c r="C40" s="66">
         <v>64</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="67" t="s">
         <v>52</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="34">
-      <c r="A41" s="58"/>
-      <c r="B41" s="59" t="s">
-        <v>378</v>
-      </c>
-      <c r="C41" s="60">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="63"/>
+      <c r="B41" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="C41" s="66">
         <v>82</v>
       </c>
-      <c r="D41" s="61" t="s">
+      <c r="D41" s="67" t="s">
         <v>52</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="34">
-      <c r="A42" s="58"/>
-      <c r="B42" s="62" t="s">
-        <v>380</v>
-      </c>
-      <c r="C42" s="63">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="63"/>
+      <c r="B42" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="C42" s="68">
         <v>64</v>
       </c>
       <c r="D42" s="64" t="s">
@@ -7126,25 +7121,25 @@
         <v>47</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" thickBot="1">
-      <c r="A43" s="65"/>
-      <c r="B43" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="C43" s="67">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
+      <c r="B43" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="C43" s="62">
         <v>87</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="59" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>47</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E4BA1F-04EC-0E4A-8ECE-2ED42B7482DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE176F-BE94-D544-B122-58D1E0CFA07B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="-37880" yWindow="-1300" windowWidth="30560" windowHeight="20980" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Interventions Param'!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="476">
   <si>
     <t>0-5 y.o.</t>
   </si>
@@ -205,18 +206,9 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Relative infectiousness of incubation phase:</t>
-  </si>
-  <si>
     <t>individuals</t>
   </si>
   <si>
-    <t>Mean number of infectious migrants per day:</t>
-  </si>
-  <si>
-    <t>Mean Household size:</t>
-  </si>
-  <si>
     <t>nui</t>
   </si>
   <si>
@@ -226,9 +218,6 @@
     <t>phi</t>
   </si>
   <si>
-    <t>Annual variation in infectivity of the virus:</t>
-  </si>
-  <si>
     <t>amp</t>
   </si>
   <si>
@@ -238,21 +227,12 @@
     <t>years</t>
   </si>
   <si>
-    <t>Probability upon infection of developing clinical symptoms:</t>
-  </si>
-  <si>
     <t>pclin</t>
   </si>
   <si>
-    <t>Probability upon hospitalisation of requiring ICU admission:</t>
-  </si>
-  <si>
     <t>prob_icu</t>
   </si>
   <si>
-    <t>Probability upon admission to the ICU of requiring a ventilator:</t>
-  </si>
-  <si>
     <t>prob_vent</t>
   </si>
   <si>
@@ -442,12 +422,6 @@
     <t>Self-isolation if Symptomatic</t>
   </si>
   <si>
-    <t>Date range of simulation / Start:</t>
-  </si>
-  <si>
-    <t>Date range of simulation / End:</t>
-  </si>
-  <si>
     <t>date_range_simul</t>
   </si>
   <si>
@@ -931,9 +905,6 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Social Contacts Data:</t>
-  </si>
-  <si>
     <t>Value_Country</t>
   </si>
   <si>
@@ -943,11 +914,26 @@
     <t>country_contact</t>
   </si>
   <si>
-    <t>Percentage of all hospitalisations that are reported:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Percentage of all </t>
+    <t>Shielding the Elderly</t>
+  </si>
+  <si>
+    <t>Intervention</t>
+  </si>
+  <si>
+    <t>Apply to</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date End</t>
+  </si>
+  <si>
+    <t>Maximum number of hospital surge beds</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maximum number of ICU beds </t>
     </r>
     <r>
       <rPr>
@@ -958,7 +944,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>asymptomatic</t>
+      <t>without</t>
     </r>
     <r>
       <rPr>
@@ -968,12 +954,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> infections that are reported:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Percentage of all </t>
+      <t xml:space="preserve"> ventilators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maximum number of ICU beds </t>
     </r>
     <r>
       <rPr>
@@ -984,7 +970,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>symptomatic</t>
+      <t>with</t>
     </r>
     <r>
       <rPr>
@@ -994,86 +980,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> infections that are reported:</t>
-    </r>
-  </si>
-  <si>
-    <t>Shielding the Elderly</t>
-  </si>
-  <si>
-    <t>Intervention</t>
-  </si>
-  <si>
-    <t>Apply to</t>
-  </si>
-  <si>
-    <t>Date Start</t>
-  </si>
-  <si>
-    <t>Date End</t>
-  </si>
-  <si>
-    <t>Maximum number of hospital surge beds</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Maximum number of ICU beds </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>without</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> ventilators</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Maximum number of ICU beds </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>with</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ventilators</t>
-    </r>
-  </si>
-  <si>
-    <t>Screening (when S.I.)</t>
-  </si>
-  <si>
-    <t>Household Isolation (when S.I.)</t>
-  </si>
-  <si>
     <t>International Travel Ban</t>
   </si>
   <si>
@@ -1101,21 +1011,6 @@
     <t>Efficacy: (0-25%)</t>
   </si>
   <si>
-    <t>Probability of infection given contact: (0 to 0.2)</t>
-  </si>
-  <si>
-    <t>Average incubation period: (1 to 7 days)</t>
-  </si>
-  <si>
-    <t>Average duration of symptomatic infection period: (1 to 7 days)</t>
-  </si>
-  <si>
-    <t>Month of peak infectivity of the virus: (1, 2, …, 12)</t>
-  </si>
-  <si>
-    <t>Average duration of immunity: (0.5 to 150)</t>
-  </si>
-  <si>
     <t>Duration of hospitalised infection: (1 to 30)</t>
   </si>
   <si>
@@ -1134,9 +1029,6 @@
     <t>Minimum age for elderly shielding: (0 to 100)</t>
   </si>
   <si>
-    <t>Time to reach target coverage: (1 to 52)</t>
-  </si>
-  <si>
     <t>Scaling factor for infection hospitalisation rate: (0.1 to 5)</t>
   </si>
   <si>
@@ -1195,9 +1087,6 @@
   </si>
   <si>
     <t>Confidence (5 to 25)</t>
-  </si>
-  <si>
-    <t>New in v15:</t>
   </si>
   <si>
     <t>Proportion of hospitalised patients needing O2</t>
@@ -1327,16 +1216,1602 @@
     <t>Iterations (1 to 10,000)</t>
   </si>
   <si>
-    <t>Template v15.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">New in v15.3 </t>
   </si>
   <si>
     <t>Iterations can be set to 10,000 (previousely limit was 100)</t>
   </si>
   <si>
-    <t>New in v15.2:</t>
+    <t>init</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>reporth_g</t>
+  </si>
+  <si>
+    <t>reporth_ICU</t>
+  </si>
+  <si>
+    <t>report_v</t>
+  </si>
+  <si>
+    <t>report_vr</t>
+  </si>
+  <si>
+    <t>report_r</t>
+  </si>
+  <si>
+    <t>report_cv</t>
+  </si>
+  <si>
+    <t>report_cvr</t>
+  </si>
+  <si>
+    <t>report_cr</t>
+  </si>
+  <si>
+    <t>report_natdeathI</t>
+  </si>
+  <si>
+    <t>report_natdeathCL</t>
+  </si>
+  <si>
+    <t>report_death_HC</t>
+  </si>
+  <si>
+    <t>pclin_v</t>
+  </si>
+  <si>
+    <t>pclin_vr</t>
+  </si>
+  <si>
+    <t>pclin_r</t>
+  </si>
+  <si>
+    <t>prob_icu_v</t>
+  </si>
+  <si>
+    <t>prob_icu_vr</t>
+  </si>
+  <si>
+    <t>prob_icu_r</t>
+  </si>
+  <si>
+    <t>prob_v_v</t>
+  </si>
+  <si>
+    <t>prob_v_vr</t>
+  </si>
+  <si>
+    <t>prob_v_r</t>
+  </si>
+  <si>
+    <t>sigmaR</t>
+  </si>
+  <si>
+    <t>sigmaEV</t>
+  </si>
+  <si>
+    <t>sigmaER</t>
+  </si>
+  <si>
+    <t>sigmaEVR</t>
+  </si>
+  <si>
+    <t>seroneg</t>
+  </si>
+  <si>
+    <t>pdeath_vent_hc</t>
+  </si>
+  <si>
+    <t>pdeath_icu_hc</t>
+  </si>
+  <si>
+    <t>pdeath_icu_hco</t>
+  </si>
+  <si>
+    <t>Template v16.2</t>
+  </si>
+  <si>
+    <t>New in v16.2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">(v16.2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Density of exposed people at start date (expressed as 1/X)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">(v16.2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proportion of population with partial immunity at the start date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Percentage of all people dying outside the hospital with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asymptomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections reported as covid-deaths</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">(v16.2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Percentage of all people dying outside the hospital with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>symptomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections reported as covid-deaths</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Percentage of all people dying outside the hospital with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>severe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections reported as covid-deaths</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability upon infection of developing clinical symptoms if previously </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vaccinated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability upon infection of developing clinical symptoms if previously </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vaccinated and exposed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability upon infection of developing clinical symptoms if previously </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>infected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability upon hospitalisation of requiring ICU admission if previously </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vaccinated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability upon hospitalisation of requiring ICU admission if previously </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vaccinated and exposed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability upon hospitalisation of requiring ICU admission if previously </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>infected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability upon admission to the ICU of requiring a ventilator if previously </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vaccinated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">(v16.2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Probability upon admission to the ICU of requiring a ventilator if previously </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vaccinated and exposed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">(v16.2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Probability upon admission to the ICU of requiring a ventilator if previously </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>infected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">(v16.2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Probability of infection of people that have recovered from a previous infection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Change in probability of requiring hospitalisation if previously </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vaccinated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Change in probability of requiring hospitalisation if previously </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>infected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Change in probability of requiring hospitalisation if previously</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infected and vaccinated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Days from seropositve to seronegative </t>
+    </r>
+  </si>
+  <si>
+    <t>Relative infectiousness of incubation phase</t>
+  </si>
+  <si>
+    <t>Average incubation period (1 to 7 days)</t>
+  </si>
+  <si>
+    <t>Average duration of symptomatic infection period (1 to 7 days)</t>
+  </si>
+  <si>
+    <t>Month of peak infectivity of the virus (1, 2, …, 12)</t>
+  </si>
+  <si>
+    <t>Annual variation in infectivity of the virus</t>
+  </si>
+  <si>
+    <t>Average duration of immunity (0.5 to 150)</t>
+  </si>
+  <si>
+    <t>Probability upon infection of developing clinical symptoms</t>
+  </si>
+  <si>
+    <t>Probability upon hospitalisation of requiring ICU admission</t>
+  </si>
+  <si>
+    <t>Probability upon admission to the ICU of requiring a ventilator</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Percentage of all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>symptomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections in previously </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>infected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> people that are reported</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Percentage of all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>symptomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections in previously </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>vaccinated and exposed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> people that are reported</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Percentage of all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>symptomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections in previously </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>vaccinated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> people that are reported</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Percentage of all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asymptomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections in previously </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>infected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> people that are reported</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Percentage of all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asymptomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections in previously </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>vaccinated and exposed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> people that are reported</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">(v16.2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Percentage of all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asymptomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections in previously </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>vaccinated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> people that are reported</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Percentage of </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>severe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hospitalisations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that are appropriately treated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2) (Previousely Percentage of all hospitalisations that are reported)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Percentage of </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>non-severe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hospitalisations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that are appropriately treated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">(v16.2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Percentage of denied </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hospitalisations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that are reported</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Percentage of all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>symptomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections that are reported</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Percentage of all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asymptomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infections that are reported</t>
+    </r>
+  </si>
+  <si>
+    <t>Probability of infection given contact (0 to 0.2)</t>
+  </si>
+  <si>
+    <t>Date range of simulation - START</t>
+  </si>
+  <si>
+    <t>Date range of simulation - END</t>
+  </si>
+  <si>
+    <t>Social Contacts Data</t>
+  </si>
+  <si>
+    <t>Mean Household size</t>
+  </si>
+  <si>
+    <t>Mean number of infectious migrants per day</t>
+  </si>
+  <si>
+    <t>Time to reach target coverage (1 to 52)</t>
+  </si>
+  <si>
+    <t>age_vaccine_max</t>
+  </si>
+  <si>
+    <t>vac_dur</t>
+  </si>
+  <si>
+    <t>vac_dur_r</t>
+  </si>
+  <si>
+    <t>vaccine_eff_r</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Duration of efficacious period if previously infected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Duration of efficacious period</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Maximum Age for vaccination</t>
+    </r>
+  </si>
+  <si>
+    <t>Efficacy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Efficacy if previously infected</t>
+    </r>
+  </si>
+  <si>
+    <t>(*Vaccination) Age Vaccine Maximum</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability of dying when ventilator required and not going to hospital:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">(v16.2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Probability of dying when icu required (not O2) and not going to hospital:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(v16.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability of dying when icu required (req O2) and not going to hospital:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interventions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sheet. Added </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*Vaccination) Age Vaccine Maximum.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Virus Param</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sheet. Several new parameters added.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interventions Param</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sheet. New parameters for Vaccination intervention.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hospitalisation Param</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sheet. New parameters added.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sheet. Several new parameters added. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reporth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is now </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Percentage of non-severe hospitalisations that are appropriately treated</t>
+    </r>
+  </si>
+  <si>
+    <t>New in v15.2</t>
+  </si>
+  <si>
+    <t>New in v15</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +2822,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1420,8 +2895,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1462,6 +2955,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1558,7 +3057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1571,9 +3070,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1582,11 +3078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1633,21 +3125,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1696,8 +3179,91 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2013,98 +3579,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="76.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21">
       <c r="A2" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="69" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="59" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="34">
+      <c r="A8" s="38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17">
+      <c r="A9" s="38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="17">
+      <c r="A10" s="38" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17">
+      <c r="A11" s="38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="84" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" s="39" customFormat="1">
+      <c r="A15" s="40" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="85" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>349</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="34">
+      <c r="A19" s="38" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="34">
+      <c r="A20" s="38" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="68">
+      <c r="A21" s="38" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="38"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="85" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2119,9 +3715,11 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
@@ -2132,15 +3730,15 @@
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>45</v>
@@ -2149,12 +3747,12 @@
         <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B2" s="7">
         <v>43876</v>
@@ -2166,16 +3764,16 @@
         <v>30</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f>IF(A2="","",VLOOKUP(A2,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A2="","",VLOOKUP(A2,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B3" s="7">
         <v>43937</v>
@@ -2187,16 +3785,16 @@
         <v>60</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f>IF(A3="","",VLOOKUP(A3,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A3="","",VLOOKUP(A3,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B4" s="7">
         <v>43876</v>
@@ -2208,16 +3806,16 @@
         <v>60</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f>IF(A4="","",VLOOKUP(A4,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A4="","",VLOOKUP(A4,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="B5" s="7">
         <v>43876</v>
@@ -2229,16 +3827,16 @@
         <v>60</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>IF(A5="","",VLOOKUP(A5,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A5="","",VLOOKUP(A5,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>contacts</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="B6" s="7">
         <v>43876</v>
@@ -2250,16 +3848,16 @@
         <v>50</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f>IF(A6="","",VLOOKUP(A6,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A6="","",VLOOKUP(A6,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B7" s="7">
         <v>43876</v>
@@ -2271,16 +3869,16 @@
         <v>30</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f>IF(A7="","",VLOOKUP(A7,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A7="","",VLOOKUP(A7,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B8" s="7">
         <v>43937</v>
@@ -2292,16 +3890,16 @@
         <v>60</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f>IF(A8="","",VLOOKUP(A8,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A8="","",VLOOKUP(A8,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B9" s="7">
         <v>43876</v>
@@ -2313,16 +3911,16 @@
         <v>60</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f>IF(A9="","",VLOOKUP(A9,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A9="","",VLOOKUP(A9,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="B10" s="7">
         <v>43876</v>
@@ -2334,16 +3932,16 @@
         <v>60</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f>IF(A10="","",VLOOKUP(A10,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A10="","",VLOOKUP(A10,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>contacts</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="B11" s="7">
         <v>43876</v>
@@ -2355,16 +3953,16 @@
         <v>50</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f>IF(A11="","",VLOOKUP(A11,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A11="","",VLOOKUP(A11,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B12" s="7">
         <v>43876</v>
@@ -2376,16 +3974,16 @@
         <v>100</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f>IF(A12="","",VLOOKUP(A12,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A12="","",VLOOKUP(A12,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B13" s="7">
         <v>43866</v>
@@ -2397,16 +3995,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f>IF(A13="","",VLOOKUP(A13,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A13="","",VLOOKUP(A13,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B14" s="7">
         <v>43891</v>
@@ -2418,16 +4016,16 @@
         <v>30</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f>IF(A14="","",VLOOKUP(A14,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A14="","",VLOOKUP(A14,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>tests</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="B15" s="7">
         <v>43891</v>
@@ -2439,16 +4037,16 @@
         <v>15</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f>IF(A15="","",VLOOKUP(A15,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A15="","",VLOOKUP(A15,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="B16" s="7">
         <v>43910</v>
@@ -2460,16 +4058,16 @@
         <v>30</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f>IF(A16="","",VLOOKUP(A16,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A16="","",VLOOKUP(A16,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B17" s="7">
         <v>43983</v>
@@ -2481,16 +4079,16 @@
         <v>70</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f>IF(A17="","",VLOOKUP(A17,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A17="","",VLOOKUP(A17,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>%</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="B18" s="7">
         <v>43983</v>
@@ -2502,317 +4100,327 @@
         <v>40</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f>IF(A18="","",VLOOKUP(A18,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A18="","",VLOOKUP(A18,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v>y.o.</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="1"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B19" s="7">
+        <v>43983</v>
+      </c>
+      <c r="C19" s="7">
+        <v>44012</v>
+      </c>
+      <c r="D19" s="1">
+        <v>90</v>
+      </c>
       <c r="E19" s="2" t="str">
-        <f>IF(A19="","",VLOOKUP(A19,HIDDEN!$E$2:$F$17,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <f>IF(A19="","",VLOOKUP(A19,HIDDEN!$E$2:$F$18,2,FALSE))</f>
+        <v>y.o.</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="str">
-        <f>IF(A20="","",VLOOKUP(A20,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A20="","",VLOOKUP(A20,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="str">
-        <f>IF(A21="","",VLOOKUP(A21,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A21="","",VLOOKUP(A21,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="str">
-        <f>IF(A22="","",VLOOKUP(A22,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A22="","",VLOOKUP(A22,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2" t="str">
-        <f>IF(A23="","",VLOOKUP(A23,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A23="","",VLOOKUP(A23,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2" t="str">
-        <f>IF(A24="","",VLOOKUP(A24,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A24="","",VLOOKUP(A24,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2" t="str">
-        <f>IF(A25="","",VLOOKUP(A25,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A25="","",VLOOKUP(A25,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2" t="str">
-        <f>IF(A26="","",VLOOKUP(A26,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A26="","",VLOOKUP(A26,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2" t="str">
-        <f>IF(A27="","",VLOOKUP(A27,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A27="","",VLOOKUP(A27,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2" t="str">
-        <f>IF(A28="","",VLOOKUP(A28,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A28="","",VLOOKUP(A28,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2" t="str">
-        <f>IF(A29="","",VLOOKUP(A29,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A29="","",VLOOKUP(A29,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2" t="str">
-        <f>IF(A30="","",VLOOKUP(A30,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A30="","",VLOOKUP(A30,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2" t="str">
-        <f>IF(A31="","",VLOOKUP(A31,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A31="","",VLOOKUP(A31,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2" t="str">
-        <f>IF(A32="","",VLOOKUP(A32,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A32="","",VLOOKUP(A32,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="str">
-        <f>IF(A33="","",VLOOKUP(A33,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A33="","",VLOOKUP(A33,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2" t="str">
-        <f>IF(A34="","",VLOOKUP(A34,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A34="","",VLOOKUP(A34,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="str">
-        <f>IF(A35="","",VLOOKUP(A35,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A35="","",VLOOKUP(A35,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="1"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2" t="str">
-        <f>IF(A36="","",VLOOKUP(A36,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A36="","",VLOOKUP(A36,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2" t="str">
-        <f>IF(A37="","",VLOOKUP(A37,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A37="","",VLOOKUP(A37,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="1"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2" t="str">
-        <f>IF(A38="","",VLOOKUP(A38,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A38="","",VLOOKUP(A38,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2" t="str">
-        <f>IF(A39="","",VLOOKUP(A39,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A39="","",VLOOKUP(A39,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2" t="str">
-        <f>IF(A40="","",VLOOKUP(A40,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A40="","",VLOOKUP(A40,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2" t="str">
-        <f>IF(A41="","",VLOOKUP(A41,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A41="","",VLOOKUP(A41,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2" t="str">
-        <f>IF(A42="","",VLOOKUP(A42,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A42="","",VLOOKUP(A42,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="str">
-        <f>IF(A43="","",VLOOKUP(A43,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A43="","",VLOOKUP(A43,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2" t="str">
-        <f>IF(A44="","",VLOOKUP(A44,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A44="","",VLOOKUP(A44,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2" t="str">
-        <f>IF(A45="","",VLOOKUP(A45,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A45="","",VLOOKUP(A45,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2" t="str">
-        <f>IF(A46="","",VLOOKUP(A46,HIDDEN!$E$2:$F$17,2,FALSE))</f>
+        <f>IF(A46="","",VLOOKUP(A46,HIDDEN!$E$2:$F$18,2,FALSE))</f>
         <v/>
       </c>
       <c r="F46" s="1"/>
@@ -2828,17 +4436,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8111968A-8FE9-DE4F-AE93-5F28872C16C3}">
-          <x14:formula1>
-            <xm:f>HIDDEN!$E$2:$E$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A46</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{440D4135-AD3D-9D45-A472-9BA444A2B9DA}">
           <x14:formula1>
             <xm:f>HIDDEN!$I$2:$I$3</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8111968A-8FE9-DE4F-AE93-5F28872C16C3}">
+          <x14:formula1>
+            <xm:f>HIDDEN!$E$2:$E$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2851,902 +4459,908 @@
   <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="39.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="C4" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="C5" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="C6" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="C8" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="C9" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="C10" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="C11" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="C12" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="C13" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>340</v>
+        <v>465</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="C14" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="C15" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="C16" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
       <c r="C17" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6">
       <c r="C18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="2" t="s">
+    <row r="29" spans="3:6">
+      <c r="C29" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
+    <row r="30" spans="3:6">
+      <c r="C30" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="2" t="s">
+    <row r="31" spans="3:6">
+      <c r="C31" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="2" t="s">
+    <row r="32" spans="3:6">
+      <c r="C32" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="2" t="s">
+    <row r="33" spans="3:3">
+      <c r="C33" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25" s="2" t="s">
+    <row r="34" spans="3:3">
+      <c r="C34" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="2" t="s">
+    <row r="35" spans="3:3">
+      <c r="C35" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="2" t="s">
+    <row r="36" spans="3:3">
+      <c r="C36" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="2" t="s">
+    <row r="37" spans="3:3">
+      <c r="C37" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="2" t="s">
+    <row r="38" spans="3:3">
+      <c r="C38" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="2" t="s">
+    <row r="39" spans="3:3">
+      <c r="C39" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="2" t="s">
+    <row r="40" spans="3:3">
+      <c r="C40" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="2" t="s">
+    <row r="41" spans="3:3">
+      <c r="C41" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="2" t="s">
+    <row r="42" spans="3:3">
+      <c r="C42" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="2" t="s">
+    <row r="43" spans="3:3">
+      <c r="C43" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="2" t="s">
+    <row r="44" spans="3:3">
+      <c r="C44" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="2" t="s">
+    <row r="45" spans="3:3">
+      <c r="C45" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="2" t="s">
+    <row r="46" spans="3:3">
+      <c r="C46" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="2" t="s">
+    <row r="47" spans="3:3">
+      <c r="C47" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="2" t="s">
+    <row r="48" spans="3:3">
+      <c r="C48" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="2" t="s">
+    <row r="49" spans="3:3">
+      <c r="C49" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="2" t="s">
+    <row r="50" spans="3:3">
+      <c r="C50" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="2" t="s">
+    <row r="51" spans="3:3">
+      <c r="C51" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="2" t="s">
+    <row r="52" spans="3:3">
+      <c r="C52" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="2" t="s">
+    <row r="53" spans="3:3">
+      <c r="C53" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="2" t="s">
+    <row r="54" spans="3:3">
+      <c r="C54" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="2" t="s">
+    <row r="55" spans="3:3">
+      <c r="C55" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="2" t="s">
+    <row r="56" spans="3:3">
+      <c r="C56" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="2" t="s">
+    <row r="57" spans="3:3">
+      <c r="C57" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="2" t="s">
+    <row r="58" spans="3:3">
+      <c r="C58" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="2" t="s">
+    <row r="59" spans="3:3">
+      <c r="C59" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="2" t="s">
+    <row r="60" spans="3:3">
+      <c r="C60" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="2" t="s">
+    <row r="61" spans="3:3">
+      <c r="C61" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="2" t="s">
+    <row r="62" spans="3:3">
+      <c r="C62" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="2" t="s">
+    <row r="63" spans="3:3">
+      <c r="C63" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="2" t="s">
+    <row r="64" spans="3:3">
+      <c r="C64" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="2" t="s">
+    <row r="65" spans="3:3">
+      <c r="C65" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="2" t="s">
+    <row r="66" spans="3:3">
+      <c r="C66" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="2" t="s">
+    <row r="67" spans="3:3">
+      <c r="C67" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="2" t="s">
+    <row r="68" spans="3:3">
+      <c r="C68" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="2" t="s">
+    <row r="69" spans="3:3">
+      <c r="C69" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="2" t="s">
+    <row r="70" spans="3:3">
+      <c r="C70" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="2" t="s">
+    <row r="71" spans="3:3">
+      <c r="C71" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="2" t="s">
+    <row r="72" spans="3:3">
+      <c r="C72" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="2" t="s">
+    <row r="73" spans="3:3">
+      <c r="C73" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="2" t="s">
+    <row r="74" spans="3:3">
+      <c r="C74" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="2" t="s">
+    <row r="75" spans="3:3">
+      <c r="C75" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="2" t="s">
+    <row r="76" spans="3:3">
+      <c r="C76" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="2" t="s">
+    <row r="77" spans="3:3">
+      <c r="C77" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="2" t="s">
+    <row r="78" spans="3:3">
+      <c r="C78" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="2" t="s">
+    <row r="79" spans="3:3">
+      <c r="C79" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="2" t="s">
+    <row r="80" spans="3:3">
+      <c r="C80" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="2" t="s">
+    <row r="81" spans="3:3">
+      <c r="C81" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="2" t="s">
+    <row r="82" spans="3:3">
+      <c r="C82" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="2" t="s">
+    <row r="83" spans="3:3">
+      <c r="C83" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="2" t="s">
+    <row r="84" spans="3:3">
+      <c r="C84" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="2" t="s">
+    <row r="85" spans="3:3">
+      <c r="C85" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="2" t="s">
+    <row r="86" spans="3:3">
+      <c r="C86" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="2" t="s">
+    <row r="87" spans="3:3">
+      <c r="C87" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="2" t="s">
+    <row r="88" spans="3:3">
+      <c r="C88" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="2" t="s">
+    <row r="89" spans="3:3">
+      <c r="C89" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="2" t="s">
+    <row r="90" spans="3:3">
+      <c r="C90" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="2" t="s">
+    <row r="91" spans="3:3">
+      <c r="C91" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="2" t="s">
+    <row r="92" spans="3:3">
+      <c r="C92" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="2" t="s">
+    <row r="93" spans="3:3">
+      <c r="C93" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="2" t="s">
+    <row r="94" spans="3:3">
+      <c r="C94" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="2" t="s">
+    <row r="95" spans="3:3">
+      <c r="C95" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="2" t="s">
+    <row r="96" spans="3:3">
+      <c r="C96" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="2" t="s">
+    <row r="97" spans="3:3">
+      <c r="C97" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="2" t="s">
+    <row r="98" spans="3:3">
+      <c r="C98" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="2" t="s">
+    <row r="99" spans="3:3">
+      <c r="C99" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="2" t="s">
+    <row r="100" spans="3:3">
+      <c r="C100" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="2" t="s">
+    <row r="101" spans="3:3">
+      <c r="C101" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="2" t="s">
+    <row r="102" spans="3:3">
+      <c r="C102" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="2" t="s">
+    <row r="103" spans="3:3">
+      <c r="C103" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="2" t="s">
+    <row r="104" spans="3:3">
+      <c r="C104" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="2" t="s">
+    <row r="105" spans="3:3">
+      <c r="C105" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="2" t="s">
+    <row r="106" spans="3:3">
+      <c r="C106" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="2" t="s">
+    <row r="107" spans="3:3">
+      <c r="C107" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="2" t="s">
+    <row r="108" spans="3:3">
+      <c r="C108" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="2" t="s">
+    <row r="109" spans="3:3">
+      <c r="C109" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="2" t="s">
+    <row r="110" spans="3:3">
+      <c r="C110" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="2" t="s">
+    <row r="111" spans="3:3">
+      <c r="C111" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C103" s="2" t="s">
+    <row r="112" spans="3:3">
+      <c r="C112" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C104" s="2" t="s">
+    <row r="113" spans="3:3">
+      <c r="C113" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C105" s="2" t="s">
+    <row r="114" spans="3:3">
+      <c r="C114" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C106" s="2" t="s">
+    <row r="115" spans="3:3">
+      <c r="C115" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C107" s="2" t="s">
+    <row r="116" spans="3:3">
+      <c r="C116" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C108" s="2" t="s">
+    <row r="117" spans="3:3">
+      <c r="C117" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C109" s="2" t="s">
+    <row r="118" spans="3:3">
+      <c r="C118" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C110" s="2" t="s">
+    <row r="119" spans="3:3">
+      <c r="C119" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C111" s="2" t="s">
+    <row r="120" spans="3:3">
+      <c r="C120" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C112" s="2" t="s">
+    <row r="121" spans="3:3">
+      <c r="C121" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C113" s="2" t="s">
+    <row r="122" spans="3:3">
+      <c r="C122" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C114" s="2" t="s">
+    <row r="123" spans="3:3">
+      <c r="C123" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C115" s="2" t="s">
+    <row r="124" spans="3:3">
+      <c r="C124" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C116" s="2" t="s">
+    <row r="125" spans="3:3">
+      <c r="C125" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C117" s="2" t="s">
+    <row r="126" spans="3:3">
+      <c r="C126" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C118" s="2" t="s">
+    <row r="127" spans="3:3">
+      <c r="C127" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C119" s="2" t="s">
+    <row r="128" spans="3:3">
+      <c r="C128" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C120" s="2" t="s">
+    <row r="129" spans="3:3">
+      <c r="C129" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C121" s="2" t="s">
+    <row r="130" spans="3:3">
+      <c r="C130" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C122" s="2" t="s">
+    <row r="131" spans="3:3">
+      <c r="C131" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C123" s="2" t="s">
+    <row r="132" spans="3:3">
+      <c r="C132" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C124" s="2" t="s">
+    <row r="133" spans="3:3">
+      <c r="C133" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C125" s="2" t="s">
+    <row r="134" spans="3:3">
+      <c r="C134" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C126" s="2" t="s">
+    <row r="135" spans="3:3">
+      <c r="C135" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C127" s="2" t="s">
+    <row r="136" spans="3:3">
+      <c r="C136" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C128" s="2" t="s">
+    <row r="137" spans="3:3">
+      <c r="C137" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C129" s="2" t="s">
+    <row r="138" spans="3:3">
+      <c r="C138" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C130" s="2" t="s">
+    <row r="139" spans="3:3">
+      <c r="C139" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C131" s="2" t="s">
+    <row r="140" spans="3:3">
+      <c r="C140" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C132" s="2" t="s">
+    <row r="141" spans="3:3">
+      <c r="C141" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C133" s="2" t="s">
+    <row r="142" spans="3:3">
+      <c r="C142" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C134" s="2" t="s">
+    <row r="143" spans="3:3">
+      <c r="C143" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C135" s="2" t="s">
+    <row r="144" spans="3:3">
+      <c r="C144" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C136" s="2" t="s">
+    <row r="145" spans="3:3">
+      <c r="C145" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C137" s="2" t="s">
+    <row r="146" spans="3:3">
+      <c r="C146" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C138" s="2" t="s">
+    <row r="147" spans="3:3">
+      <c r="C147" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C139" s="2" t="s">
+    <row r="148" spans="3:3">
+      <c r="C148" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C140" s="2" t="s">
+    <row r="149" spans="3:3">
+      <c r="C149" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C141" s="2" t="s">
+    <row r="150" spans="3:3">
+      <c r="C150" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C142" s="2" t="s">
+    <row r="151" spans="3:3">
+      <c r="C151" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C143" s="2" t="s">
+    <row r="152" spans="3:3">
+      <c r="C152" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C144" s="2" t="s">
+    <row r="153" spans="3:3">
+      <c r="C153" s="2" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C145" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C146" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C147" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C148" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C149" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C150" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C151" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C152" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C153" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3765,24 +5379,24 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="3" width="11" style="1"/>
     <col min="4" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="68">
+      <c r="A1" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="7">
         <v>43830</v>
       </c>
@@ -3793,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="7">
         <v>43831</v>
       </c>
@@ -3804,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="7">
         <v>43832</v>
       </c>
@@ -3815,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="7">
         <v>43833</v>
       </c>
@@ -3826,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="7">
         <v>43834</v>
       </c>
@@ -3837,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="7">
         <v>43835</v>
       </c>
@@ -3848,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="7">
         <v>43836</v>
       </c>
@@ -3859,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="7">
         <v>43837</v>
       </c>
@@ -3870,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="7">
         <v>43838</v>
       </c>
@@ -3881,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="7">
         <v>43839</v>
       </c>
@@ -3892,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="7">
         <v>43840</v>
       </c>
@@ -3903,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="7">
         <v>43841</v>
       </c>
@@ -3914,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="7">
         <v>43842</v>
       </c>
@@ -3925,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="7">
         <v>43843</v>
       </c>
@@ -3936,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="7">
         <v>43844</v>
       </c>
@@ -3947,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="7">
         <v>43845</v>
       </c>
@@ -3958,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="7">
         <v>43846</v>
       </c>
@@ -3969,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="7">
         <v>43847</v>
       </c>
@@ -3980,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="7">
         <v>43848</v>
       </c>
@@ -3991,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="7">
         <v>43849</v>
       </c>
@@ -4002,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="7">
         <v>43850</v>
       </c>
@@ -4013,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="7">
         <v>43851</v>
       </c>
@@ -4024,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="7">
         <v>43852</v>
       </c>
@@ -4035,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="7">
         <v>43853</v>
       </c>
@@ -4046,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="7">
         <v>43854</v>
       </c>
@@ -4057,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="7">
         <v>43855</v>
       </c>
@@ -4068,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="7">
         <v>43856</v>
       </c>
@@ -4079,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="7">
         <v>43857</v>
       </c>
@@ -4090,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="7">
         <v>43858</v>
       </c>
@@ -4101,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="7">
         <v>43859</v>
       </c>
@@ -4112,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="7">
         <v>43860</v>
       </c>
@@ -4123,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="7">
         <v>43861</v>
       </c>
@@ -4134,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="7">
         <v>43862</v>
       </c>
@@ -4145,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="7">
         <v>43863</v>
       </c>
@@ -4156,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="7">
         <v>43864</v>
       </c>
@@ -4167,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="7">
         <v>43865</v>
       </c>
@@ -4178,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="7">
         <v>43866</v>
       </c>
@@ -4189,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="7">
         <v>43867</v>
       </c>
@@ -4200,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="7">
         <v>43868</v>
       </c>
@@ -4211,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="7">
         <v>43869</v>
       </c>
@@ -4222,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="7">
         <v>43870</v>
       </c>
@@ -4233,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="7">
         <v>43871</v>
       </c>
@@ -4244,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="7">
         <v>43872</v>
       </c>
@@ -4255,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="7">
         <v>43873</v>
       </c>
@@ -4266,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="7">
         <v>43874</v>
       </c>
@@ -4277,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="7">
         <v>43875</v>
       </c>
@@ -4288,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="7">
         <v>43876</v>
       </c>
@@ -4299,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="7">
         <v>43877</v>
       </c>
@@ -4310,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="7">
         <v>43878</v>
       </c>
@@ -4321,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="7">
         <v>43879</v>
       </c>
@@ -4332,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="7">
         <v>43880</v>
       </c>
@@ -4343,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="7">
         <v>43881</v>
       </c>
@@ -4354,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="7">
         <v>43882</v>
       </c>
@@ -4365,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="7">
         <v>43883</v>
       </c>
@@ -4376,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="7">
         <v>43884</v>
       </c>
@@ -4387,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="7">
         <v>43885</v>
       </c>
@@ -4398,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="7">
         <v>43886</v>
       </c>
@@ -4409,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="7">
         <v>43887</v>
       </c>
@@ -4420,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="7">
         <v>43888</v>
       </c>
@@ -4431,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="7">
         <v>43889</v>
       </c>
@@ -4442,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="7">
         <v>43890</v>
       </c>
@@ -4453,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="7">
         <v>43891</v>
       </c>
@@ -4464,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="7">
         <v>43892</v>
       </c>
@@ -4475,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="7">
         <v>43893</v>
       </c>
@@ -4486,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="7">
         <v>43894</v>
       </c>
@@ -4497,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="7">
         <v>43895</v>
       </c>
@@ -4508,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="7">
         <v>43896</v>
       </c>
@@ -4519,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="7">
         <v>43897</v>
       </c>
@@ -4530,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="7">
         <v>43898</v>
       </c>
@@ -4541,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="7">
         <v>43899</v>
       </c>
@@ -4552,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="7">
         <v>43900</v>
       </c>
@@ -4563,7 +6177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="7">
         <v>43901</v>
       </c>
@@ -4574,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="7">
         <v>43902</v>
       </c>
@@ -4585,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="7">
         <v>43903</v>
       </c>
@@ -4596,7 +6210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="7">
         <v>43904</v>
       </c>
@@ -4607,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="7">
         <v>43905</v>
       </c>
@@ -4618,7 +6232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="7">
         <v>43906</v>
       </c>
@@ -4629,7 +6243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="7">
         <v>43907</v>
       </c>
@@ -4640,7 +6254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="7">
         <v>43908</v>
       </c>
@@ -4651,7 +6265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="7">
         <v>43909</v>
       </c>
@@ -4662,7 +6276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="7">
         <v>43910</v>
       </c>
@@ -4673,7 +6287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="7">
         <v>43911</v>
       </c>
@@ -4684,7 +6298,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="7">
         <v>43912</v>
       </c>
@@ -4695,7 +6309,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="7">
         <v>43913</v>
       </c>
@@ -4706,7 +6320,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="7">
         <v>43914</v>
       </c>
@@ -4717,7 +6331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="7">
         <v>43915</v>
       </c>
@@ -4728,7 +6342,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="7">
         <v>43916</v>
       </c>
@@ -4739,7 +6353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="7">
         <v>43917</v>
       </c>
@@ -4750,7 +6364,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="7">
         <v>43918</v>
       </c>
@@ -4761,7 +6375,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="7">
         <v>43919</v>
       </c>
@@ -4772,7 +6386,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="7">
         <v>43920</v>
       </c>
@@ -4783,7 +6397,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="7">
         <v>43921</v>
       </c>
@@ -4794,7 +6408,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="7">
         <v>43922</v>
       </c>
@@ -4805,7 +6419,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="7">
         <v>43923</v>
       </c>
@@ -4816,7 +6430,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="7">
         <v>43924</v>
       </c>
@@ -4827,7 +6441,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="7">
         <v>43925</v>
       </c>
@@ -4838,7 +6452,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="7">
         <v>43926</v>
       </c>
@@ -4849,37 +6463,37 @@
         <v>708</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="7">
         <v>43927</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="7">
         <v>43928</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="7">
         <v>43929</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="7">
         <v>43930</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="7">
         <v>43931</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="7">
         <v>43932</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="7">
         <v>43933</v>
       </c>
@@ -4903,10 +6517,10 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C22" sqref="B2:C22"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="8" customWidth="1"/>
@@ -4914,245 +6528,245 @@
     <col min="4" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="170">
+      <c r="A1" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="87">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="87">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="87">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="87">
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="87">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="87">
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="87">
         <v>3.1E-2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="87">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="87">
         <v>3.1E-2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="87">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="87">
         <v>0.26</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="87">
         <v>3.43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="87">
         <v>0.26</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="87">
         <v>3.43</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="87">
         <v>0.48</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="87">
         <v>4.25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="87">
         <v>0.48</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="87">
         <v>4.25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="87">
         <v>0.6</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="87">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="87">
         <v>0.6</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="87">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="87">
         <v>1.9</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="87">
         <v>11.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="87">
         <v>1.9</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="87">
         <v>11.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="87">
         <v>4.3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="87">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="87">
         <v>4.3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="87">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="87">
         <v>7.8</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="87">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="87">
         <v>7.8</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="87">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="87">
         <v>7.8</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="87">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="87">
         <v>7.8</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="87">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="87">
         <v>7.8</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="87">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -5175,324 +6789,324 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
-    <col min="4" max="5" width="11" style="10"/>
-    <col min="6" max="6" width="11.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="10"/>
+    <col min="1" max="1" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="9" customWidth="1"/>
+    <col min="4" max="5" width="11" style="9"/>
+    <col min="6" max="6" width="11.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:4" ht="68">
+      <c r="A1" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="88">
         <v>3924000</v>
       </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="C2" s="89">
+        <v>0</v>
+      </c>
+      <c r="D2" s="89">
         <v>2.3722458400227202E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="88">
         <v>4120000</v>
       </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C3" s="89">
+        <v>0</v>
+      </c>
+      <c r="D3" s="89">
         <v>1.32905378016121E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="88">
         <v>3956000</v>
       </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="89">
+        <v>0</v>
+      </c>
+      <c r="D4" s="89">
         <v>2.7683021103459102E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="88">
         <v>3686000</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="89">
         <v>1.82721457849836E-5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="89">
         <v>5.9421612308889897E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="88">
         <v>4075000</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="89">
         <v>7.3367682442901998E-5</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="89">
         <v>9.4061131337053795E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="88">
         <v>4484000</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="89">
         <v>1.2968766886415199E-4</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="89">
         <v>1.22116449024625E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="88">
         <v>4707000</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="89">
         <v>1.4518112523224401E-4</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="89">
         <v>1.74496544750293E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="88">
         <v>4588000</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="89">
         <v>8.5692103973881797E-5</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="89">
         <v>2.3869666845092401E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="88">
         <v>4308000</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="89">
         <v>1.9320024124609101E-5</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="89">
         <v>3.9402680780452703E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="88">
         <v>4296000</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="89">
         <v>1.2746046495028399E-6</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="89">
         <v>5.9906418526633501E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="88">
         <v>4635000</v>
       </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="C12" s="89">
+        <v>0</v>
+      </c>
+      <c r="D12" s="89">
         <v>8.5059441930317695E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="88">
         <v>4539000</v>
       </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="C13" s="89">
+        <v>0</v>
+      </c>
+      <c r="D13" s="89">
         <v>1.26668575743058E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="88">
         <v>3905000</v>
       </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C14" s="89">
+        <v>0</v>
+      </c>
+      <c r="D14" s="89">
         <v>2.0472533414662599E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="88">
         <v>3382000</v>
       </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C15" s="89">
+        <v>0</v>
+      </c>
+      <c r="D15" s="89">
         <v>3.4000512436294603E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="88">
         <v>3388000</v>
       </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="C16" s="89">
+        <v>0</v>
+      </c>
+      <c r="D16" s="89">
         <v>4.9617484749088298E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="88">
         <v>2442000</v>
       </c>
-      <c r="C17" s="12">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="C17" s="89">
+        <v>0</v>
+      </c>
+      <c r="D17" s="89">
         <v>8.7449779441565906E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="88">
         <v>1737000</v>
       </c>
-      <c r="C18" s="12">
-        <v>0</v>
-      </c>
-      <c r="D18" s="12">
+      <c r="C18" s="89">
+        <v>0</v>
+      </c>
+      <c r="D18" s="89">
         <v>1.6171761126065301E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="88">
         <v>1078000</v>
       </c>
-      <c r="C19" s="12">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="C19" s="89">
+        <v>0</v>
+      </c>
+      <c r="D19" s="89">
         <v>2.9461103089733202E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="88">
         <v>491000</v>
       </c>
-      <c r="C20" s="12">
-        <v>0</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="C20" s="89">
+        <v>0</v>
+      </c>
+      <c r="D20" s="89">
         <v>4.9738551978041395E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="88">
         <v>130000</v>
       </c>
-      <c r="C21" s="12">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="C21" s="89">
+        <v>0</v>
+      </c>
+      <c r="D21" s="89">
         <v>8.9717264255251901E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="88">
         <v>16000</v>
       </c>
-      <c r="C22" s="12">
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="C22" s="89">
+        <v>0</v>
+      </c>
+      <c r="D22" s="89">
         <v>7.2895277207392197E-3</v>
       </c>
     </row>
@@ -5514,214 +7128,459 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:6" ht="17">
+      <c r="A2" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="62">
         <v>43862</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17">
+      <c r="A3" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" s="62">
         <v>44196</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
+      <c r="A4" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70">
+        <v>5000000</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="73" customFormat="1" ht="17">
+      <c r="A5" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="71">
+        <v>25</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
+      <c r="A6" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="63">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="F6" s="60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
+      <c r="A7" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="63">
         <v>2.5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D7" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E7" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="F7" s="60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17">
+      <c r="A8" s="64" t="s">
+        <v>447</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="63">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D8" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E8" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="1">
-        <v>50</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="F8" s="60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17">
+      <c r="A9" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="63">
+        <v>10</v>
+      </c>
+      <c r="D9" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E9" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43">
+      <c r="F9" s="67" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34">
+      <c r="A10" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="63">
+        <v>90</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17">
+      <c r="A11" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="63">
+        <v>90</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34">
+      <c r="A12" s="64" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="63">
+        <v>0</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34">
+      <c r="A13" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="63">
+        <v>0</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34">
+      <c r="A14" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="63">
+        <v>0</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="34">
+      <c r="A15" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="63">
+        <v>0</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34">
+      <c r="A16" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="63">
+        <v>0</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="34">
+      <c r="A17" s="64" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="63">
+        <v>0</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34">
+      <c r="A18" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="63">
+        <v>5</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34">
+      <c r="A19" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="63">
+        <v>10</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34">
+      <c r="A20" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="63">
+        <v>10</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="67" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17">
+      <c r="A21" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66">
         <v>1</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="44" t="s">
+      <c r="D21" s="65"/>
+      <c r="E21" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="46">
+      <c r="F21" s="67" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17">
+      <c r="A22" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="68">
         <v>0.1</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="44" t="s">
+      <c r="D22" s="65"/>
+      <c r="E22" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="44" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="46">
+      <c r="F22" s="67" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17">
+      <c r="A23" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="68">
         <v>5</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D23" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E23" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="44" t="s">
-        <v>338</v>
+      <c r="F23" s="67" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{B93D921B-ACCD-B540-B62C-AE19092FA296}">
+  <dataValidations count="8">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{B93D921B-ACCD-B540-B62C-AE19092FA296}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C7" xr:uid="{25C6410D-5F17-2B45-9B47-570BD4117291}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C20 C7:C8" xr:uid="{25C6410D-5F17-2B45-9B47-570BD4117291}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{2B543E6D-BE7D-744F-84D2-DB111310B6BA}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C3:C5 C4" xr:uid="{2B543E6D-BE7D-744F-84D2-DB111310B6BA}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{57FC95D5-98D8-714B-ACBA-F89D3090C305}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{439241F6-0612-BB4B-B5E3-5B6C55F0B4B9}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5 B4:B5" xr:uid="{439241F6-0612-BB4B-B5E3-5B6C55F0B4B9}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{CB814818-B5CA-A746-A079-0D54DE38C760}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{CB814818-B5CA-A746-A079-0D54DE38C760}">
       <formula1>1</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{86EA7129-76D5-C14C-A270-6059C886D569}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22" xr:uid="{86EA7129-76D5-C14C-A270-6059C886D569}">
       <formula1>0.01</formula1>
       <formula2>0.2</formula2>
+    </dataValidation>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{78CD2674-E3BD-A948-BA00-EAB323BF1DDA}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5736,10 +7595,10 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="38.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="8" bestFit="1" customWidth="1"/>
@@ -5750,73 +7609,73 @@
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>297</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
+        <v>452</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>58</v>
+        <v>453</v>
       </c>
       <c r="C3" s="1">
         <v>2.8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>57</v>
+        <v>454</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5851,16 +7710,16 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="53.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" style="8"/>
     <col min="6" max="6" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
@@ -5868,193 +7727,431 @@
     <col min="8" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:5" ht="17">
+      <c r="A2" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="77">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17">
+      <c r="A3" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="77">
+        <v>3.5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17">
+      <c r="A4" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4" s="77">
+        <v>4.5</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17">
+      <c r="A5" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5" s="77">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17">
+      <c r="A6" s="75" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" s="77">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17">
+      <c r="A7" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="B7" s="77">
+        <v>150</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17">
+      <c r="A8" s="75" t="s">
+        <v>435</v>
+      </c>
+      <c r="B8" s="77">
         <v>55</v>
       </c>
-      <c r="B2" s="12">
-        <v>10</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="B3" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="E8" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17">
+      <c r="A9" s="75" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9" s="77">
+        <v>50</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17">
+      <c r="A10" s="75" t="s">
+        <v>437</v>
+      </c>
+      <c r="B10" s="77">
+        <v>75</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17">
+      <c r="A11" s="75" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="78">
+        <v>50</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34">
+      <c r="A12" s="75" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="79">
+        <v>50</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34">
+      <c r="A13" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13" s="79">
+        <v>50</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34">
+      <c r="A14" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" s="79">
+        <v>50</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="34">
+      <c r="A15" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="B15" s="79">
+        <v>50</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34">
+      <c r="A16" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" s="79">
+        <v>50</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34">
+      <c r="A17" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" s="79">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34">
+      <c r="A18" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18" s="79">
+        <v>50</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34">
+      <c r="A19" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="B19" s="79">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="74" customFormat="1" ht="34">
+      <c r="A20" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" s="81">
+        <v>50</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="74" customFormat="1" ht="34">
+      <c r="A21" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="B21" s="81">
+        <v>0</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="74" customFormat="1" ht="17" customHeight="1">
+      <c r="A22" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="B22" s="81">
+        <v>100</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="74" customFormat="1" ht="17" customHeight="1">
+      <c r="A23" s="75" t="s">
+        <v>426</v>
+      </c>
+      <c r="B23" s="81">
+        <v>100</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="82" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="74" customFormat="1" ht="34">
+      <c r="A24" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" s="81">
+        <v>100</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="74" customFormat="1" ht="17">
+      <c r="A25" s="75" t="s">
+        <v>428</v>
+      </c>
+      <c r="B25" s="81">
+        <v>100</v>
+      </c>
+      <c r="C25" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D25" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
-        <v>325</v>
-      </c>
-      <c r="B4" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" s="12">
-        <v>150</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="12">
-        <v>55</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="12">
-        <v>50</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="12">
-        <v>75</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="B11" s="51">
-        <v>50</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>357</v>
+      <c r="E25" s="82" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="6">
+  <dataValidations disablePrompts="1" count="9">
     <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{655A6F57-9369-8648-9632-8EF8EA8EE8F3}">
       <formula1>1</formula1>
       <formula2>7</formula2>
@@ -6071,11 +8168,23 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B6 B9:B10 B11" xr:uid="{2A8D3FDB-25E9-4D83-8EB8-DB3DA49C3FD5}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B6 B9:B11" xr:uid="{2A8D3FDB-25E9-4D83-8EB8-DB3DA49C3FD5}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
     <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{8F3E5C67-D800-4809-ADCB-28B1A2CF8532}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{DA7244EE-BE51-4049-BB8E-0CDA7F9807DB}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B20" xr:uid="{76B0C274-5496-DC47-8C90-4246D47B237A}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B24" xr:uid="{13A91A11-EBC3-1F48-ACB3-D0D10E968369}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -6089,15 +8198,15 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="54.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
@@ -6105,77 +8214,77 @@
     <col min="6" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="41">
+        <v>296</v>
+      </c>
+      <c r="B2" s="37">
         <v>160000</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B3" s="41">
+        <v>297</v>
+      </c>
+      <c r="B3" s="37">
         <v>8000</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B4" s="41">
+        <v>298</v>
+      </c>
+      <c r="B4" s="37">
         <v>8000</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
@@ -6183,166 +8292,166 @@
       <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>359</v>
+      <c r="E6" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="B7" s="6">
         <v>35</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>360</v>
+      <c r="E7" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>338</v>
       </c>
       <c r="B8" s="6">
         <v>35</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>362</v>
+      <c r="E8" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="B9" s="6">
         <v>50</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>363</v>
+      <c r="E9" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>341</v>
       </c>
       <c r="B10" s="6">
         <v>50</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>365</v>
+      <c r="E10" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13" t="s">
+        <v>343</v>
       </c>
       <c r="B11" s="6">
         <v>55</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>366</v>
+      <c r="E11" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13" t="s">
+        <v>344</v>
       </c>
       <c r="B12" s="6">
         <v>55</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>368</v>
+      <c r="E12" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="13" t="s">
+        <v>346</v>
       </c>
       <c r="B13" s="6">
         <v>75</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>369</v>
+      <c r="E13" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="B14" s="6">
         <v>75</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1">
         <v>80</v>
@@ -6350,16 +8459,16 @@
       <c r="C15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="B16" s="1">
         <v>95</v>
@@ -6367,62 +8476,113 @@
       <c r="C16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B17" s="1">
+        <v>466</v>
+      </c>
+      <c r="B17">
+        <v>95</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18">
+        <v>95</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B19">
+        <v>95</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="E20" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="E21" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>82</v>
+      <c r="E22" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6433,7 +8593,7 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{B281495F-DB35-47BB-9D76-CFF630A4B4E7}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B5 B15:B16 B7:B14" xr:uid="{5D60B908-FEDB-4FEF-A945-3CA55E06C223}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B5 B7:B19" xr:uid="{5D60B908-FEDB-4FEF-A945-3CA55E06C223}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -6441,7 +8601,7 @@
       <formula1>0.1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B17:B19" xr:uid="{6C0631D2-5E94-0E44-AEDA-62F22487E25D}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B20:B22" xr:uid="{6C0631D2-5E94-0E44-AEDA-62F22487E25D}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
@@ -6455,13 +8615,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="35" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="8" customWidth="1"/>
@@ -6472,678 +8632,750 @@
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" ht="17" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" thickBot="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="11">
+        <v>50</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" ht="17">
+      <c r="A5" s="18"/>
+      <c r="B5" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="28">
+        <v>4</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" thickBot="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="28">
+        <v>80</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="17">
+      <c r="A8" s="15"/>
+      <c r="B8" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="11">
+        <v>14</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34">
+      <c r="A9" s="15"/>
+      <c r="B9" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="28">
+        <v>2</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34">
+      <c r="A10" s="15"/>
+      <c r="B10" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="11">
+        <v>20</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="35" thickBot="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="29">
+        <v>100</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" thickBot="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="48">
+        <v>100</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" thickBot="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="48">
+        <v>20</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" thickBot="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" s="52">
+        <v>15</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" ht="17">
+      <c r="A19" s="53"/>
+      <c r="B19" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="41">
+        <v>85</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="35" thickBot="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="48">
+        <v>10</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" ht="17">
+      <c r="A22" s="53"/>
+      <c r="B22" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="41">
+        <v>85</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" thickBot="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="48">
+        <v>20</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" ht="17">
+      <c r="A25" s="53"/>
+      <c r="B25" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="41">
+        <v>95</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" thickBot="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="48">
+        <v>70</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" thickBot="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="48">
+        <v>50</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="1:6" ht="17">
+      <c r="A30" s="53"/>
+      <c r="B30" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="C30" s="41">
+        <v>4</v>
+      </c>
+      <c r="D30" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="12">
-        <v>50</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="E30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17">
+      <c r="A31" s="53"/>
+      <c r="B31" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" s="41">
+        <v>10</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17">
+      <c r="A32" s="53"/>
+      <c r="B32" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" s="11">
+        <v>100</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17">
+      <c r="A33" s="53"/>
+      <c r="B33" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="C33" s="11">
+        <v>100</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="34">
+      <c r="A34" s="53"/>
+      <c r="B34" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="C34" s="11">
+        <v>100</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17">
+      <c r="A35" s="53"/>
+      <c r="B35" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C35" s="83">
+        <v>100</v>
+      </c>
+      <c r="D35" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E35" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="C5" s="31">
-        <v>4</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" s="31">
-        <v>80</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="F35" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" thickBot="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="C36" s="29">
+        <v>100</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>52</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="12">
-        <v>14</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="31">
-        <v>2</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="12">
-        <v>20</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="32">
-        <v>100</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="58">
-        <v>100</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="C15" s="58">
-        <v>20</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
-        <v>382</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="61" t="s">
-        <v>383</v>
-      </c>
-      <c r="C17" s="62">
-        <v>15</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="51">
-        <v>85</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="58">
-        <v>10</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="B22" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="51">
-        <v>85</v>
-      </c>
-      <c r="D22" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="58">
-        <v>20</v>
-      </c>
-      <c r="D23" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
-      <c r="B25" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="51">
-        <v>95</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57" t="s">
-        <v>333</v>
-      </c>
-      <c r="C26" s="58">
-        <v>70</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="58">
-        <v>50</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="C30" s="51">
-        <v>4</v>
-      </c>
-      <c r="D30" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="C31" s="51">
-        <v>60</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="58">
-        <v>0</v>
-      </c>
-      <c r="D32" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
-        <v>340</v>
-      </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="63"/>
-      <c r="B34" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="C34" s="51">
-        <v>80</v>
-      </c>
-      <c r="D34" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
-      <c r="B35" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="C35" s="51">
-        <v>14</v>
-      </c>
-      <c r="D35" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
-      <c r="B36" s="60" t="s">
-        <v>347</v>
-      </c>
-      <c r="C36" s="65">
-        <v>20</v>
-      </c>
-      <c r="D36" s="64" t="s">
-        <v>110</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="C37" s="58">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6" ht="17">
+      <c r="A38" s="53"/>
+      <c r="B38" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C38" s="41">
+        <v>80</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17">
+      <c r="A39" s="53"/>
+      <c r="B39" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" s="41">
+        <v>14</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17">
+      <c r="A40" s="53"/>
+      <c r="B40" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="C40" s="55">
+        <v>20</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" thickBot="1">
+      <c r="A41" s="46"/>
+      <c r="B41" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="C41" s="48">
         <v>60</v>
       </c>
-      <c r="D37" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="22" t="s">
+      <c r="D41" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
-      <c r="B39" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="C39" s="66">
+      <c r="F41" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+    </row>
+    <row r="43" spans="1:6" ht="34">
+      <c r="A43" s="53"/>
+      <c r="B43" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="C43" s="56">
         <v>82</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D43" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E43" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="20" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="61" t="s">
-        <v>374</v>
-      </c>
-      <c r="C40" s="66">
+      <c r="F43" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="34">
+      <c r="A44" s="13"/>
+      <c r="B44" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="C44" s="56">
         <v>64</v>
       </c>
-      <c r="D40" s="67" t="s">
+      <c r="D44" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E44" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
-      <c r="B41" s="61" t="s">
-        <v>376</v>
-      </c>
-      <c r="C41" s="66">
+      <c r="F44" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="34">
+      <c r="A45" s="53"/>
+      <c r="B45" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="C45" s="56">
         <v>82</v>
       </c>
-      <c r="D41" s="67" t="s">
+      <c r="D45" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E45" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
-      <c r="B42" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="C42" s="68">
+      <c r="F45" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="34">
+      <c r="A46" s="53"/>
+      <c r="B46" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="C46" s="58">
         <v>64</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D46" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E46" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="20" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="57" t="s">
-        <v>380</v>
-      </c>
-      <c r="C43" s="62">
+      <c r="F46" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" thickBot="1">
+      <c r="A47" s="46"/>
+      <c r="B47" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="C47" s="52">
         <v>87</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="D47" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E47" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="23" t="s">
-        <v>381</v>
+      <c r="F47" s="20" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="10">
+  <dataValidations count="11">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{BFC4374A-BF4E-D446-B591-ABBA5DFA0D32}">
       <formula1>1</formula1>
       <formula2>5</formula2>
@@ -7152,7 +9384,7 @@
       <formula1>1</formula1>
       <formula2>52</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C22:C23 C28 C10:C11 C32 C25:C26 C19:C20 C13 C34:C37" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C22:C23 C28 C10:C11 C38:C41 C25:C26 C19:C20 C13 C35:C36" xr:uid="{0227A7DA-52BF-41F5-B1CC-7112D8A0D503}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -7176,7 +9408,7 @@
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31 C39:C43" xr:uid="{B3A77258-E555-9644-BB0D-41361904BE89}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:C47 C31:C32" xr:uid="{B3A77258-E555-9644-BB0D-41361904BE89}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -7184,6 +9416,10 @@
       <formula1>0</formula1>
       <formula2>35</formula2>
     </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C34" xr:uid="{7677C1D3-EA04-914A-8C0E-39F794492804}">
+      <formula1>0.08</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE176F-BE94-D544-B122-58D1E0CFA07B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2C6FE-30A4-CC42-B992-CBA317E78FE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37880" yWindow="-1300" windowWidth="30560" windowHeight="20980" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="-38400" yWindow="-1280" windowWidth="26960" windowHeight="21000" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1197,9 +1197,6 @@
     <t>(*Mass Testing) Age Testing Maximum</t>
   </si>
   <si>
-    <t>tests</t>
-  </si>
-  <si>
     <t>contacts</t>
   </si>
   <si>
@@ -2659,6 +2656,139 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Virus Param</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sheet. Several new parameters added.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interventions Param</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sheet. New parameters for Vaccination intervention.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hospitalisation Param</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sheet. New parameters added.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sheet. Several new parameters added. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reporth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is now </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Percentage of non-severe hospitalisations that are appropriately treated</t>
+    </r>
+  </si>
+  <si>
+    <t>New in v15.2</t>
+  </si>
+  <si>
+    <t>New in v15</t>
+  </si>
+  <si>
+    <t>thousand tests</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Interventions</t>
     </r>
     <r>
@@ -2682,136 +2812,16 @@
       </rPr>
       <t>(*Vaccination) Age Vaccine Maximum.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Virus Param</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sheet. Several new parameters added.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Interventions Param</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sheet. New parameters for Vaccination intervention.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hospitalisation Param</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sheet. New parameters added.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Parameters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sheet. Several new parameters added. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reporth</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is now </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Percentage of non-severe hospitalisations that are appropriately treated</t>
-    </r>
-  </si>
-  <si>
-    <t>New in v15.2</t>
-  </si>
-  <si>
-    <t>New in v15</t>
+      <t xml:space="preserve"> Mass Testing unit is now thousand tests allowing to perform up to 100,000 tests.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3582,7 +3592,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3592,7 +3602,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21">
@@ -3617,47 +3627,47 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="34">
       <c r="A8" s="38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17">
       <c r="A9" s="38" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17">
       <c r="A10" s="38" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17">
       <c r="A11" s="38" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
         <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="34">
+      <c r="A12" s="38" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="39" customFormat="1">
       <c r="A15" s="40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="85" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3677,7 +3687,7 @@
     </row>
     <row r="21" spans="1:1" ht="68">
       <c r="A21" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -3685,7 +3695,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="85" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -3716,7 +3726,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4017,7 +4027,7 @@
       </c>
       <c r="E14" s="2" t="str">
         <f>IF(A14="","",VLOOKUP(A14,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v>tests</v>
+        <v>thousand tests</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>301</v>
@@ -4109,7 +4119,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B19" s="7">
         <v>43983</v>
@@ -4459,7 +4469,7 @@
   <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4480,7 +4490,7 @@
         <v>292</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>293</v>
@@ -4514,7 +4524,7 @@
         <v>365</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>301</v>
@@ -4624,7 +4634,7 @@
         <v>147</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>103</v>
@@ -4638,7 +4648,7 @@
         <v>319</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>370</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4690,7 +4700,7 @@
         <v>153</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="3:6">
@@ -7167,7 +7177,7 @@
     </row>
     <row r="2" spans="1:6" ht="17">
       <c r="A2" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B2" s="62">
         <v>43862</v>
@@ -7183,7 +7193,7 @@
     </row>
     <row r="3" spans="1:6" ht="17">
       <c r="A3" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B3" s="62">
         <v>44196</v>
@@ -7199,7 +7209,7 @@
     </row>
     <row r="4" spans="1:6" ht="17">
       <c r="A4" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="70">
@@ -7210,12 +7220,12 @@
         <v>44</v>
       </c>
       <c r="F4" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="73" customFormat="1" ht="17">
       <c r="A5" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="71">
@@ -7228,12 +7238,12 @@
         <v>47</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="63">
@@ -7249,7 +7259,7 @@
     </row>
     <row r="7" spans="1:6" ht="17">
       <c r="A7" s="64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B7" s="61"/>
       <c r="C7" s="63">
@@ -7267,7 +7277,7 @@
     </row>
     <row r="8" spans="1:6" ht="17">
       <c r="A8" s="64" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B8" s="61"/>
       <c r="C8" s="63">
@@ -7285,7 +7295,7 @@
     </row>
     <row r="9" spans="1:6" ht="17">
       <c r="A9" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B9" s="61"/>
       <c r="C9" s="63">
@@ -7298,12 +7308,12 @@
         <v>47</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34">
       <c r="A10" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="63">
@@ -7321,7 +7331,7 @@
     </row>
     <row r="11" spans="1:6" ht="17">
       <c r="A11" s="64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="63">
@@ -7334,12 +7344,12 @@
         <v>47</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34">
       <c r="A12" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B12" s="61"/>
       <c r="C12" s="63">
@@ -7352,12 +7362,12 @@
         <v>47</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34">
       <c r="A13" s="64" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B13" s="61"/>
       <c r="C13" s="63">
@@ -7370,12 +7380,12 @@
         <v>47</v>
       </c>
       <c r="F13" s="67" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34">
       <c r="A14" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B14" s="61"/>
       <c r="C14" s="63">
@@ -7388,12 +7398,12 @@
         <v>47</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34">
       <c r="A15" s="64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B15" s="61"/>
       <c r="C15" s="63">
@@ -7406,12 +7416,12 @@
         <v>47</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34">
       <c r="A16" s="64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B16" s="61"/>
       <c r="C16" s="63">
@@ -7424,12 +7434,12 @@
         <v>47</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34">
       <c r="A17" s="64" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B17" s="61"/>
       <c r="C17" s="63">
@@ -7442,12 +7452,12 @@
         <v>47</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34">
       <c r="A18" s="64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B18" s="61"/>
       <c r="C18" s="63">
@@ -7460,12 +7470,12 @@
         <v>47</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34">
       <c r="A19" s="64" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B19" s="61"/>
       <c r="C19" s="63">
@@ -7478,12 +7488,12 @@
         <v>47</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34">
       <c r="A20" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B20" s="61"/>
       <c r="C20" s="63">
@@ -7496,12 +7506,12 @@
         <v>47</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17">
       <c r="A21" s="72" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B21" s="65"/>
       <c r="C21" s="66">
@@ -7631,7 +7641,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>277</v>
@@ -7647,7 +7657,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C3" s="1">
         <v>2.8</v>
@@ -7664,7 +7674,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -7746,7 +7756,7 @@
     </row>
     <row r="2" spans="1:5" ht="17">
       <c r="A2" s="75" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B2" s="77">
         <v>10</v>
@@ -7763,7 +7773,7 @@
     </row>
     <row r="3" spans="1:5" ht="17">
       <c r="A3" s="75" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B3" s="77">
         <v>3.5</v>
@@ -7780,7 +7790,7 @@
     </row>
     <row r="4" spans="1:5" ht="17">
       <c r="A4" s="75" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B4" s="77">
         <v>4.5</v>
@@ -7797,7 +7807,7 @@
     </row>
     <row r="5" spans="1:5" ht="17">
       <c r="A5" s="75" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B5" s="77">
         <v>1</v>
@@ -7812,7 +7822,7 @@
     </row>
     <row r="6" spans="1:5" ht="17">
       <c r="A6" s="75" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B6" s="77">
         <v>0</v>
@@ -7829,7 +7839,7 @@
     </row>
     <row r="7" spans="1:5" ht="17">
       <c r="A7" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B7" s="77">
         <v>150</v>
@@ -7846,7 +7856,7 @@
     </row>
     <row r="8" spans="1:5" ht="17">
       <c r="A8" s="75" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B8" s="77">
         <v>55</v>
@@ -7863,7 +7873,7 @@
     </row>
     <row r="9" spans="1:5" ht="17">
       <c r="A9" s="75" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B9" s="77">
         <v>50</v>
@@ -7880,7 +7890,7 @@
     </row>
     <row r="10" spans="1:5" ht="17">
       <c r="A10" s="75" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B10" s="77">
         <v>75</v>
@@ -7914,7 +7924,7 @@
     </row>
     <row r="12" spans="1:5" ht="34">
       <c r="A12" s="75" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B12" s="79">
         <v>50</v>
@@ -7926,12 +7936,12 @@
         <v>47</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34">
       <c r="A13" s="75" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B13" s="79">
         <v>50</v>
@@ -7943,12 +7953,12 @@
         <v>47</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34">
       <c r="A14" s="75" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B14" s="79">
         <v>50</v>
@@ -7960,12 +7970,12 @@
         <v>47</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34">
       <c r="A15" s="75" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B15" s="79">
         <v>50</v>
@@ -7977,12 +7987,12 @@
         <v>47</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34">
       <c r="A16" s="75" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B16" s="79">
         <v>50</v>
@@ -7994,12 +8004,12 @@
         <v>47</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="34">
       <c r="A17" s="75" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B17" s="79">
         <v>50</v>
@@ -8011,12 +8021,12 @@
         <v>47</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34">
       <c r="A18" s="75" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B18" s="79">
         <v>50</v>
@@ -8028,12 +8038,12 @@
         <v>47</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34">
       <c r="A19" s="75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B19" s="79">
         <v>50</v>
@@ -8045,12 +8055,12 @@
         <v>47</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="74" customFormat="1" ht="34">
       <c r="A20" s="75" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B20" s="81">
         <v>50</v>
@@ -8062,12 +8072,12 @@
         <v>47</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="74" customFormat="1" ht="34">
       <c r="A21" s="76" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -8079,12 +8089,12 @@
         <v>47</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="74" customFormat="1" ht="17" customHeight="1">
       <c r="A22" s="75" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B22" s="81">
         <v>100</v>
@@ -8096,12 +8106,12 @@
         <v>47</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="74" customFormat="1" ht="17" customHeight="1">
       <c r="A23" s="75" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B23" s="81">
         <v>100</v>
@@ -8113,12 +8123,12 @@
         <v>47</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="74" customFormat="1" ht="34">
       <c r="A24" s="75" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B24" s="81">
         <v>100</v>
@@ -8130,12 +8140,12 @@
         <v>47</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="74" customFormat="1" ht="17">
       <c r="A25" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B25" s="81">
         <v>100</v>
@@ -8147,7 +8157,7 @@
         <v>47</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -8485,7 +8495,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B17">
         <v>95</v>
@@ -8497,12 +8507,12 @@
         <v>47</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B18">
         <v>95</v>
@@ -8514,12 +8524,12 @@
         <v>47</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B19">
         <v>95</v>
@@ -8531,7 +8541,7 @@
         <v>47</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8617,7 +8627,7 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -9069,7 +9079,7 @@
     <row r="30" spans="1:6" ht="17">
       <c r="A30" s="53"/>
       <c r="B30" s="50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C30" s="41">
         <v>4</v>
@@ -9105,7 +9115,7 @@
     <row r="32" spans="1:6" ht="17">
       <c r="A32" s="53"/>
       <c r="B32" s="33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C32" s="11">
         <v>100</v>
@@ -9117,13 +9127,13 @@
         <v>47</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17">
       <c r="A33" s="53"/>
       <c r="B33" s="33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C33" s="11">
         <v>100</v>
@@ -9135,13 +9145,13 @@
         <v>47</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34">
       <c r="A34" s="53"/>
       <c r="B34" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C34" s="11">
         <v>100</v>
@@ -9153,13 +9163,13 @@
         <v>47</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17">
       <c r="A35" s="53"/>
       <c r="B35" s="33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C35" s="83">
         <v>100</v>
@@ -9177,7 +9187,7 @@
     <row r="36" spans="1:6" ht="18" thickBot="1">
       <c r="A36" s="46"/>
       <c r="B36" s="36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C36" s="29">
         <v>100</v>
@@ -9189,7 +9199,7 @@
         <v>47</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:6">

--- a/Template_CoMoCOVID-19App.xlsx
+++ b/Template_CoMoCOVID-19App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2C6FE-30A4-CC42-B992-CBA317E78FE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D256327C-DCE5-644F-B846-4D93A8446C25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1280" windowWidth="26960" windowHeight="21000" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="-38400" yWindow="-1280" windowWidth="26960" windowHeight="21000" tabRatio="648" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1149,9 +1149,6 @@
     <t>dexv</t>
   </si>
   <si>
-    <t>Relative risk of dying if needing  but not receivingO2 and taking Dex</t>
-  </si>
-  <si>
     <t>dexo2c</t>
   </si>
   <si>
@@ -2822,6 +2819,9 @@
       </rPr>
       <t xml:space="preserve"> Mass Testing unit is now thousand tests allowing to perform up to 100,000 tests.</t>
     </r>
+  </si>
+  <si>
+    <t>Relative risk of dying if needing  but not receiving O2 and taking Dex</t>
   </si>
 </sst>
 </file>
@@ -3591,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E13D8F-D093-7849-84D5-273B640F7707}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3602,7 +3602,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21">
@@ -3627,47 +3627,47 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="59" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="34">
       <c r="A8" s="38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17">
       <c r="A9" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17">
       <c r="A10" s="38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17">
       <c r="A11" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="34">
       <c r="A12" s="38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="84" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="39" customFormat="1">
       <c r="A15" s="40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="85" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3677,17 +3677,17 @@
     </row>
     <row r="19" spans="1:1" ht="34">
       <c r="A19" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="34">
       <c r="A20" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="68">
       <c r="A21" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -3695,7 +3695,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="85" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -3825,7 +3825,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B5" s="7">
         <v>43876</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6" s="7">
         <v>43876</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B10" s="7">
         <v>43876</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B11" s="7">
         <v>43876</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B15" s="7">
         <v>43891</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B18" s="7">
         <v>43983</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B19" s="7">
         <v>43983</v>
@@ -4490,7 +4490,7 @@
         <v>292</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>293</v>
@@ -4521,10 +4521,10 @@
         <v>137</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>301</v>
@@ -4535,7 +4535,7 @@
         <v>138</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>52</v>
@@ -4623,7 +4623,7 @@
         <v>146</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>103</v>
@@ -4634,7 +4634,7 @@
         <v>147</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>103</v>
@@ -4648,7 +4648,7 @@
         <v>319</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4656,7 +4656,7 @@
         <v>149</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>103</v>
@@ -4667,7 +4667,7 @@
         <v>150</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>103</v>
@@ -4678,7 +4678,7 @@
         <v>151</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>52</v>
@@ -4700,7 +4700,7 @@
         <v>153</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="3:6">
@@ -7177,7 +7177,7 @@
     </row>
     <row r="2" spans="1:6" ht="17">
       <c r="A2" s="64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B2" s="62">
         <v>43862</v>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="3" spans="1:6" ht="17">
       <c r="A3" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B3" s="62">
         <v>44196</v>
@@ -7209,7 +7209,7 @@
     </row>
     <row r="4" spans="1:6" ht="17">
       <c r="A4" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="70">
@@ -7220,12 +7220,12 @@
         <v>44</v>
       </c>
       <c r="F4" s="67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="73" customFormat="1" ht="17">
       <c r="A5" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="71">
@@ -7238,12 +7238,12 @@
         <v>47</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="63">
@@ -7259,7 +7259,7 @@
     </row>
     <row r="7" spans="1:6" ht="17">
       <c r="A7" s="64" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B7" s="61"/>
       <c r="C7" s="63">
@@ -7277,7 +7277,7 @@
     </row>
     <row r="8" spans="1:6" ht="17">
       <c r="A8" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B8" s="61"/>
       <c r="C8" s="63">
@@ -7295,7 +7295,7 @@
     </row>
     <row r="9" spans="1:6" ht="17">
       <c r="A9" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B9" s="61"/>
       <c r="C9" s="63">
@@ -7308,12 +7308,12 @@
         <v>47</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34">
       <c r="A10" s="64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="63">
@@ -7331,7 +7331,7 @@
     </row>
     <row r="11" spans="1:6" ht="17">
       <c r="A11" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="63">
@@ -7344,12 +7344,12 @@
         <v>47</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34">
       <c r="A12" s="64" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B12" s="61"/>
       <c r="C12" s="63">
@@ -7362,12 +7362,12 @@
         <v>47</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34">
       <c r="A13" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B13" s="61"/>
       <c r="C13" s="63">
@@ -7380,12 +7380,12 @@
         <v>47</v>
       </c>
       <c r="F13" s="67" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34">
       <c r="A14" s="64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B14" s="61"/>
       <c r="C14" s="63">
@@ -7398,12 +7398,12 @@
         <v>47</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34">
       <c r="A15" s="64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B15" s="61"/>
       <c r="C15" s="63">
@@ -7416,12 +7416,12 @@
         <v>47</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34">
       <c r="A16" s="64" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B16" s="61"/>
       <c r="C16" s="63">
@@ -7434,12 +7434,12 @@
         <v>47</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34">
       <c r="A17" s="64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B17" s="61"/>
       <c r="C17" s="63">
@@ -7452,12 +7452,12 @@
         <v>47</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34">
       <c r="A18" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B18" s="61"/>
       <c r="C18" s="63">
@@ -7470,12 +7470,12 @@
         <v>47</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34">
       <c r="A19" s="64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B19" s="61"/>
       <c r="C19" s="63">
@@ -7488,12 +7488,12 @@
         <v>47</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34">
       <c r="A20" s="64" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B20" s="61"/>
       <c r="C20" s="63">
@@ -7506,12 +7506,12 @@
         <v>47</v>
       </c>
       <c r="F20" s=